--- a/fcst_results/no_covid_series_IAH-Dom_results.xlsx
+++ b/fcst_results/no_covid_series_IAH-Dom_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>1367231.825748444</v>
+        <v>1362914.121753693</v>
       </c>
       <c r="C2" t="n">
-        <v>1461956.016518393</v>
+        <v>1372283.140441895</v>
       </c>
       <c r="D2" t="n">
+        <v>1461955.905962696</v>
+      </c>
+      <c r="E2" t="n">
         <v>1466274.626851014</v>
       </c>
-      <c r="E2" t="n">
-        <v>1435895.467408465</v>
+      <c r="F2" t="n">
+        <v>1421118.651567191</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>1372462.197425842</v>
+        <v>1367423.132980347</v>
       </c>
       <c r="C3" t="n">
-        <v>1408948.284395932</v>
+        <v>1355128.435508728</v>
       </c>
       <c r="D3" t="n">
+        <v>1408948.195172029</v>
+      </c>
+      <c r="E3" t="n">
         <v>1406459.506398476</v>
       </c>
-      <c r="E3" t="n">
-        <v>1398660.347734847</v>
+      <c r="F3" t="n">
+        <v>1388304.517692638</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>1357831.624610901</v>
+        <v>1358262.562187195</v>
       </c>
       <c r="C4" t="n">
-        <v>1483206.192771547</v>
+        <v>1372914.536621094</v>
       </c>
       <c r="D4" t="n">
+        <v>1483205.86171466</v>
+      </c>
+      <c r="E4" t="n">
         <v>1476542.642662393</v>
       </c>
-      <c r="E4" t="n">
-        <v>1447968.125280834</v>
+      <c r="F4" t="n">
+        <v>1431696.838672712</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>1361975.307296753</v>
+        <v>1355717.125289917</v>
       </c>
       <c r="C5" t="n">
-        <v>1509710.30509284</v>
+        <v>1356505.208435059</v>
       </c>
       <c r="D5" t="n">
+        <v>1509709.837100313</v>
+      </c>
+      <c r="E5" t="n">
         <v>1538074.174295384</v>
       </c>
-      <c r="E5" t="n">
-        <v>1470366.961375158</v>
+      <c r="F5" t="n">
+        <v>1444417.562678583</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>1368542.021240234</v>
+        <v>1353380.475227356</v>
       </c>
       <c r="C6" t="n">
-        <v>1537256.542083192</v>
+        <v>1358737.658760071</v>
       </c>
       <c r="D6" t="n">
+        <v>1537255.878886186</v>
+      </c>
+      <c r="E6" t="n">
         <v>1580759.437709347</v>
       </c>
-      <c r="E6" t="n">
-        <v>1492994.782400774</v>
+      <c r="F6" t="n">
+        <v>1460651.638860852</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>1371447.121543884</v>
+        <v>1341657.811073303</v>
       </c>
       <c r="C7" t="n">
-        <v>1449348.415932925</v>
+        <v>1358325.943904877</v>
       </c>
       <c r="D7" t="n">
+        <v>1449347.775817401</v>
+      </c>
+      <c r="E7" t="n">
         <v>1495308.480243898</v>
       </c>
-      <c r="E7" t="n">
-        <v>1430468.242382777</v>
+      <c r="F7" t="n">
+        <v>1408217.868371581</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>1366036.9181633</v>
+        <v>1364806.373493195</v>
       </c>
       <c r="C8" t="n">
-        <v>1316628.418797399</v>
+        <v>1355285.31615448</v>
       </c>
       <c r="D8" t="n">
+        <v>1316628.38499413</v>
+      </c>
+      <c r="E8" t="n">
         <v>1247196.584143331</v>
       </c>
-      <c r="E8" t="n">
-        <v>1326178.988416582</v>
+      <c r="F8" t="n">
+        <v>1332300.532807594</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>1372158.943264008</v>
+        <v>1342629.212158203</v>
       </c>
       <c r="C9" t="n">
-        <v>1448484.863561966</v>
+        <v>1361900.353210449</v>
       </c>
       <c r="D9" t="n">
+        <v>1448484.58324605</v>
+      </c>
+      <c r="E9" t="n">
         <v>1431880.280552339</v>
       </c>
-      <c r="E9" t="n">
-        <v>1426277.413833343</v>
+      <c r="F9" t="n">
+        <v>1405730.58752032</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>1357728.344852448</v>
+        <v>1345193.339157104</v>
       </c>
       <c r="C10" t="n">
-        <v>1406238.619143981</v>
+        <v>1349620.133304596</v>
       </c>
       <c r="D10" t="n">
+        <v>1406238.420533782</v>
+      </c>
+      <c r="E10" t="n">
         <v>1397351.652247004</v>
       </c>
-      <c r="E10" t="n">
-        <v>1392224.564464498</v>
+      <c r="F10" t="n">
+        <v>1380247.37290965</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>1364404.294208527</v>
+        <v>1343095.980499268</v>
       </c>
       <c r="C11" t="n">
-        <v>1465473.050477547</v>
+        <v>1344864.809780121</v>
       </c>
       <c r="D11" t="n">
+        <v>1465472.733423681</v>
+      </c>
+      <c r="E11" t="n">
         <v>1451533.375801868</v>
       </c>
-      <c r="E11" t="n">
-        <v>1436550.8283555</v>
+      <c r="F11" t="n">
+        <v>1412097.79019077</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>1359571.886119843</v>
+        <v>1350423.420314789</v>
       </c>
       <c r="C12" t="n">
-        <v>1369424.794226767</v>
+        <v>1347847.382007599</v>
       </c>
       <c r="D12" t="n">
+        <v>1369424.493358441</v>
+      </c>
+      <c r="E12" t="n">
         <v>1348134.609319234</v>
       </c>
-      <c r="E12" t="n">
-        <v>1365405.825709522</v>
+      <c r="F12" t="n">
+        <v>1359651.391761511</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>1346467.41336441</v>
+        <v>1349658.627166748</v>
       </c>
       <c r="C13" t="n">
-        <v>1312243.039703819</v>
+        <v>1342853.832317352</v>
       </c>
       <c r="D13" t="n">
+        <v>1312242.839669333</v>
+      </c>
+      <c r="E13" t="n">
         <v>1263397.912703778</v>
       </c>
-      <c r="E13" t="n">
-        <v>1318813.355751154</v>
+      <c r="F13" t="n">
+        <v>1324774.237850247</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>1358910.082210541</v>
+        <v>1331379.659358978</v>
       </c>
       <c r="C14" t="n">
-        <v>1467384.137535612</v>
+        <v>1347778.238315582</v>
       </c>
       <c r="D14" t="n">
+        <v>1467383.489376868</v>
+      </c>
+      <c r="E14" t="n">
         <v>1492355.564453505</v>
       </c>
-      <c r="E14" t="n">
-        <v>1438745.8425756</v>
+      <c r="F14" t="n">
+        <v>1412927.299468855</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>1340362.577346802</v>
+        <v>1341646.287124634</v>
       </c>
       <c r="C15" t="n">
-        <v>1420779.477977416</v>
+        <v>1343853.074874878</v>
       </c>
       <c r="D15" t="n">
+        <v>1420778.967975877</v>
+      </c>
+      <c r="E15" t="n">
         <v>1429849.812231069</v>
       </c>
-      <c r="E15" t="n">
-        <v>1398980.35779158</v>
+      <c r="F15" t="n">
+        <v>1387335.905889364</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>1352233.939174652</v>
+        <v>1336095.569042206</v>
       </c>
       <c r="C16" t="n">
-        <v>1488402.597060649</v>
+        <v>1342265.771995544</v>
       </c>
       <c r="D16" t="n">
+        <v>1488401.873626795</v>
+      </c>
+      <c r="E16" t="n">
         <v>1509897.022441767</v>
       </c>
-      <c r="E16" t="n">
-        <v>1451859.73239118</v>
+      <c r="F16" t="n">
+        <v>1424618.034358586</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>1339011.515415192</v>
+        <v>1337835.297931671</v>
       </c>
       <c r="C17" t="n">
-        <v>1517139.355553404</v>
+        <v>1349743.313663483</v>
       </c>
       <c r="D17" t="n">
+        <v>1517138.453160465</v>
+      </c>
+      <c r="E17" t="n">
         <v>1561204.14765759</v>
       </c>
-      <c r="E17" t="n">
-        <v>1470295.78793063</v>
+      <c r="F17" t="n">
+        <v>1443884.120300201</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>1344219.371814728</v>
+        <v>1346191.952255249</v>
       </c>
       <c r="C18" t="n">
-        <v>1542659.922923123</v>
+        <v>1339092.764095306</v>
       </c>
       <c r="D18" t="n">
+        <v>1542658.837589464</v>
+      </c>
+      <c r="E18" t="n">
         <v>1609047.043795534</v>
       </c>
-      <c r="E18" t="n">
-        <v>1491515.499169172</v>
+      <c r="F18" t="n">
+        <v>1459124.678349207</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>1361381.775520325</v>
+        <v>1353284.458461761</v>
       </c>
       <c r="C19" t="n">
-        <v>1459579.039198957</v>
+        <v>1338533.126285553</v>
       </c>
       <c r="D19" t="n">
+        <v>1459578.093608506</v>
+      </c>
+      <c r="E19" t="n">
         <v>1515622.015667904</v>
       </c>
-      <c r="E19" t="n">
-        <v>1435666.117726866</v>
+      <c r="F19" t="n">
+        <v>1413101.514808512</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>1358790.242828369</v>
+        <v>1356058.098594666</v>
       </c>
       <c r="C20" t="n">
-        <v>1340671.260644272</v>
+        <v>1340762.090373993</v>
       </c>
       <c r="D20" t="n">
+        <v>1340671.039099967</v>
+      </c>
+      <c r="E20" t="n">
         <v>1286483.763960752</v>
       </c>
-      <c r="E20" t="n">
-        <v>1342444.976405886</v>
+      <c r="F20" t="n">
+        <v>1341658.492867745</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>1355611.472953796</v>
+        <v>1351684.614814758</v>
       </c>
       <c r="C21" t="n">
-        <v>1457273.876666622</v>
+        <v>1352999.797561646</v>
       </c>
       <c r="D21" t="n">
+        <v>1457273.402627488</v>
+      </c>
+      <c r="E21" t="n">
         <v>1457230.171840306</v>
       </c>
-      <c r="E21" t="n">
-        <v>1429022.933114093</v>
+      <c r="F21" t="n">
+        <v>1411742.912295104</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>1331240.694095612</v>
+        <v>1341008.838451385</v>
       </c>
       <c r="C22" t="n">
-        <v>1423990.540313727</v>
+        <v>1317837.421813965</v>
       </c>
       <c r="D22" t="n">
+        <v>1423990.119612573</v>
+      </c>
+      <c r="E22" t="n">
         <v>1421304.042586561</v>
       </c>
-      <c r="E22" t="n">
-        <v>1398057.036867568</v>
+      <c r="F22" t="n">
+        <v>1383130.852836887</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>1354324.325359344</v>
+        <v>1331751.86353302</v>
       </c>
       <c r="C23" t="n">
-        <v>1470451.736049701</v>
+        <v>1331762.17698288</v>
       </c>
       <c r="D23" t="n">
+        <v>1470451.287855354</v>
+      </c>
+      <c r="E23" t="n">
         <v>1481980.969156709</v>
       </c>
-      <c r="E23" t="n">
-        <v>1438877.925371973</v>
+      <c r="F23" t="n">
+        <v>1410838.71231638</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>1332983.473442078</v>
+        <v>1337420.338939667</v>
       </c>
       <c r="C24" t="n">
-        <v>1384620.274684009</v>
+        <v>1332241.195571899</v>
       </c>
       <c r="D24" t="n">
+        <v>1384619.876236732</v>
+      </c>
+      <c r="E24" t="n">
         <v>1368939.341189105</v>
       </c>
-      <c r="E24" t="n">
-        <v>1369328.623616205</v>
+      <c r="F24" t="n">
+        <v>1362348.249261189</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>1351298.32043457</v>
+        <v>1338776.291286469</v>
       </c>
       <c r="C25" t="n">
-        <v>1332142.748793587</v>
+        <v>1339309.685482025</v>
       </c>
       <c r="D25" t="n">
+        <v>1332142.508748576</v>
+      </c>
+      <c r="E25" t="n">
         <v>1296296.98752558</v>
       </c>
-      <c r="E25" t="n">
-        <v>1335308.264443795</v>
+      <c r="F25" t="n">
+        <v>1333437.431822571</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>1344258.253036499</v>
+        <v>1333469.997123718</v>
       </c>
       <c r="C26" t="n">
-        <v>1479079.855781822</v>
+        <v>1340866.04801178</v>
       </c>
       <c r="D26" t="n">
+        <v>1479078.987544222</v>
+      </c>
+      <c r="E26" t="n">
         <v>1518292.023674777</v>
       </c>
-      <c r="E26" t="n">
-        <v>1443977.507561867</v>
+      <c r="F26" t="n">
+        <v>1419286.888157289</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>1342276.61806488</v>
+        <v>1339127.965400696</v>
       </c>
       <c r="C27" t="n">
-        <v>1434936.893621408</v>
+        <v>1329988.650966644</v>
       </c>
       <c r="D27" t="n">
+        <v>1434936.229286784</v>
+      </c>
+      <c r="E27" t="n">
         <v>1453317.797089009</v>
       </c>
-      <c r="E27" t="n">
-        <v>1410296.072848613</v>
+      <c r="F27" t="n">
+        <v>1392378.445131414</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>1354073.219486237</v>
+        <v>1330418.135944366</v>
       </c>
       <c r="C28" t="n">
-        <v>1499061.416043405</v>
+        <v>1341869.115745544</v>
       </c>
       <c r="D28" t="n">
+        <v>1499060.485333843</v>
+      </c>
+      <c r="E28" t="n">
         <v>1543226.214976188</v>
       </c>
-      <c r="E28" t="n">
-        <v>1461432.177732633</v>
+      <c r="F28" t="n">
+        <v>1430341.329541065</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>1341039.633541107</v>
+        <v>1355954.625156403</v>
       </c>
       <c r="C29" t="n">
-        <v>1526320.433090255</v>
+        <v>1340360.253189087</v>
       </c>
       <c r="D29" t="n">
+        <v>1526319.309362227</v>
+      </c>
+      <c r="E29" t="n">
         <v>1584246.495333715</v>
       </c>
-      <c r="E29" t="n">
-        <v>1478323.459776045</v>
+      <c r="F29" t="n">
+        <v>1451969.282543676</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>1348232.950088501</v>
+        <v>1352425.246406555</v>
       </c>
       <c r="C30" t="n">
-        <v>1550525.664283878</v>
+        <v>1355132.890144348</v>
       </c>
       <c r="D30" t="n">
+        <v>1550524.346245478</v>
+      </c>
+      <c r="E30" t="n">
         <v>1637290.270287135</v>
       </c>
-      <c r="E30" t="n">
-        <v>1499537.139859039</v>
+      <c r="F30" t="n">
+        <v>1469250.222590174</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>1344301.346794128</v>
+        <v>1351752.596427917</v>
       </c>
       <c r="C31" t="n">
-        <v>1471742.993302779</v>
+        <v>1351110.741539001</v>
       </c>
       <c r="D31" t="n">
+        <v>1471741.910687225</v>
+      </c>
+      <c r="E31" t="n">
         <v>1536079.820013054</v>
       </c>
-      <c r="E31" t="n">
-        <v>1440203.220510469</v>
+      <c r="F31" t="n">
+        <v>1422603.087696986</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>1350665.08429718</v>
+        <v>1347159.625003815</v>
       </c>
       <c r="C32" t="n">
-        <v>1358984.543616633</v>
+        <v>1342634.538352966</v>
       </c>
       <c r="D32" t="n">
+        <v>1358984.290734927</v>
+      </c>
+      <c r="E32" t="n">
         <v>1325928.289888104</v>
       </c>
-      <c r="E32" t="n">
-        <v>1354683.60660956</v>
+      <c r="F32" t="n">
+        <v>1351369.860912133</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>1359272.796073914</v>
+        <v>1348070.307468414</v>
       </c>
       <c r="C33" t="n">
-        <v>1469561.9672241</v>
+        <v>1350012.141239166</v>
       </c>
       <c r="D33" t="n">
+        <v>1469561.344308968</v>
+      </c>
+      <c r="E33" t="n">
         <v>1482368.392110338</v>
       </c>
-      <c r="E33" t="n">
-        <v>1439687.251496477</v>
+      <c r="F33" t="n">
+        <v>1417868.092013329</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>1353328.95639801</v>
+        <v>1347247.119857788</v>
       </c>
       <c r="C34" t="n">
-        <v>1438000.877574426</v>
+        <v>1346892.346866608</v>
       </c>
       <c r="D34" t="n">
+        <v>1438000.347280504</v>
+      </c>
+      <c r="E34" t="n">
         <v>1445261.676542776</v>
       </c>
-      <c r="E34" t="n">
-        <v>1414910.546494951</v>
+      <c r="F34" t="n">
+        <v>1398907.590917132</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>1343191.222545624</v>
+        <v>1341654.470096588</v>
       </c>
       <c r="C35" t="n">
-        <v>1482061.813826792</v>
+        <v>1337812.976333618</v>
       </c>
       <c r="D35" t="n">
+        <v>1482061.206500658</v>
+      </c>
+      <c r="E35" t="n">
         <v>1512366.502102674</v>
       </c>
-      <c r="E35" t="n">
-        <v>1445298.363429661</v>
+      <c r="F35" t="n">
+        <v>1421806.065623114</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>1352299.354530334</v>
+        <v>1340673.627120972</v>
       </c>
       <c r="C36" t="n">
-        <v>1400668.270914038</v>
+        <v>1335694.7486763</v>
       </c>
       <c r="D36" t="n">
+        <v>1400667.812372946</v>
+      </c>
+      <c r="E36" t="n">
         <v>1389812.794384272</v>
       </c>
-      <c r="E36" t="n">
-        <v>1386575.033509553</v>
+      <c r="F36" t="n">
+        <v>1373115.38476615</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>1353192.605812073</v>
+        <v>1355572.204372406</v>
       </c>
       <c r="C37" t="n">
-        <v>1350904.306186284</v>
+        <v>1344467.136711121</v>
       </c>
       <c r="D37" t="n">
+        <v>1350904.060414267</v>
+      </c>
+      <c r="E37" t="n">
         <v>1329340.792625384</v>
       </c>
-      <c r="E37" t="n">
-        <v>1350242.492806355</v>
+      <c r="F37" t="n">
+        <v>1349639.261571608</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>1355069.798946381</v>
+        <v>1349110.755405426</v>
       </c>
       <c r="C38" t="n">
-        <v>1490246.663668669</v>
+        <v>1353943.792953491</v>
       </c>
       <c r="D38" t="n">
+        <v>1490245.653553338</v>
+      </c>
+      <c r="E38" t="n">
         <v>1544084.145057096</v>
       </c>
-      <c r="E38" t="n">
-        <v>1455925.723184392</v>
+      <c r="F38" t="n">
+        <v>1432559.912583424</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>1360270.731292725</v>
+        <v>1346414.199836731</v>
       </c>
       <c r="C39" t="n">
-        <v>1448386.106484951</v>
+        <v>1343573.788589478</v>
       </c>
       <c r="D39" t="n">
+        <v>1448385.341993276</v>
+      </c>
+      <c r="E39" t="n">
         <v>1476866.515115936</v>
       </c>
-      <c r="E39" t="n">
-        <v>1425615.917613169</v>
+      <c r="F39" t="n">
+        <v>1404919.786959077</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,19 +1387,19 @@
         <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>94620.5827279542</v>
+        <v>94658.17271484672</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05340420560765513</v>
+        <v>0.05342264946047947</v>
       </c>
       <c r="M2" t="n">
-        <v>72941.85417172259</v>
+        <v>72969.22217220838</v>
       </c>
       <c r="N2" t="n">
-        <v>0.285494357368557</v>
+        <v>0.2849265402622503</v>
       </c>
       <c r="O2" t="n">
-        <v>1217135.512446728</v>
+        <v>1217127.31639557</v>
       </c>
       <c r="P2" t="n">
         <v>1285706</v>
@@ -1356,19 +1408,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>123131.8929728744</v>
+        <v>163566.0548257188</v>
       </c>
       <c r="S2" t="n">
-        <v>114725.8595153741</v>
+        <v>114725.8395670812</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04863340448808084</v>
+        <v>0.04863333811748791</v>
       </c>
       <c r="U2" t="n">
-        <v>59567.33789786687</v>
+        <v>59567.25877940949</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3059825867762326</v>
+        <v>0.3059828281248081</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1379,16 +1431,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>94620.5827279542</v>
+        <v>94658.17271484672</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05340420560765513</v>
+        <v>0.05342264946047947</v>
       </c>
       <c r="AE2" t="n">
-        <v>72941.85417172259</v>
+        <v>72969.22217220838</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.285494357368557</v>
+        <v>0.2849265402622503</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1426,19 +1478,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>97243.66472621067</v>
+        <v>100340.3755707441</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05464474934574614</v>
+        <v>0.05834555939665606</v>
       </c>
       <c r="M3" t="n">
-        <v>73891.28447890854</v>
+        <v>78086.55644306516</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2453300439221731</v>
+        <v>0.196500019329879</v>
       </c>
       <c r="O3" t="n">
-        <v>1221307.58840642</v>
+        <v>1234995.700654589</v>
       </c>
       <c r="P3" t="n">
         <v>1285706</v>
@@ -1447,19 +1499,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>168131.1273387315</v>
+        <v>149370.9846649918</v>
       </c>
       <c r="S3" t="n">
-        <v>63985.45675106283</v>
+        <v>73418.74646382112</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03821847906098862</v>
+        <v>0.04479823192551602</v>
       </c>
       <c r="U3" t="n">
-        <v>49797.65476782473</v>
+        <v>58572.07143161668</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7306860059715732</v>
+        <v>0.6454232115013084</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1467,25 +1519,25 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['arima', 'lstm', 'prophet']</t>
+          <t>['arima', 'lstm_reg', 'lstm', 'prophet']</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.6619580781039944, 0.2778639147956425, 0.060178007100363126)</t>
+          <t>(0.5190764993331844, 0.22914427251928365, 0.20459045548087862, 0.04718877266665313)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>97243.66472621067</v>
+        <v>100340.3755707441</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05464474934574614</v>
+        <v>0.05834555939665606</v>
       </c>
       <c r="AE3" t="n">
-        <v>73891.28447890854</v>
+        <v>78086.55644306516</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2453300439221731</v>
+        <v>0.196500019329879</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1494,7 +1546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1505,7 +1557,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1529,19 +1581,19 @@
         <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>134161.9559536288</v>
+        <v>130386.893555607</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08380145760200536</v>
+        <v>0.08267252372082344</v>
       </c>
       <c r="M4" t="n">
-        <v>109457.2942997476</v>
+        <v>108199.0192724587</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.4364588477076783</v>
+        <v>-0.3567577252379384</v>
       </c>
       <c r="O4" t="n">
-        <v>1275977.840351105</v>
+        <v>1282321.580413818</v>
       </c>
       <c r="P4" t="n">
         <v>1285706</v>
@@ -1550,19 +1602,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>240370.9847174504</v>
+        <v>246220.0962177023</v>
       </c>
       <c r="S4" t="n">
-        <v>121967.3211306401</v>
+        <v>120908.924081452</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07482027935703439</v>
+        <v>0.07402280140279827</v>
       </c>
       <c r="U4" t="n">
-        <v>98423.72588889957</v>
+        <v>97738.62295884048</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02144927708207078</v>
+        <v>0.03835874851657939</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1573,16 +1625,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>134161.9559536288</v>
+        <v>130386.893555607</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08380145760200536</v>
+        <v>0.08267252372082344</v>
       </c>
       <c r="AE4" t="n">
-        <v>109457.2942997476</v>
+        <v>108199.0192724587</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4364588477076783</v>
+        <v>-0.3567577252379384</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1591,21 +1643,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>230</v>
       </c>
@@ -1622,19 +1678,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>162356.8053614396</v>
+        <v>134854.1602964251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1010291429561306</v>
+        <v>0.08514964076599355</v>
       </c>
       <c r="M5" t="n">
-        <v>137220.0728576381</v>
+        <v>110978.4259907819</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.103659377822665</v>
+        <v>-0.4513198138380723</v>
       </c>
       <c r="O5" t="n">
-        <v>1014767.83338422</v>
+        <v>1278120.326404572</v>
       </c>
       <c r="P5" t="n">
         <v>1285706</v>
@@ -1643,19 +1699,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>121644.7983013278</v>
+        <v>233754.3208478847</v>
       </c>
       <c r="S5" t="n">
-        <v>57694.02435842139</v>
+        <v>120016.4780944221</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03498192658677136</v>
+        <v>0.07349288753124902</v>
       </c>
       <c r="U5" t="n">
-        <v>44621.75880631554</v>
+        <v>96469.44282474418</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8244869577066509</v>
+        <v>0.05250237913141043</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1722,111 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>162356.8053614396</v>
+        <v>134854.1602964251</v>
       </c>
       <c r="AD5" t="n">
+        <v>0.08514964076599355</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>110978.4259907819</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.4513198138380723</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>230</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>162356.8053614395</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.1010291429561306</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="M6" t="n">
         <v>137220.0728576381</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="N6" t="n">
         <v>-1.103659377822665</v>
       </c>
-      <c r="AG5" t="b">
+      <c r="O6" t="n">
+        <v>1014767.83338422</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1285706</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>104923.1321488607</v>
+      </c>
+      <c r="S6" t="n">
+        <v>57694.02435842139</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03498192658677136</v>
+      </c>
+      <c r="U6" t="n">
+        <v>44621.75880631554</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8244869577066509</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>162356.8053614395</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1010291429561306</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>137220.0728576381</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-1.103659377822665</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4712,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>1461956.016518393</v>
+        <v>1461955.905962696</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4725,7 +4874,7 @@
         <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>1408948.284395932</v>
+        <v>1408948.195172029</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4738,7 +4887,7 @@
         <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>1483206.192771547</v>
+        <v>1483205.86171466</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4751,7 +4900,7 @@
         <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>1509710.30509284</v>
+        <v>1509709.837100313</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4764,7 +4913,7 @@
         <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>1537256.542083192</v>
+        <v>1537255.878886186</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4777,7 +4926,7 @@
         <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>1449348.415932925</v>
+        <v>1449347.775817401</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4790,7 +4939,7 @@
         <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>1316628.418797399</v>
+        <v>1316628.38499413</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4803,7 +4952,7 @@
         <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>1448484.863561966</v>
+        <v>1448484.58324605</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4816,7 +4965,7 @@
         <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>1406238.619143981</v>
+        <v>1406238.420533782</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4829,7 +4978,7 @@
         <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>1465473.050477547</v>
+        <v>1465472.733423681</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4842,7 +4991,7 @@
         <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>1369424.794226767</v>
+        <v>1369424.493358441</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4855,7 +5004,7 @@
         <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>1312243.039703819</v>
+        <v>1312242.839669333</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4868,7 +5017,7 @@
         <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>1467384.137535612</v>
+        <v>1467383.489376868</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4881,7 +5030,7 @@
         <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>1420779.477977416</v>
+        <v>1420778.967975877</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4894,7 +5043,7 @@
         <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>1488402.597060649</v>
+        <v>1488401.873626795</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4907,7 +5056,7 @@
         <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>1517139.355553404</v>
+        <v>1517138.453160465</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4920,7 +5069,7 @@
         <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>1542659.922923123</v>
+        <v>1542658.837589464</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4933,7 +5082,7 @@
         <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>1459579.039198957</v>
+        <v>1459578.093608506</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4946,7 +5095,7 @@
         <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>1340671.260644272</v>
+        <v>1340671.039099967</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4959,7 +5108,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>1457273.876666622</v>
+        <v>1457273.402627488</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4972,7 +5121,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>1423990.540313727</v>
+        <v>1423990.119612573</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4985,7 +5134,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>1470451.736049701</v>
+        <v>1470451.287855354</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4998,7 +5147,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>1384620.274684009</v>
+        <v>1384619.876236732</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5011,7 +5160,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>1332142.748793587</v>
+        <v>1332142.508748576</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5024,7 +5173,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>1479079.855781822</v>
+        <v>1479078.987544222</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5037,7 +5186,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>1434936.893621408</v>
+        <v>1434936.229286784</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5050,7 +5199,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>1499061.416043405</v>
+        <v>1499060.485333843</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5063,7 +5212,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>1526320.433090255</v>
+        <v>1526319.309362227</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5076,7 +5225,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>1550525.664283878</v>
+        <v>1550524.346245478</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5089,7 +5238,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>1471742.993302779</v>
+        <v>1471741.910687225</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5102,7 +5251,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>1358984.543616633</v>
+        <v>1358984.290734927</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5115,7 +5264,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>1469561.9672241</v>
+        <v>1469561.344308968</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5128,7 +5277,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>1438000.877574426</v>
+        <v>1438000.347280504</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5141,7 +5290,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>1482061.813826792</v>
+        <v>1482061.206500658</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5154,7 +5303,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>1400668.270914038</v>
+        <v>1400667.812372946</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5167,7 +5316,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>1350904.306186284</v>
+        <v>1350904.060414267</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5180,7 +5329,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>1490246.663668669</v>
+        <v>1490245.653553338</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5193,7 +5342,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>1448386.106484951</v>
+        <v>1448385.341993276</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5212,7 +5361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5243,10 +5392,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -5260,15 +5414,18 @@
         <v>1365748</v>
       </c>
       <c r="C2" t="n">
-        <v>1382781.409753699</v>
+        <v>1382788.314088087</v>
       </c>
       <c r="D2" t="n">
-        <v>1396157.176636891</v>
+        <v>1410436.421887074</v>
       </c>
       <c r="E2" t="n">
-        <v>1431992.011054993</v>
+        <v>1431977.824008942</v>
       </c>
       <c r="F2" t="n">
+        <v>1463978.23160553</v>
+      </c>
+      <c r="G2" t="n">
         <v>1377828.047916109</v>
       </c>
     </row>
@@ -5280,15 +5437,18 @@
         <v>1441959</v>
       </c>
       <c r="C3" t="n">
-        <v>1404917.255988404</v>
+        <v>1404897.179280684</v>
       </c>
       <c r="D3" t="n">
-        <v>1413606.002270642</v>
+        <v>1428840.788063617</v>
       </c>
       <c r="E3" t="n">
-        <v>1430302.73575592</v>
+        <v>1442753.926513672</v>
       </c>
       <c r="F3" t="n">
+        <v>1473257.576541901</v>
+      </c>
+      <c r="G3" t="n">
         <v>1432087.273306251</v>
       </c>
     </row>
@@ -5300,16 +5460,19 @@
         <v>1373174</v>
       </c>
       <c r="C4" t="n">
-        <v>1353296.968879655</v>
+        <v>1353302.463356728</v>
       </c>
       <c r="D4" t="n">
-        <v>1376990.588760885</v>
+        <v>1392163.223492409</v>
       </c>
       <c r="E4" t="n">
-        <v>1441420.537864685</v>
+        <v>1439003.026481628</v>
       </c>
       <c r="F4" t="n">
-        <v>1340123.718037497</v>
+        <v>1450300.418193817</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1340123.718037498</v>
       </c>
     </row>
     <row r="5">
@@ -5320,15 +5483,18 @@
         <v>1225273</v>
       </c>
       <c r="C5" t="n">
-        <v>1206360.856637617</v>
+        <v>1206427.255385631</v>
       </c>
       <c r="D5" t="n">
-        <v>1267022.641978443</v>
+        <v>1319041.77257336</v>
       </c>
       <c r="E5" t="n">
-        <v>1447996.790538788</v>
+        <v>1464351.791538239</v>
       </c>
       <c r="F5" t="n">
+        <v>1492839.089488983</v>
+      </c>
+      <c r="G5" t="n">
         <v>1098678.307472316</v>
       </c>
     </row>
@@ -5340,15 +5506,18 @@
         <v>1367566</v>
       </c>
       <c r="C6" t="n">
-        <v>1289166.021770413</v>
+        <v>1289190.866005405</v>
       </c>
       <c r="D6" t="n">
-        <v>1333841.306985895</v>
+        <v>1359552.495015839</v>
       </c>
       <c r="E6" t="n">
-        <v>1460671.681476593</v>
+        <v>1470585.182529449</v>
       </c>
       <c r="F6" t="n">
+        <v>1441368.389575958</v>
+      </c>
+      <c r="G6" t="n">
         <v>1239647.120369824</v>
       </c>
     </row>
@@ -5360,15 +5529,18 @@
         <v>1292767</v>
       </c>
       <c r="C7" t="n">
-        <v>1257683.641505286</v>
+        <v>1257715.005715149</v>
       </c>
       <c r="D7" t="n">
-        <v>1306197.704731915</v>
+        <v>1335606.118088288</v>
       </c>
       <c r="E7" t="n">
-        <v>1443535.66664505</v>
+        <v>1434027.973213196</v>
       </c>
       <c r="F7" t="n">
+        <v>1452953.492645264</v>
+      </c>
+      <c r="G7" t="n">
         <v>1205712.693943207</v>
       </c>
     </row>
@@ -5380,15 +5552,18 @@
         <v>1368676</v>
       </c>
       <c r="C8" t="n">
-        <v>1307159.161423223</v>
+        <v>1307177.260020926</v>
       </c>
       <c r="D8" t="n">
-        <v>1344230.514914459</v>
+        <v>1364302.592687009</v>
       </c>
       <c r="E8" t="n">
-        <v>1448790.199878693</v>
+        <v>1433135.78717041</v>
       </c>
       <c r="F8" t="n">
+        <v>1454073.542984009</v>
+      </c>
+      <c r="G8" t="n">
         <v>1269225.015369395</v>
       </c>
     </row>
@@ -5400,15 +5575,18 @@
         <v>1232680</v>
       </c>
       <c r="C9" t="n">
-        <v>1220488.476538344</v>
+        <v>1220500.933676911</v>
       </c>
       <c r="D9" t="n">
-        <v>1285680.233208296</v>
+        <v>1303784.950062556</v>
       </c>
       <c r="E9" t="n">
-        <v>1471473.349716187</v>
+        <v>1388424.803131104</v>
       </c>
       <c r="F9" t="n">
+        <v>1456934.484291077</v>
+      </c>
+      <c r="G9" t="n">
         <v>1144914.642095032</v>
       </c>
     </row>
@@ -5420,15 +5598,18 @@
         <v>1150017</v>
       </c>
       <c r="C10" t="n">
-        <v>1175799.278506254</v>
+        <v>1175819.653844161</v>
       </c>
       <c r="D10" t="n">
-        <v>1240722.160728793</v>
+        <v>1277633.890210166</v>
       </c>
       <c r="E10" t="n">
-        <v>1427547.495204926</v>
+        <v>1425969.779476166</v>
       </c>
       <c r="F10" t="n">
+        <v>1412576.191184998</v>
+      </c>
+      <c r="G10" t="n">
         <v>1092232.822013451</v>
       </c>
     </row>
@@ -5440,15 +5621,18 @@
         <v>1356672</v>
       </c>
       <c r="C11" t="n">
-        <v>1331987.453571501</v>
+        <v>1331963.258039293</v>
       </c>
       <c r="D11" t="n">
-        <v>1355738.6273191</v>
+        <v>1382713.106078515</v>
       </c>
       <c r="E11" t="n">
-        <v>1423262.232578278</v>
+        <v>1473577.92294693</v>
       </c>
       <c r="F11" t="n">
+        <v>1427576.837696075</v>
+      </c>
+      <c r="G11" t="n">
         <v>1305220.304791636</v>
       </c>
     </row>
@@ -5460,15 +5644,18 @@
         <v>1306233</v>
       </c>
       <c r="C12" t="n">
-        <v>1272006.094293493</v>
+        <v>1271993.245597132</v>
       </c>
       <c r="D12" t="n">
-        <v>1318520.319537053</v>
+        <v>1349974.907753587</v>
       </c>
       <c r="E12" t="n">
-        <v>1449479.167381287</v>
+        <v>1472516.46075058</v>
       </c>
       <c r="F12" t="n">
+        <v>1439289.721019745</v>
+      </c>
+      <c r="G12" t="n">
         <v>1225491.798618015</v>
       </c>
     </row>
@@ -5480,15 +5667,18 @@
         <v>1400779</v>
       </c>
       <c r="C13" t="n">
-        <v>1340917.962383393</v>
+        <v>1340893.624540553</v>
       </c>
       <c r="D13" t="n">
-        <v>1366452.949430384</v>
+        <v>1394277.042000052</v>
       </c>
       <c r="E13" t="n">
-        <v>1435503.522842407</v>
+        <v>1464382.973987579</v>
       </c>
       <c r="F13" t="n">
+        <v>1466369.160434723</v>
+      </c>
+      <c r="G13" t="n">
         <v>1328506.001581081</v>
       </c>
     </row>
@@ -5500,15 +5690,18 @@
         <v>1447188</v>
       </c>
       <c r="C14" t="n">
-        <v>1372416.632583388</v>
+        <v>1372390.122185133</v>
       </c>
       <c r="D14" t="n">
-        <v>1395044.600530496</v>
+        <v>1395489.959215167</v>
       </c>
       <c r="E14" t="n">
-        <v>1456912.065853119</v>
+        <v>1418384.987613678</v>
       </c>
       <c r="F14" t="n">
+        <v>1437035.675395966</v>
+      </c>
+      <c r="G14" t="n">
         <v>1358287.485332709</v>
       </c>
     </row>
@@ -5520,15 +5713,18 @@
         <v>1515810</v>
       </c>
       <c r="C15" t="n">
-        <v>1393225.83071857</v>
+        <v>1393172.563971852</v>
       </c>
       <c r="D15" t="n">
-        <v>1408531.230912687</v>
+        <v>1428871.406699032</v>
       </c>
       <c r="E15" t="n">
-        <v>1443539.927600861</v>
+        <v>1461189.581287384</v>
       </c>
       <c r="F15" t="n">
+        <v>1486391.34336853</v>
+      </c>
+      <c r="G15" t="n">
         <v>1415242.64930126</v>
       </c>
     </row>
@@ -5540,15 +5736,18 @@
         <v>1371694</v>
       </c>
       <c r="C16" t="n">
-        <v>1346883.59679675</v>
+        <v>1346859.0298874</v>
       </c>
       <c r="D16" t="n">
-        <v>1372449.564130585</v>
+        <v>1393012.849940191</v>
       </c>
       <c r="E16" t="n">
-        <v>1446753.559841156</v>
+        <v>1443015.684776306</v>
       </c>
       <c r="F16" t="n">
+        <v>1473119.724937439</v>
+      </c>
+      <c r="G16" t="n">
         <v>1310586.423237367</v>
       </c>
     </row>
@@ -5560,15 +5759,18 @@
         <v>1248898</v>
       </c>
       <c r="C17" t="n">
-        <v>1213716.956639699</v>
+        <v>1213775.116718794</v>
       </c>
       <c r="D17" t="n">
-        <v>1259892.123660219</v>
+        <v>1300193.888090041</v>
       </c>
       <c r="E17" t="n">
-        <v>1404386.488857269</v>
+        <v>1409401.682266235</v>
       </c>
       <c r="F17" t="n">
+        <v>1443165.011909485</v>
+      </c>
+      <c r="G17" t="n">
         <v>1100635.51772866</v>
       </c>
     </row>
@@ -5580,15 +5782,18 @@
         <v>1402365</v>
       </c>
       <c r="C18" t="n">
-        <v>1289143.409655113</v>
+        <v>1289147.65363195</v>
       </c>
       <c r="D18" t="n">
-        <v>1341006.990122717</v>
+        <v>1354862.396867736</v>
       </c>
       <c r="E18" t="n">
-        <v>1491864.734786987</v>
+        <v>1446754.673500061</v>
       </c>
       <c r="F18" t="n">
+        <v>1450942.708862305</v>
+      </c>
+      <c r="G18" t="n">
         <v>1214940.876848544</v>
       </c>
     </row>
@@ -5600,15 +5805,18 @@
         <v>1358981</v>
       </c>
       <c r="C19" t="n">
-        <v>1262553.582085946</v>
+        <v>1262564.192394297</v>
       </c>
       <c r="D19" t="n">
-        <v>1304742.490912804</v>
+        <v>1326415.573483421</v>
       </c>
       <c r="E19" t="n">
-        <v>1431136.333656311</v>
+        <v>1412301.020595551</v>
       </c>
       <c r="F19" t="n">
+        <v>1424791.286254883</v>
+      </c>
+      <c r="G19" t="n">
         <v>1185213.791093153</v>
       </c>
     </row>
@@ -5620,15 +5828,18 @@
         <v>1397123</v>
       </c>
       <c r="C20" t="n">
-        <v>1300713.605451351</v>
+        <v>1300721.260496673</v>
       </c>
       <c r="D20" t="n">
-        <v>1338330.115705933</v>
+        <v>1356737.338238925</v>
       </c>
       <c r="E20" t="n">
-        <v>1446697.295856476</v>
+        <v>1436778.759128571</v>
       </c>
       <c r="F20" t="n">
+        <v>1433428.388942719</v>
+      </c>
+      <c r="G20" t="n">
         <v>1251740.739786566</v>
       </c>
     </row>
@@ -5640,15 +5851,18 @@
         <v>1258130</v>
       </c>
       <c r="C21" t="n">
-        <v>1229464.176577253</v>
+        <v>1229459.076172339</v>
       </c>
       <c r="D21" t="n">
-        <v>1275936.809506497</v>
+        <v>1289945.628144705</v>
       </c>
       <c r="E21" t="n">
-        <v>1420431.360061646</v>
+        <v>1381418.339179993</v>
       </c>
       <c r="F21" t="n">
+        <v>1380167.40970993</v>
+      </c>
+      <c r="G21" t="n">
         <v>1119951.472704615</v>
       </c>
     </row>
@@ -5660,15 +5874,18 @@
         <v>1174589</v>
       </c>
       <c r="C22" t="n">
-        <v>1187693.090833223</v>
+        <v>1187705.423309141</v>
       </c>
       <c r="D22" t="n">
-        <v>1236723.866608862</v>
+        <v>1265935.960629794</v>
       </c>
       <c r="E22" t="n">
-        <v>1386154.827342987</v>
+        <v>1337444.597335815</v>
       </c>
       <c r="F22" t="n">
+        <v>1425810.429412842</v>
+      </c>
+      <c r="G22" t="n">
         <v>1086084.886063207</v>
       </c>
     </row>
@@ -5680,15 +5897,18 @@
         <v>1304802</v>
       </c>
       <c r="C23" t="n">
-        <v>1325689.977555347</v>
+        <v>1325645.059484149</v>
       </c>
       <c r="D23" t="n">
-        <v>1365023.759040374</v>
+        <v>1347439.668699318</v>
       </c>
       <c r="E23" t="n">
-        <v>1474127.925186157</v>
+        <v>1401181.426948547</v>
       </c>
       <c r="F23" t="n">
+        <v>1354888.272544861</v>
+      </c>
+      <c r="G23" t="n">
         <v>1293921.43220102</v>
       </c>
     </row>
@@ -5700,15 +5920,18 @@
         <v>1229416</v>
       </c>
       <c r="C24" t="n">
-        <v>1277162.510307874</v>
+        <v>1277124.581600807</v>
       </c>
       <c r="D24" t="n">
-        <v>1297256.498479738</v>
+        <v>1321471.31351932</v>
       </c>
       <c r="E24" t="n">
-        <v>1357965.312099457</v>
+        <v>1420137.983570099</v>
       </c>
       <c r="F24" t="n">
+        <v>1342735.784473419</v>
+      </c>
+      <c r="G24" t="n">
         <v>1237975.525327319</v>
       </c>
     </row>
@@ -5720,15 +5943,18 @@
         <v>1341370</v>
       </c>
       <c r="C25" t="n">
-        <v>1334912.968781109</v>
+        <v>1334865.311143405</v>
       </c>
       <c r="D25" t="n">
-        <v>1337371.323381518</v>
+        <v>1354989.023616053</v>
       </c>
       <c r="E25" t="n">
-        <v>1353887.432128906</v>
+        <v>1399217.513679504</v>
       </c>
       <c r="F25" t="n">
+        <v>1371925.220153809</v>
+      </c>
+      <c r="G25" t="n">
         <v>1288152.296533135</v>
       </c>
     </row>
@@ -5740,15 +5966,18 @@
         <v>1389216</v>
       </c>
       <c r="C26" t="n">
-        <v>1365114.368985848</v>
+        <v>1365055.959569284</v>
       </c>
       <c r="D26" t="n">
-        <v>1365576.782280407</v>
+        <v>1366218.730822535</v>
       </c>
       <c r="E26" t="n">
-        <v>1371059.08404541</v>
+        <v>1372171.14509201</v>
       </c>
       <c r="F26" t="n">
+        <v>1367315.54384613</v>
+      </c>
+      <c r="G26" t="n">
         <v>1345349.531937454</v>
       </c>
     </row>
@@ -5760,15 +5989,18 @@
         <v>1382725</v>
       </c>
       <c r="C27" t="n">
-        <v>1384134.452831553</v>
+        <v>1384049.553415412</v>
       </c>
       <c r="D27" t="n">
-        <v>1377930.903797621</v>
+        <v>1407687.142152138</v>
       </c>
       <c r="E27" t="n">
-        <v>1359649.600143433</v>
+        <v>1415279.041347504</v>
       </c>
       <c r="F27" t="n">
+        <v>1462289.295246124</v>
+      </c>
+      <c r="G27" t="n">
         <v>1394103.343728571</v>
       </c>
     </row>
@@ -5780,15 +6012,18 @@
         <v>1287874</v>
       </c>
       <c r="C28" t="n">
-        <v>1341721.394330155</v>
+        <v>1341669.697289449</v>
       </c>
       <c r="D28" t="n">
-        <v>1353514.755005638</v>
+        <v>1351874.279738354</v>
       </c>
       <c r="E28" t="n">
-        <v>1387025.90228653</v>
+        <v>1367756.988552094</v>
       </c>
       <c r="F28" t="n">
+        <v>1365365.285003662</v>
+      </c>
+      <c r="G28" t="n">
         <v>1328508.473173762</v>
       </c>
     </row>
@@ -5800,15 +6035,18 @@
         <v>1206037</v>
       </c>
       <c r="C29" t="n">
-        <v>1219408.746428163</v>
+        <v>1219454.596186141</v>
       </c>
       <c r="D29" t="n">
-        <v>1249082.2098704</v>
+        <v>1275649.987287433</v>
       </c>
       <c r="E29" t="n">
-        <v>1368536.452945709</v>
+        <v>1389600.487995148</v>
       </c>
       <c r="F29" t="n">
+        <v>1348659.917228699</v>
+      </c>
+      <c r="G29" t="n">
         <v>1023926.285940476</v>
       </c>
     </row>
@@ -5820,15 +6058,18 @@
         <v>1304495</v>
       </c>
       <c r="C30" t="n">
-        <v>1288831.251020144</v>
+        <v>1288815.389729076</v>
       </c>
       <c r="D30" t="n">
-        <v>1302477.827347234</v>
+        <v>1323673.742075913</v>
       </c>
       <c r="E30" t="n">
-        <v>1353530.431819916</v>
+        <v>1367062.452754974</v>
       </c>
       <c r="F30" t="n">
+        <v>1388154.813476562</v>
+      </c>
+      <c r="G30" t="n">
         <v>1216861.580658962</v>
       </c>
     </row>
@@ -5840,15 +6081,18 @@
         <v>1250473</v>
       </c>
       <c r="C31" t="n">
-        <v>1264465.155332022</v>
+        <v>1264459.448087964</v>
       </c>
       <c r="D31" t="n">
-        <v>1282718.89595916</v>
+        <v>1303206.442773736</v>
       </c>
       <c r="E31" t="n">
-        <v>1349442.432079315</v>
+        <v>1347432.277755737</v>
       </c>
       <c r="F31" t="n">
+        <v>1381453.007865906</v>
+      </c>
+      <c r="G31" t="n">
         <v>1175423.021557123</v>
       </c>
     </row>
@@ -5860,15 +6104,18 @@
         <v>1306926</v>
       </c>
       <c r="C32" t="n">
-        <v>1299605.037835254</v>
+        <v>1299590.51871465</v>
       </c>
       <c r="D32" t="n">
-        <v>1310292.711679902</v>
+        <v>1318291.209252584</v>
       </c>
       <c r="E32" t="n">
-        <v>1352545.860507965</v>
+        <v>1347567.32100296</v>
       </c>
       <c r="F32" t="n">
+        <v>1352676.013339996</v>
+      </c>
+      <c r="G32" t="n">
         <v>1232758.849509601</v>
       </c>
     </row>
@@ -5880,15 +6127,18 @@
         <v>1218332</v>
       </c>
       <c r="C33" t="n">
-        <v>1234168.384238437</v>
+        <v>1234153.628508667</v>
       </c>
       <c r="D33" t="n">
-        <v>1267989.957900427</v>
+        <v>1281629.10763764</v>
       </c>
       <c r="E33" t="n">
-        <v>1379723.931365967</v>
+        <v>1346176.603130341</v>
       </c>
       <c r="F33" t="n">
+        <v>1366118.989982605</v>
+      </c>
+      <c r="G33" t="n">
         <v>1124110.560754169</v>
       </c>
     </row>
@@ -5900,15 +6150,18 @@
         <v>1119025</v>
       </c>
       <c r="C34" t="n">
-        <v>1195819.311660134</v>
+        <v>1195827.334499298</v>
       </c>
       <c r="D34" t="n">
-        <v>1226509.080237723</v>
+        <v>1255579.236820492</v>
       </c>
       <c r="E34" t="n">
-        <v>1341386.465660095</v>
+        <v>1328029.192333221</v>
       </c>
       <c r="F34" t="n">
+        <v>1377218.101989746</v>
+      </c>
+      <c r="G34" t="n">
         <v>1033665.542057467</v>
       </c>
     </row>
@@ -5920,15 +6173,18 @@
         <v>1326162</v>
       </c>
       <c r="C35" t="n">
-        <v>1322701.657594293</v>
+        <v>1322634.963193793</v>
       </c>
       <c r="D35" t="n">
-        <v>1323385.088986637</v>
+        <v>1339004.229924981</v>
       </c>
       <c r="E35" t="n">
-        <v>1335662.307308197</v>
+        <v>1361170.567687988</v>
       </c>
       <c r="F35" t="n">
+        <v>1370652.646965027</v>
+      </c>
+      <c r="G35" t="n">
         <v>1274214.417553417</v>
       </c>
     </row>
@@ -5940,15 +6196,18 @@
         <v>1233070</v>
       </c>
       <c r="C36" t="n">
-        <v>1278129.334521767</v>
+        <v>1278076.910193399</v>
       </c>
       <c r="D36" t="n">
-        <v>1294721.325076104</v>
+        <v>1307491.27337395</v>
       </c>
       <c r="E36" t="n">
-        <v>1352606.724388123</v>
+        <v>1361372.236789703</v>
       </c>
       <c r="F36" t="n">
+        <v>1344269.147525787</v>
+      </c>
+      <c r="G36" t="n">
         <v>1209955.11680719</v>
       </c>
     </row>
@@ -5960,15 +6219,18 @@
         <v>1363368</v>
       </c>
       <c r="C37" t="n">
-        <v>1331240.116757246</v>
+        <v>1331169.533304565</v>
       </c>
       <c r="D37" t="n">
-        <v>1323698.701363357</v>
+        <v>1343272.132199945</v>
       </c>
       <c r="E37" t="n">
-        <v>1315686.898048401</v>
+        <v>1362435.151584625</v>
       </c>
       <c r="F37" t="n">
+        <v>1367631.145095825</v>
+      </c>
+      <c r="G37" t="n">
         <v>1277736.564364634</v>
       </c>
     </row>
@@ -5980,15 +6242,18 @@
         <v>1401174</v>
       </c>
       <c r="C38" t="n">
-        <v>1359024.200062337</v>
+        <v>1358938.93916505</v>
       </c>
       <c r="D38" t="n">
-        <v>1366072.857889516</v>
+        <v>1349813.393714589</v>
       </c>
       <c r="E38" t="n">
-        <v>1391550.068958282</v>
+        <v>1345799.944320679</v>
       </c>
       <c r="F38" t="n">
+        <v>1336655.01317215</v>
+      </c>
+      <c r="G38" t="n">
         <v>1325970.472758589</v>
       </c>
     </row>
@@ -6000,15 +6265,18 @@
         <v>1418008</v>
       </c>
       <c r="C39" t="n">
-        <v>1376527.072349675</v>
+        <v>1376414.463224801</v>
       </c>
       <c r="D39" t="n">
-        <v>1374181.428220951</v>
+        <v>1361782.953074973</v>
       </c>
       <c r="E39" t="n">
-        <v>1367875.326915741</v>
+        <v>1332751.299770355</v>
       </c>
       <c r="F39" t="n">
+        <v>1353552.075538635</v>
+      </c>
+      <c r="G39" t="n">
         <v>1377496.923798338</v>
       </c>
     </row>
@@ -6020,15 +6288,18 @@
         <v>1112493</v>
       </c>
       <c r="C40" t="n">
-        <v>1337559.004536682</v>
+        <v>1337483.766384752</v>
       </c>
       <c r="D40" t="n">
-        <v>1336465.904713666</v>
+        <v>1339605.78514996</v>
       </c>
       <c r="E40" t="n">
-        <v>1342071.995346069</v>
+        <v>1334100.957523346</v>
       </c>
       <c r="F40" t="n">
+        <v>1360623.18012619</v>
+      </c>
+      <c r="G40" t="n">
         <v>1298556.431506388</v>
       </c>
     </row>
@@ -6040,15 +6311,18 @@
         <v>1023025</v>
       </c>
       <c r="C41" t="n">
-        <v>1225146.545748641</v>
+        <v>1225180.637818552</v>
       </c>
       <c r="D41" t="n">
-        <v>1243887.558905709</v>
+        <v>1261796.767005925</v>
       </c>
       <c r="E41" t="n">
-        <v>1335818.897434235</v>
+        <v>1330768.212200165</v>
       </c>
       <c r="F41" t="n">
+        <v>1331936.779331207</v>
+      </c>
+      <c r="G41" t="n">
         <v>1025558.01962978</v>
       </c>
     </row>
@@ -6060,15 +6334,18 @@
         <v>1298780</v>
       </c>
       <c r="C42" t="n">
-        <v>1288970.268512527</v>
+        <v>1288936.541472038</v>
       </c>
       <c r="D42" t="n">
-        <v>1287771.304953806</v>
+        <v>1312899.407126653</v>
       </c>
       <c r="E42" t="n">
-        <v>1305495.514888763</v>
+        <v>1348247.0887146</v>
       </c>
       <c r="F42" t="n">
+        <v>1361820.799228668</v>
+      </c>
+      <c r="G42" t="n">
         <v>1192743.532387379</v>
       </c>
     </row>
@@ -6080,15 +6357,18 @@
         <v>1310910</v>
       </c>
       <c r="C43" t="n">
-        <v>1266583.883700135</v>
+        <v>1266563.438327999</v>
       </c>
       <c r="D43" t="n">
-        <v>1271358.842080769</v>
+        <v>1281587.322364241</v>
       </c>
       <c r="E43" t="n">
-        <v>1307954.90953064</v>
+        <v>1291167.66361618</v>
       </c>
       <c r="F43" t="n">
+        <v>1338194.0897789</v>
+      </c>
+      <c r="G43" t="n">
         <v>1154905.927922475</v>
       </c>
     </row>
@@ -6100,15 +6380,18 @@
         <v>1371367</v>
       </c>
       <c r="C44" t="n">
-        <v>1298892.396265869</v>
+        <v>1298858.244852537</v>
       </c>
       <c r="D44" t="n">
-        <v>1298755.065225704</v>
+        <v>1305326.576586114</v>
       </c>
       <c r="E44" t="n">
-        <v>1316490.378738403</v>
+        <v>1304301.091503143</v>
       </c>
       <c r="F44" t="n">
+        <v>1343638.429225922</v>
+      </c>
+      <c r="G44" t="n">
         <v>1215353.98107534</v>
       </c>
     </row>
@@ -6120,15 +6403,18 @@
         <v>1186117</v>
       </c>
       <c r="C45" t="n">
-        <v>1238752.017503358</v>
+        <v>1238728.186568831</v>
       </c>
       <c r="D45" t="n">
-        <v>1260150.619861866</v>
+        <v>1276914.638911443</v>
       </c>
       <c r="E45" t="n">
-        <v>1346082.038963318</v>
+        <v>1333130.331157684</v>
       </c>
       <c r="F45" t="n">
+        <v>1351928.699794769</v>
+      </c>
+      <c r="G45" t="n">
         <v>1098758.388844196</v>
       </c>
     </row>
@@ -6140,15 +6426,18 @@
         <v>1154994</v>
       </c>
       <c r="C46" t="n">
-        <v>1203508.763440844</v>
+        <v>1203512.052041566</v>
       </c>
       <c r="D46" t="n">
-        <v>1228122.446382555</v>
+        <v>1253364.037584887</v>
       </c>
       <c r="E46" t="n">
-        <v>1330272.052947998</v>
+        <v>1346068.72347641</v>
       </c>
       <c r="F46" t="n">
+        <v>1328177.599487305</v>
+      </c>
+      <c r="G46" t="n">
         <v>1027210.786084658</v>
       </c>
     </row>
@@ -6160,15 +6449,18 @@
         <v>1374882</v>
       </c>
       <c r="C47" t="n">
-        <v>1320141.328026647</v>
+        <v>1320055.603145929</v>
       </c>
       <c r="D47" t="n">
-        <v>1317572.160357893</v>
+        <v>1318088.963972322</v>
       </c>
       <c r="E47" t="n">
-        <v>1325174.642459869</v>
+        <v>1323046.149772644</v>
       </c>
       <c r="F47" t="n">
+        <v>1322281.356624603</v>
+      </c>
+      <c r="G47" t="n">
         <v>1254207.869729331</v>
       </c>
     </row>
@@ -6180,15 +6472,18 @@
         <v>1359171</v>
       </c>
       <c r="C48" t="n">
-        <v>1279176.035402749</v>
+        <v>1279110.604431926</v>
       </c>
       <c r="D48" t="n">
-        <v>1286205.901764186</v>
+        <v>1299775.583302341</v>
       </c>
       <c r="E48" t="n">
-        <v>1325517.552562714</v>
+        <v>1330941.216690063</v>
       </c>
       <c r="F48" t="n">
+        <v>1344460.503177643</v>
+      </c>
+      <c r="G48" t="n">
         <v>1182018.131777767</v>
       </c>
     </row>
@@ -6200,15 +6495,18 @@
         <v>1432452</v>
       </c>
       <c r="C49" t="n">
-        <v>1327998.033586607</v>
+        <v>1327907.406898683</v>
       </c>
       <c r="D49" t="n">
-        <v>1315103.678271117</v>
+        <v>1327945.975978379</v>
       </c>
       <c r="E49" t="n">
-        <v>1294712.87569046</v>
+        <v>1317819.990631104</v>
       </c>
       <c r="F49" t="n">
+        <v>1353345.9518013</v>
+      </c>
+      <c r="G49" t="n">
         <v>1267417.578806915</v>
       </c>
     </row>
@@ -6220,15 +6518,18 @@
         <v>1511298</v>
       </c>
       <c r="C50" t="n">
-        <v>1353539.749298365</v>
+        <v>1353431.190941321</v>
       </c>
       <c r="D50" t="n">
-        <v>1341535.902592322</v>
+        <v>1342510.55548853</v>
       </c>
       <c r="E50" t="n">
-        <v>1320524.487071991</v>
+        <v>1337969.421199799</v>
       </c>
       <c r="F50" t="n">
+        <v>1328192.706512451</v>
+      </c>
+      <c r="G50" t="n">
         <v>1306510.995237141</v>
       </c>
     </row>
@@ -6240,15 +6541,18 @@
         <v>1557029</v>
       </c>
       <c r="C51" t="n">
-        <v>1369630.725431825</v>
+        <v>1369494.239536581</v>
       </c>
       <c r="D51" t="n">
-        <v>1359430.334135171</v>
+        <v>1352367.460427497</v>
       </c>
       <c r="E51" t="n">
-        <v>1334839.652317047</v>
+        <v>1329449.446376801</v>
       </c>
       <c r="F51" t="n">
+        <v>1332644.679035187</v>
+      </c>
+      <c r="G51" t="n">
         <v>1360770.220627289</v>
       </c>
     </row>
@@ -6260,15 +6564,18 @@
         <v>1458131</v>
       </c>
       <c r="C52" t="n">
-        <v>1333814.540136197</v>
+        <v>1333718.669981952</v>
       </c>
       <c r="D52" t="n">
-        <v>1327267.906374192</v>
+        <v>1332515.68594712</v>
       </c>
       <c r="E52" t="n">
-        <v>1324332.958427429</v>
+        <v>1323421.017044067</v>
       </c>
       <c r="F52" t="n">
+        <v>1354344.177539825</v>
+      </c>
+      <c r="G52" t="n">
         <v>1268806.66535849</v>
       </c>
     </row>
@@ -6280,15 +6587,18 @@
         <v>1270202</v>
       </c>
       <c r="C53" t="n">
-        <v>1230489.66621358</v>
+        <v>1230512.334281159</v>
       </c>
       <c r="D53" t="n">
-        <v>1244026.19650739</v>
+        <v>1260887.167294946</v>
       </c>
       <c r="E53" t="n">
-        <v>1323198.333683014</v>
+        <v>1297756.989677429</v>
       </c>
       <c r="F53" t="n">
+        <v>1350520.647579193</v>
+      </c>
+      <c r="G53" t="n">
         <v>1027361.254793307</v>
       </c>
     </row>
@@ -6300,15 +6610,18 @@
         <v>1417738</v>
       </c>
       <c r="C54" t="n">
-        <v>1289156.585893056</v>
+        <v>1289106.690707203</v>
       </c>
       <c r="D54" t="n">
-        <v>1294500.267319478</v>
+        <v>1302387.694002334</v>
       </c>
       <c r="E54" t="n">
-        <v>1334555.717716217</v>
+        <v>1318018.706115723</v>
       </c>
       <c r="F54" t="n">
+        <v>1349497.001365662</v>
+      </c>
+      <c r="G54" t="n">
         <v>1168330.067690833</v>
       </c>
     </row>
@@ -6320,15 +6633,18 @@
         <v>1397043</v>
       </c>
       <c r="C55" t="n">
-        <v>1268580.974985688</v>
+        <v>1268546.890254877</v>
       </c>
       <c r="D55" t="n">
-        <v>1281263.982635596</v>
+        <v>1284572.807553118</v>
       </c>
       <c r="E55" t="n">
-        <v>1343286.65827179</v>
+        <v>1312021.798171997</v>
       </c>
       <c r="F55" t="n">
+        <v>1329128.034732819</v>
+      </c>
+      <c r="G55" t="n">
         <v>1134395.641264266</v>
       </c>
     </row>
@@ -6340,15 +6656,18 @@
         <v>1404491</v>
       </c>
       <c r="C56" t="n">
-        <v>1298279.392764757</v>
+        <v>1298227.53320758</v>
       </c>
       <c r="D56" t="n">
-        <v>1293161.993465594</v>
+        <v>1297800.252262883</v>
       </c>
       <c r="E56" t="n">
-        <v>1301600.274978638</v>
+        <v>1307098.554252625</v>
       </c>
       <c r="F56" t="n">
+        <v>1309342.092746735</v>
+      </c>
+      <c r="G56" t="n">
         <v>1197907.962690411</v>
       </c>
     </row>
@@ -6360,15 +6679,18 @@
         <v>1314022</v>
       </c>
       <c r="C57" t="n">
-        <v>1243000.810751677</v>
+        <v>1242968.099929557</v>
       </c>
       <c r="D57" t="n">
-        <v>1250696.776313128</v>
+        <v>1261227.06280305</v>
       </c>
       <c r="E57" t="n">
-        <v>1307385.975090027</v>
+        <v>1306215.08380127</v>
       </c>
       <c r="F57" t="n">
+        <v>1300442.263397217</v>
+      </c>
+      <c r="G57" t="n">
         <v>1073597.589415986</v>
       </c>
     </row>
@@ -6380,15 +6702,18 @@
         <v>1220092</v>
       </c>
       <c r="C58" t="n">
-        <v>1210606.916439991</v>
+        <v>1210604.794455711</v>
       </c>
       <c r="D58" t="n">
-        <v>1229574.698856331</v>
+        <v>1232942.349084399</v>
       </c>
       <c r="E58" t="n">
-        <v>1319951.872714996</v>
+        <v>1279701.770469666</v>
       </c>
       <c r="F58" t="n">
+        <v>1286148.74187088</v>
+      </c>
+      <c r="G58" t="n">
         <v>1020915.769334494</v>
       </c>
     </row>
@@ -6400,15 +6725,18 @@
         <v>1492492</v>
       </c>
       <c r="C59" t="n">
-        <v>1317813.520877413</v>
+        <v>1317710.873216883</v>
       </c>
       <c r="D59" t="n">
-        <v>1303155.555297251</v>
+        <v>1310716.23937352</v>
       </c>
       <c r="E59" t="n">
-        <v>1283233.957576752</v>
+        <v>1304933.117141724</v>
       </c>
       <c r="F59" t="n">
+        <v>1317163.900276184</v>
+      </c>
+      <c r="G59" t="n">
         <v>1233903.252112702</v>
       </c>
     </row>
@@ -6420,15 +6748,18 @@
         <v>1415841</v>
       </c>
       <c r="C60" t="n">
-        <v>1280159.821593027</v>
+        <v>1280082.40709606</v>
       </c>
       <c r="D60" t="n">
-        <v>1283050.96712345</v>
+        <v>1286022.916483905</v>
       </c>
       <c r="E60" t="n">
-        <v>1317849.768901825</v>
+        <v>1311826.956283569</v>
       </c>
       <c r="F60" t="n">
+        <v>1302604.746891022</v>
+      </c>
+      <c r="G60" t="n">
         <v>1154174.745939109</v>
       </c>
     </row>
@@ -6440,15 +6771,18 @@
         <v>1514742</v>
       </c>
       <c r="C61" t="n">
-        <v>1325036.364098067</v>
+        <v>1324927.959925324</v>
       </c>
       <c r="D61" t="n">
-        <v>1316890.09542665</v>
+        <v>1312797.396132404</v>
       </c>
       <c r="E61" t="n">
-        <v>1310412.851573944</v>
+        <v>1328004.837097168</v>
       </c>
       <c r="F61" t="n">
+        <v>1277813.876525879</v>
+      </c>
+      <c r="G61" t="n">
         <v>1257188.948902153</v>
       </c>
     </row>
@@ -6460,15 +6794,18 @@
         <v>1519625</v>
       </c>
       <c r="C62" t="n">
-        <v>1348514.145890651</v>
+        <v>1348385.165193168</v>
       </c>
       <c r="D62" t="n">
-        <v>1345818.426399272</v>
+        <v>1332109.7807388</v>
       </c>
       <c r="E62" t="n">
-        <v>1352141.311805725</v>
+        <v>1305649.587177277</v>
       </c>
       <c r="F62" t="n">
+        <v>1330863.890026093</v>
+      </c>
+      <c r="G62" t="n">
         <v>1286970.432653716</v>
       </c>
     </row>
@@ -6480,15 +6817,18 @@
         <v>1555592</v>
       </c>
       <c r="C63" t="n">
-        <v>1363304.965235684</v>
+        <v>1363147.738587558</v>
       </c>
       <c r="D63" t="n">
-        <v>1346913.666194546</v>
+        <v>1342184.841067614</v>
       </c>
       <c r="E63" t="n">
-        <v>1308511.64214325</v>
+        <v>1330348.217533112</v>
       </c>
       <c r="F63" t="n">
+        <v>1301854.528148651</v>
+      </c>
+      <c r="G63" t="n">
         <v>1343925.596622388</v>
       </c>
     </row>
@@ -6500,15 +6840,18 @@
         <v>1463393</v>
       </c>
       <c r="C64" t="n">
-        <v>1330383.90203384</v>
+        <v>1330269.755700323</v>
       </c>
       <c r="D64" t="n">
-        <v>1315434.412338848</v>
+        <v>1324281.539937224</v>
       </c>
       <c r="E64" t="n">
-        <v>1296315.430854797</v>
+        <v>1330177.440361023</v>
       </c>
       <c r="F64" t="n">
+        <v>1322093.099849701</v>
+      </c>
+      <c r="G64" t="n">
         <v>1239269.370558317</v>
       </c>
     </row>
@@ -6520,15 +6863,18 @@
         <v>1261890</v>
       </c>
       <c r="C65" t="n">
-        <v>1235410.413338225</v>
+        <v>1235421.798298435</v>
       </c>
       <c r="D65" t="n">
-        <v>1243610.206776037</v>
+        <v>1262824.141253664</v>
       </c>
       <c r="E65" t="n">
-        <v>1309554.607917786</v>
+        <v>1310142.474559784</v>
       </c>
       <c r="F65" t="n">
+        <v>1333208.819900513</v>
+      </c>
+      <c r="G65" t="n">
         <v>1029318.46504969</v>
       </c>
     </row>
@@ -6540,15 +6886,18 @@
         <v>1467633</v>
       </c>
       <c r="C66" t="n">
-        <v>1289335.876783197</v>
+        <v>1289271.157577895</v>
       </c>
       <c r="D66" t="n">
-        <v>1281717.657175255</v>
+        <v>1288915.921828418</v>
       </c>
       <c r="E66" t="n">
-        <v>1293476.181686401</v>
+        <v>1300004.59544754</v>
       </c>
       <c r="F66" t="n">
+        <v>1309106.771778107</v>
+      </c>
+      <c r="G66" t="n">
         <v>1143623.824169531</v>
       </c>
     </row>
@@ -6560,15 +6909,18 @@
         <v>1370563</v>
       </c>
       <c r="C67" t="n">
-        <v>1270423.46079533</v>
+        <v>1270376.57735534</v>
       </c>
       <c r="D67" t="n">
-        <v>1270596.871046666</v>
+        <v>1284127.0681958</v>
       </c>
       <c r="E67" t="n">
-        <v>1304947.110507965</v>
+        <v>1325900.893325806</v>
       </c>
       <c r="F67" t="n">
+        <v>1311490.437614441</v>
+      </c>
+      <c r="G67" t="n">
         <v>1113896.738414168</v>
       </c>
     </row>
@@ -6580,15 +6932,18 @@
         <v>1504928</v>
       </c>
       <c r="C68" t="n">
-        <v>1297721.703324717</v>
+        <v>1297653.717843206</v>
       </c>
       <c r="D68" t="n">
-        <v>1285589.32257552</v>
+        <v>1286200.933542732</v>
       </c>
       <c r="E68" t="n">
-        <v>1279462.333805084</v>
+        <v>1272816.598499298</v>
       </c>
       <c r="F68" t="n">
+        <v>1296531.674362183</v>
+      </c>
+      <c r="G68" t="n">
         <v>1180423.6871076</v>
       </c>
     </row>
@@ -6600,15 +6955,18 @@
         <v>1364156</v>
       </c>
       <c r="C69" t="n">
-        <v>1246911.088967436</v>
+        <v>1246869.57870171</v>
       </c>
       <c r="D69" t="n">
-        <v>1253985.159284725</v>
+        <v>1242668.857347309</v>
       </c>
       <c r="E69" t="n">
-        <v>1315311.352897644</v>
+        <v>1254149.447933197</v>
       </c>
       <c r="F69" t="n">
+        <v>1263906.600959778</v>
+      </c>
+      <c r="G69" t="n">
         <v>1048634.420025666</v>
       </c>
     </row>
@@ -6620,15 +6978,18 @@
         <v>1285706</v>
       </c>
       <c r="C70" t="n">
-        <v>1217135.512446728</v>
+        <v>1217127.31639557</v>
       </c>
       <c r="D70" t="n">
-        <v>1221307.58840642</v>
+        <v>1234995.700654589</v>
       </c>
       <c r="E70" t="n">
-        <v>1275977.840351105</v>
+        <v>1282321.580413818</v>
       </c>
       <c r="F70" t="n">
+        <v>1278120.326404572</v>
+      </c>
+      <c r="G70" t="n">
         <v>1014767.83338422</v>
       </c>
     </row>
@@ -6643,7 +7004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6674,10 +7035,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -6691,15 +7057,18 @@
         <v>1365748</v>
       </c>
       <c r="C2" t="n">
-        <v>1382781.409753699</v>
+        <v>1382788.314088087</v>
       </c>
       <c r="D2" t="n">
-        <v>1396157.176636891</v>
+        <v>1410436.421887074</v>
       </c>
       <c r="E2" t="n">
-        <v>1431992.011054993</v>
+        <v>1431977.824008942</v>
       </c>
       <c r="F2" t="n">
+        <v>1463978.23160553</v>
+      </c>
+      <c r="G2" t="n">
         <v>1377828.047916109</v>
       </c>
     </row>
@@ -6711,15 +7080,18 @@
         <v>1441959</v>
       </c>
       <c r="C3" t="n">
-        <v>1404917.255988404</v>
+        <v>1404897.179280684</v>
       </c>
       <c r="D3" t="n">
-        <v>1413606.002270642</v>
+        <v>1428840.788063617</v>
       </c>
       <c r="E3" t="n">
-        <v>1430302.73575592</v>
+        <v>1442753.926513672</v>
       </c>
       <c r="F3" t="n">
+        <v>1473257.576541901</v>
+      </c>
+      <c r="G3" t="n">
         <v>1432087.273306251</v>
       </c>
     </row>
@@ -6731,16 +7103,19 @@
         <v>1373174</v>
       </c>
       <c r="C4" t="n">
-        <v>1353296.968879655</v>
+        <v>1353302.463356728</v>
       </c>
       <c r="D4" t="n">
-        <v>1376990.588760885</v>
+        <v>1392163.223492409</v>
       </c>
       <c r="E4" t="n">
-        <v>1441420.537864685</v>
+        <v>1439003.026481628</v>
       </c>
       <c r="F4" t="n">
-        <v>1340123.718037497</v>
+        <v>1450300.418193817</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1340123.718037498</v>
       </c>
     </row>
     <row r="5">
@@ -6751,15 +7126,18 @@
         <v>1225273</v>
       </c>
       <c r="C5" t="n">
-        <v>1206360.856637617</v>
+        <v>1206427.255385631</v>
       </c>
       <c r="D5" t="n">
-        <v>1267022.641978443</v>
+        <v>1319041.77257336</v>
       </c>
       <c r="E5" t="n">
-        <v>1447996.790538788</v>
+        <v>1464351.791538239</v>
       </c>
       <c r="F5" t="n">
+        <v>1492839.089488983</v>
+      </c>
+      <c r="G5" t="n">
         <v>1098678.307472316</v>
       </c>
     </row>
@@ -6771,15 +7149,18 @@
         <v>1367566</v>
       </c>
       <c r="C6" t="n">
-        <v>1289166.021770413</v>
+        <v>1289190.866005405</v>
       </c>
       <c r="D6" t="n">
-        <v>1333841.306985895</v>
+        <v>1359552.495015839</v>
       </c>
       <c r="E6" t="n">
-        <v>1460671.681476593</v>
+        <v>1470585.182529449</v>
       </c>
       <c r="F6" t="n">
+        <v>1441368.389575958</v>
+      </c>
+      <c r="G6" t="n">
         <v>1239647.120369824</v>
       </c>
     </row>
@@ -6791,15 +7172,18 @@
         <v>1292767</v>
       </c>
       <c r="C7" t="n">
-        <v>1257683.641505286</v>
+        <v>1257715.005715149</v>
       </c>
       <c r="D7" t="n">
-        <v>1306197.704731915</v>
+        <v>1335606.118088288</v>
       </c>
       <c r="E7" t="n">
-        <v>1443535.66664505</v>
+        <v>1434027.973213196</v>
       </c>
       <c r="F7" t="n">
+        <v>1452953.492645264</v>
+      </c>
+      <c r="G7" t="n">
         <v>1205712.693943207</v>
       </c>
     </row>
@@ -6811,15 +7195,18 @@
         <v>1368676</v>
       </c>
       <c r="C8" t="n">
-        <v>1307159.161423223</v>
+        <v>1307177.260020926</v>
       </c>
       <c r="D8" t="n">
-        <v>1344230.514914459</v>
+        <v>1364302.592687009</v>
       </c>
       <c r="E8" t="n">
-        <v>1448790.199878693</v>
+        <v>1433135.78717041</v>
       </c>
       <c r="F8" t="n">
+        <v>1454073.542984009</v>
+      </c>
+      <c r="G8" t="n">
         <v>1269225.015369395</v>
       </c>
     </row>
@@ -6831,15 +7218,18 @@
         <v>1232680</v>
       </c>
       <c r="C9" t="n">
-        <v>1220488.476538344</v>
+        <v>1220500.933676911</v>
       </c>
       <c r="D9" t="n">
-        <v>1285680.233208296</v>
+        <v>1303784.950062556</v>
       </c>
       <c r="E9" t="n">
-        <v>1471473.349716187</v>
+        <v>1388424.803131104</v>
       </c>
       <c r="F9" t="n">
+        <v>1456934.484291077</v>
+      </c>
+      <c r="G9" t="n">
         <v>1144914.642095032</v>
       </c>
     </row>
@@ -6851,15 +7241,18 @@
         <v>1150017</v>
       </c>
       <c r="C10" t="n">
-        <v>1175799.278506254</v>
+        <v>1175819.653844161</v>
       </c>
       <c r="D10" t="n">
-        <v>1240722.160728793</v>
+        <v>1277633.890210166</v>
       </c>
       <c r="E10" t="n">
-        <v>1427547.495204926</v>
+        <v>1425969.779476166</v>
       </c>
       <c r="F10" t="n">
+        <v>1412576.191184998</v>
+      </c>
+      <c r="G10" t="n">
         <v>1092232.822013451</v>
       </c>
     </row>
@@ -6871,15 +7264,18 @@
         <v>1356672</v>
       </c>
       <c r="C11" t="n">
-        <v>1331987.453571501</v>
+        <v>1331963.258039293</v>
       </c>
       <c r="D11" t="n">
-        <v>1355738.6273191</v>
+        <v>1382713.106078515</v>
       </c>
       <c r="E11" t="n">
-        <v>1423262.232578278</v>
+        <v>1473577.92294693</v>
       </c>
       <c r="F11" t="n">
+        <v>1427576.837696075</v>
+      </c>
+      <c r="G11" t="n">
         <v>1305220.304791636</v>
       </c>
     </row>
@@ -6891,15 +7287,18 @@
         <v>1306233</v>
       </c>
       <c r="C12" t="n">
-        <v>1272006.094293493</v>
+        <v>1271993.245597132</v>
       </c>
       <c r="D12" t="n">
-        <v>1318520.319537053</v>
+        <v>1349974.907753587</v>
       </c>
       <c r="E12" t="n">
-        <v>1449479.167381287</v>
+        <v>1472516.46075058</v>
       </c>
       <c r="F12" t="n">
+        <v>1439289.721019745</v>
+      </c>
+      <c r="G12" t="n">
         <v>1225491.798618015</v>
       </c>
     </row>
@@ -6911,15 +7310,18 @@
         <v>1400779</v>
       </c>
       <c r="C13" t="n">
-        <v>1340917.962383393</v>
+        <v>1340893.624540553</v>
       </c>
       <c r="D13" t="n">
-        <v>1366452.949430384</v>
+        <v>1394277.042000052</v>
       </c>
       <c r="E13" t="n">
-        <v>1435503.522842407</v>
+        <v>1464382.973987579</v>
       </c>
       <c r="F13" t="n">
+        <v>1466369.160434723</v>
+      </c>
+      <c r="G13" t="n">
         <v>1328506.001581081</v>
       </c>
     </row>
@@ -6931,15 +7333,18 @@
         <v>1447188</v>
       </c>
       <c r="C14" t="n">
-        <v>1372416.632583388</v>
+        <v>1372390.122185133</v>
       </c>
       <c r="D14" t="n">
-        <v>1395044.600530496</v>
+        <v>1395489.959215167</v>
       </c>
       <c r="E14" t="n">
-        <v>1456912.065853119</v>
+        <v>1418384.987613678</v>
       </c>
       <c r="F14" t="n">
+        <v>1437035.675395966</v>
+      </c>
+      <c r="G14" t="n">
         <v>1358287.485332709</v>
       </c>
     </row>
@@ -6951,15 +7356,18 @@
         <v>1515810</v>
       </c>
       <c r="C15" t="n">
-        <v>1393225.83071857</v>
+        <v>1393172.563971852</v>
       </c>
       <c r="D15" t="n">
-        <v>1408531.230912687</v>
+        <v>1428871.406699032</v>
       </c>
       <c r="E15" t="n">
-        <v>1443539.927600861</v>
+        <v>1461189.581287384</v>
       </c>
       <c r="F15" t="n">
+        <v>1486391.34336853</v>
+      </c>
+      <c r="G15" t="n">
         <v>1415242.64930126</v>
       </c>
     </row>
@@ -6971,15 +7379,18 @@
         <v>1371694</v>
       </c>
       <c r="C16" t="n">
-        <v>1346883.59679675</v>
+        <v>1346859.0298874</v>
       </c>
       <c r="D16" t="n">
-        <v>1372449.564130585</v>
+        <v>1393012.849940191</v>
       </c>
       <c r="E16" t="n">
-        <v>1446753.559841156</v>
+        <v>1443015.684776306</v>
       </c>
       <c r="F16" t="n">
+        <v>1473119.724937439</v>
+      </c>
+      <c r="G16" t="n">
         <v>1310586.423237367</v>
       </c>
     </row>
@@ -6991,15 +7402,18 @@
         <v>1248898</v>
       </c>
       <c r="C17" t="n">
-        <v>1213716.956639699</v>
+        <v>1213775.116718794</v>
       </c>
       <c r="D17" t="n">
-        <v>1259892.123660219</v>
+        <v>1300193.888090041</v>
       </c>
       <c r="E17" t="n">
-        <v>1404386.488857269</v>
+        <v>1409401.682266235</v>
       </c>
       <c r="F17" t="n">
+        <v>1443165.011909485</v>
+      </c>
+      <c r="G17" t="n">
         <v>1100635.51772866</v>
       </c>
     </row>
@@ -7011,15 +7425,18 @@
         <v>1402365</v>
       </c>
       <c r="C18" t="n">
-        <v>1289143.409655113</v>
+        <v>1289147.65363195</v>
       </c>
       <c r="D18" t="n">
-        <v>1341006.990122717</v>
+        <v>1354862.396867736</v>
       </c>
       <c r="E18" t="n">
-        <v>1491864.734786987</v>
+        <v>1446754.673500061</v>
       </c>
       <c r="F18" t="n">
+        <v>1450942.708862305</v>
+      </c>
+      <c r="G18" t="n">
         <v>1214940.876848544</v>
       </c>
     </row>
@@ -7031,15 +7448,18 @@
         <v>1358981</v>
       </c>
       <c r="C19" t="n">
-        <v>1262553.582085946</v>
+        <v>1262564.192394297</v>
       </c>
       <c r="D19" t="n">
-        <v>1304742.490912804</v>
+        <v>1326415.573483421</v>
       </c>
       <c r="E19" t="n">
-        <v>1431136.333656311</v>
+        <v>1412301.020595551</v>
       </c>
       <c r="F19" t="n">
+        <v>1424791.286254883</v>
+      </c>
+      <c r="G19" t="n">
         <v>1185213.791093153</v>
       </c>
     </row>
@@ -7051,15 +7471,18 @@
         <v>1397123</v>
       </c>
       <c r="C20" t="n">
-        <v>1300713.605451351</v>
+        <v>1300721.260496673</v>
       </c>
       <c r="D20" t="n">
-        <v>1338330.115705933</v>
+        <v>1356737.338238925</v>
       </c>
       <c r="E20" t="n">
-        <v>1446697.295856476</v>
+        <v>1436778.759128571</v>
       </c>
       <c r="F20" t="n">
+        <v>1433428.388942719</v>
+      </c>
+      <c r="G20" t="n">
         <v>1251740.739786566</v>
       </c>
     </row>
@@ -7071,15 +7494,18 @@
         <v>1258130</v>
       </c>
       <c r="C21" t="n">
-        <v>1229464.176577253</v>
+        <v>1229459.076172339</v>
       </c>
       <c r="D21" t="n">
-        <v>1275936.809506497</v>
+        <v>1289945.628144705</v>
       </c>
       <c r="E21" t="n">
-        <v>1420431.360061646</v>
+        <v>1381418.339179993</v>
       </c>
       <c r="F21" t="n">
+        <v>1380167.40970993</v>
+      </c>
+      <c r="G21" t="n">
         <v>1119951.472704615</v>
       </c>
     </row>
@@ -7091,15 +7517,18 @@
         <v>1174589</v>
       </c>
       <c r="C22" t="n">
-        <v>1187693.090833223</v>
+        <v>1187705.423309141</v>
       </c>
       <c r="D22" t="n">
-        <v>1236723.866608862</v>
+        <v>1265935.960629794</v>
       </c>
       <c r="E22" t="n">
-        <v>1386154.827342987</v>
+        <v>1337444.597335815</v>
       </c>
       <c r="F22" t="n">
+        <v>1425810.429412842</v>
+      </c>
+      <c r="G22" t="n">
         <v>1086084.886063207</v>
       </c>
     </row>
@@ -7111,15 +7540,18 @@
         <v>1304802</v>
       </c>
       <c r="C23" t="n">
-        <v>1325689.977555347</v>
+        <v>1325645.059484149</v>
       </c>
       <c r="D23" t="n">
-        <v>1365023.759040374</v>
+        <v>1347439.668699318</v>
       </c>
       <c r="E23" t="n">
-        <v>1474127.925186157</v>
+        <v>1401181.426948547</v>
       </c>
       <c r="F23" t="n">
+        <v>1354888.272544861</v>
+      </c>
+      <c r="G23" t="n">
         <v>1293921.43220102</v>
       </c>
     </row>
@@ -7131,15 +7563,18 @@
         <v>1229416</v>
       </c>
       <c r="C24" t="n">
-        <v>1277162.510307874</v>
+        <v>1277124.581600807</v>
       </c>
       <c r="D24" t="n">
-        <v>1297256.498479738</v>
+        <v>1321471.31351932</v>
       </c>
       <c r="E24" t="n">
-        <v>1357965.312099457</v>
+        <v>1420137.983570099</v>
       </c>
       <c r="F24" t="n">
+        <v>1342735.784473419</v>
+      </c>
+      <c r="G24" t="n">
         <v>1237975.525327319</v>
       </c>
     </row>
@@ -7151,15 +7586,18 @@
         <v>1341370</v>
       </c>
       <c r="C25" t="n">
-        <v>1334912.968781109</v>
+        <v>1334865.311143405</v>
       </c>
       <c r="D25" t="n">
-        <v>1337371.323381518</v>
+        <v>1354989.023616053</v>
       </c>
       <c r="E25" t="n">
-        <v>1353887.432128906</v>
+        <v>1399217.513679504</v>
       </c>
       <c r="F25" t="n">
+        <v>1371925.220153809</v>
+      </c>
+      <c r="G25" t="n">
         <v>1288152.296533135</v>
       </c>
     </row>
@@ -7171,15 +7609,18 @@
         <v>1389216</v>
       </c>
       <c r="C26" t="n">
-        <v>1365114.368985848</v>
+        <v>1365055.959569284</v>
       </c>
       <c r="D26" t="n">
-        <v>1365576.782280407</v>
+        <v>1366218.730822535</v>
       </c>
       <c r="E26" t="n">
-        <v>1371059.08404541</v>
+        <v>1372171.14509201</v>
       </c>
       <c r="F26" t="n">
+        <v>1367315.54384613</v>
+      </c>
+      <c r="G26" t="n">
         <v>1345349.531937454</v>
       </c>
     </row>
@@ -7191,15 +7632,18 @@
         <v>1382725</v>
       </c>
       <c r="C27" t="n">
-        <v>1384134.452831553</v>
+        <v>1384049.553415412</v>
       </c>
       <c r="D27" t="n">
-        <v>1377930.903797621</v>
+        <v>1407687.142152138</v>
       </c>
       <c r="E27" t="n">
-        <v>1359649.600143433</v>
+        <v>1415279.041347504</v>
       </c>
       <c r="F27" t="n">
+        <v>1462289.295246124</v>
+      </c>
+      <c r="G27" t="n">
         <v>1394103.343728571</v>
       </c>
     </row>
@@ -7211,15 +7655,18 @@
         <v>1287874</v>
       </c>
       <c r="C28" t="n">
-        <v>1341721.394330155</v>
+        <v>1341669.697289449</v>
       </c>
       <c r="D28" t="n">
-        <v>1353514.755005638</v>
+        <v>1351874.279738354</v>
       </c>
       <c r="E28" t="n">
-        <v>1387025.90228653</v>
+        <v>1367756.988552094</v>
       </c>
       <c r="F28" t="n">
+        <v>1365365.285003662</v>
+      </c>
+      <c r="G28" t="n">
         <v>1328508.473173762</v>
       </c>
     </row>
@@ -7231,15 +7678,18 @@
         <v>1206037</v>
       </c>
       <c r="C29" t="n">
-        <v>1219408.746428163</v>
+        <v>1219454.596186141</v>
       </c>
       <c r="D29" t="n">
-        <v>1249082.2098704</v>
+        <v>1275649.987287433</v>
       </c>
       <c r="E29" t="n">
-        <v>1368536.452945709</v>
+        <v>1389600.487995148</v>
       </c>
       <c r="F29" t="n">
+        <v>1348659.917228699</v>
+      </c>
+      <c r="G29" t="n">
         <v>1023926.285940476</v>
       </c>
     </row>
@@ -7251,15 +7701,18 @@
         <v>1304495</v>
       </c>
       <c r="C30" t="n">
-        <v>1288831.251020144</v>
+        <v>1288815.389729076</v>
       </c>
       <c r="D30" t="n">
-        <v>1302477.827347234</v>
+        <v>1323673.742075913</v>
       </c>
       <c r="E30" t="n">
-        <v>1353530.431819916</v>
+        <v>1367062.452754974</v>
       </c>
       <c r="F30" t="n">
+        <v>1388154.813476562</v>
+      </c>
+      <c r="G30" t="n">
         <v>1216861.580658962</v>
       </c>
     </row>
@@ -7271,15 +7724,18 @@
         <v>1250473</v>
       </c>
       <c r="C31" t="n">
-        <v>1264465.155332022</v>
+        <v>1264459.448087964</v>
       </c>
       <c r="D31" t="n">
-        <v>1282718.89595916</v>
+        <v>1303206.442773736</v>
       </c>
       <c r="E31" t="n">
-        <v>1349442.432079315</v>
+        <v>1347432.277755737</v>
       </c>
       <c r="F31" t="n">
+        <v>1381453.007865906</v>
+      </c>
+      <c r="G31" t="n">
         <v>1175423.021557123</v>
       </c>
     </row>
@@ -7291,15 +7747,18 @@
         <v>1306926</v>
       </c>
       <c r="C32" t="n">
-        <v>1299605.037835254</v>
+        <v>1299590.51871465</v>
       </c>
       <c r="D32" t="n">
-        <v>1310292.711679902</v>
+        <v>1318291.209252584</v>
       </c>
       <c r="E32" t="n">
-        <v>1352545.860507965</v>
+        <v>1347567.32100296</v>
       </c>
       <c r="F32" t="n">
+        <v>1352676.013339996</v>
+      </c>
+      <c r="G32" t="n">
         <v>1232758.849509601</v>
       </c>
     </row>
@@ -7311,15 +7770,18 @@
         <v>1218332</v>
       </c>
       <c r="C33" t="n">
-        <v>1234168.384238437</v>
+        <v>1234153.628508667</v>
       </c>
       <c r="D33" t="n">
-        <v>1267989.957900427</v>
+        <v>1281629.10763764</v>
       </c>
       <c r="E33" t="n">
-        <v>1379723.931365967</v>
+        <v>1346176.603130341</v>
       </c>
       <c r="F33" t="n">
+        <v>1366118.989982605</v>
+      </c>
+      <c r="G33" t="n">
         <v>1124110.560754169</v>
       </c>
     </row>
@@ -7331,15 +7793,18 @@
         <v>1119025</v>
       </c>
       <c r="C34" t="n">
-        <v>1195819.311660134</v>
+        <v>1195827.334499298</v>
       </c>
       <c r="D34" t="n">
-        <v>1226509.080237723</v>
+        <v>1255579.236820492</v>
       </c>
       <c r="E34" t="n">
-        <v>1341386.465660095</v>
+        <v>1328029.192333221</v>
       </c>
       <c r="F34" t="n">
+        <v>1377218.101989746</v>
+      </c>
+      <c r="G34" t="n">
         <v>1033665.542057467</v>
       </c>
     </row>
@@ -7351,15 +7816,18 @@
         <v>1326162</v>
       </c>
       <c r="C35" t="n">
-        <v>1322701.657594293</v>
+        <v>1322634.963193793</v>
       </c>
       <c r="D35" t="n">
-        <v>1323385.088986637</v>
+        <v>1339004.229924981</v>
       </c>
       <c r="E35" t="n">
-        <v>1335662.307308197</v>
+        <v>1361170.567687988</v>
       </c>
       <c r="F35" t="n">
+        <v>1370652.646965027</v>
+      </c>
+      <c r="G35" t="n">
         <v>1274214.417553417</v>
       </c>
     </row>
@@ -7371,15 +7839,18 @@
         <v>1233070</v>
       </c>
       <c r="C36" t="n">
-        <v>1278129.334521767</v>
+        <v>1278076.910193399</v>
       </c>
       <c r="D36" t="n">
-        <v>1294721.325076104</v>
+        <v>1307491.27337395</v>
       </c>
       <c r="E36" t="n">
-        <v>1352606.724388123</v>
+        <v>1361372.236789703</v>
       </c>
       <c r="F36" t="n">
+        <v>1344269.147525787</v>
+      </c>
+      <c r="G36" t="n">
         <v>1209955.11680719</v>
       </c>
     </row>
@@ -7391,15 +7862,18 @@
         <v>1363368</v>
       </c>
       <c r="C37" t="n">
-        <v>1331240.116757246</v>
+        <v>1331169.533304565</v>
       </c>
       <c r="D37" t="n">
-        <v>1323698.701363357</v>
+        <v>1343272.132199945</v>
       </c>
       <c r="E37" t="n">
-        <v>1315686.898048401</v>
+        <v>1362435.151584625</v>
       </c>
       <c r="F37" t="n">
+        <v>1367631.145095825</v>
+      </c>
+      <c r="G37" t="n">
         <v>1277736.564364634</v>
       </c>
     </row>
@@ -7411,15 +7885,18 @@
         <v>1401174</v>
       </c>
       <c r="C38" t="n">
-        <v>1359024.200062337</v>
+        <v>1358938.93916505</v>
       </c>
       <c r="D38" t="n">
-        <v>1366072.857889516</v>
+        <v>1349813.393714589</v>
       </c>
       <c r="E38" t="n">
-        <v>1391550.068958282</v>
+        <v>1345799.944320679</v>
       </c>
       <c r="F38" t="n">
+        <v>1336655.01317215</v>
+      </c>
+      <c r="G38" t="n">
         <v>1325970.472758589</v>
       </c>
     </row>
@@ -7431,15 +7908,18 @@
         <v>1418008</v>
       </c>
       <c r="C39" t="n">
-        <v>1376527.072349675</v>
+        <v>1376414.463224801</v>
       </c>
       <c r="D39" t="n">
-        <v>1374181.428220951</v>
+        <v>1361782.953074973</v>
       </c>
       <c r="E39" t="n">
-        <v>1367875.326915741</v>
+        <v>1332751.299770355</v>
       </c>
       <c r="F39" t="n">
+        <v>1353552.075538635</v>
+      </c>
+      <c r="G39" t="n">
         <v>1377496.923798338</v>
       </c>
     </row>
@@ -7451,15 +7931,18 @@
         <v>1112493</v>
       </c>
       <c r="C40" t="n">
-        <v>1337559.004536682</v>
+        <v>1337483.766384752</v>
       </c>
       <c r="D40" t="n">
-        <v>1336465.904713666</v>
+        <v>1339605.78514996</v>
       </c>
       <c r="E40" t="n">
-        <v>1342071.995346069</v>
+        <v>1334100.957523346</v>
       </c>
       <c r="F40" t="n">
+        <v>1360623.18012619</v>
+      </c>
+      <c r="G40" t="n">
         <v>1298556.431506388</v>
       </c>
     </row>
@@ -7471,15 +7954,18 @@
         <v>1023025</v>
       </c>
       <c r="C41" t="n">
-        <v>1225146.545748641</v>
+        <v>1225180.637818552</v>
       </c>
       <c r="D41" t="n">
-        <v>1243887.558905709</v>
+        <v>1261796.767005925</v>
       </c>
       <c r="E41" t="n">
-        <v>1335818.897434235</v>
+        <v>1330768.212200165</v>
       </c>
       <c r="F41" t="n">
+        <v>1331936.779331207</v>
+      </c>
+      <c r="G41" t="n">
         <v>1025558.01962978</v>
       </c>
     </row>
@@ -7491,15 +7977,18 @@
         <v>1298780</v>
       </c>
       <c r="C42" t="n">
-        <v>1288970.268512527</v>
+        <v>1288936.541472038</v>
       </c>
       <c r="D42" t="n">
-        <v>1287771.304953806</v>
+        <v>1312899.407126653</v>
       </c>
       <c r="E42" t="n">
-        <v>1305495.514888763</v>
+        <v>1348247.0887146</v>
       </c>
       <c r="F42" t="n">
+        <v>1361820.799228668</v>
+      </c>
+      <c r="G42" t="n">
         <v>1192743.532387379</v>
       </c>
     </row>
@@ -7511,15 +8000,18 @@
         <v>1310910</v>
       </c>
       <c r="C43" t="n">
-        <v>1266583.883700135</v>
+        <v>1266563.438327999</v>
       </c>
       <c r="D43" t="n">
-        <v>1271358.842080769</v>
+        <v>1281587.322364241</v>
       </c>
       <c r="E43" t="n">
-        <v>1307954.90953064</v>
+        <v>1291167.66361618</v>
       </c>
       <c r="F43" t="n">
+        <v>1338194.0897789</v>
+      </c>
+      <c r="G43" t="n">
         <v>1154905.927922475</v>
       </c>
     </row>
@@ -7531,15 +8023,18 @@
         <v>1371367</v>
       </c>
       <c r="C44" t="n">
-        <v>1298892.396265869</v>
+        <v>1298858.244852537</v>
       </c>
       <c r="D44" t="n">
-        <v>1298755.065225704</v>
+        <v>1305326.576586114</v>
       </c>
       <c r="E44" t="n">
-        <v>1316490.378738403</v>
+        <v>1304301.091503143</v>
       </c>
       <c r="F44" t="n">
+        <v>1343638.429225922</v>
+      </c>
+      <c r="G44" t="n">
         <v>1215353.98107534</v>
       </c>
     </row>
@@ -7551,15 +8046,18 @@
         <v>1186117</v>
       </c>
       <c r="C45" t="n">
-        <v>1238752.017503358</v>
+        <v>1238728.186568831</v>
       </c>
       <c r="D45" t="n">
-        <v>1260150.619861866</v>
+        <v>1276914.638911443</v>
       </c>
       <c r="E45" t="n">
-        <v>1346082.038963318</v>
+        <v>1333130.331157684</v>
       </c>
       <c r="F45" t="n">
+        <v>1351928.699794769</v>
+      </c>
+      <c r="G45" t="n">
         <v>1098758.388844196</v>
       </c>
     </row>
@@ -7571,15 +8069,18 @@
         <v>1154994</v>
       </c>
       <c r="C46" t="n">
-        <v>1203508.763440844</v>
+        <v>1203512.052041566</v>
       </c>
       <c r="D46" t="n">
-        <v>1228122.446382555</v>
+        <v>1253364.037584887</v>
       </c>
       <c r="E46" t="n">
-        <v>1330272.052947998</v>
+        <v>1346068.72347641</v>
       </c>
       <c r="F46" t="n">
+        <v>1328177.599487305</v>
+      </c>
+      <c r="G46" t="n">
         <v>1027210.786084658</v>
       </c>
     </row>
@@ -7591,15 +8092,18 @@
         <v>1374882</v>
       </c>
       <c r="C47" t="n">
-        <v>1320141.328026647</v>
+        <v>1320055.603145929</v>
       </c>
       <c r="D47" t="n">
-        <v>1317572.160357893</v>
+        <v>1318088.963972322</v>
       </c>
       <c r="E47" t="n">
-        <v>1325174.642459869</v>
+        <v>1323046.149772644</v>
       </c>
       <c r="F47" t="n">
+        <v>1322281.356624603</v>
+      </c>
+      <c r="G47" t="n">
         <v>1254207.869729331</v>
       </c>
     </row>
@@ -7611,15 +8115,18 @@
         <v>1359171</v>
       </c>
       <c r="C48" t="n">
-        <v>1279176.035402749</v>
+        <v>1279110.604431926</v>
       </c>
       <c r="D48" t="n">
-        <v>1286205.901764186</v>
+        <v>1299775.583302341</v>
       </c>
       <c r="E48" t="n">
-        <v>1325517.552562714</v>
+        <v>1330941.216690063</v>
       </c>
       <c r="F48" t="n">
+        <v>1344460.503177643</v>
+      </c>
+      <c r="G48" t="n">
         <v>1182018.131777767</v>
       </c>
     </row>
@@ -7631,15 +8138,18 @@
         <v>1432452</v>
       </c>
       <c r="C49" t="n">
-        <v>1327998.033586607</v>
+        <v>1327907.406898683</v>
       </c>
       <c r="D49" t="n">
-        <v>1315103.678271117</v>
+        <v>1327945.975978379</v>
       </c>
       <c r="E49" t="n">
-        <v>1294712.87569046</v>
+        <v>1317819.990631104</v>
       </c>
       <c r="F49" t="n">
+        <v>1353345.9518013</v>
+      </c>
+      <c r="G49" t="n">
         <v>1267417.578806915</v>
       </c>
     </row>
@@ -7651,15 +8161,18 @@
         <v>1511298</v>
       </c>
       <c r="C50" t="n">
-        <v>1353539.749298365</v>
+        <v>1353431.190941321</v>
       </c>
       <c r="D50" t="n">
-        <v>1341535.902592322</v>
+        <v>1342510.55548853</v>
       </c>
       <c r="E50" t="n">
-        <v>1320524.487071991</v>
+        <v>1337969.421199799</v>
       </c>
       <c r="F50" t="n">
+        <v>1328192.706512451</v>
+      </c>
+      <c r="G50" t="n">
         <v>1306510.995237141</v>
       </c>
     </row>
@@ -7671,15 +8184,18 @@
         <v>1557029</v>
       </c>
       <c r="C51" t="n">
-        <v>1369630.725431825</v>
+        <v>1369494.239536581</v>
       </c>
       <c r="D51" t="n">
-        <v>1359430.334135171</v>
+        <v>1352367.460427497</v>
       </c>
       <c r="E51" t="n">
-        <v>1334839.652317047</v>
+        <v>1329449.446376801</v>
       </c>
       <c r="F51" t="n">
+        <v>1332644.679035187</v>
+      </c>
+      <c r="G51" t="n">
         <v>1360770.220627289</v>
       </c>
     </row>
@@ -7691,15 +8207,18 @@
         <v>1458131</v>
       </c>
       <c r="C52" t="n">
-        <v>1333814.540136197</v>
+        <v>1333718.669981952</v>
       </c>
       <c r="D52" t="n">
-        <v>1327267.906374192</v>
+        <v>1332515.68594712</v>
       </c>
       <c r="E52" t="n">
-        <v>1324332.958427429</v>
+        <v>1323421.017044067</v>
       </c>
       <c r="F52" t="n">
+        <v>1354344.177539825</v>
+      </c>
+      <c r="G52" t="n">
         <v>1268806.66535849</v>
       </c>
     </row>
@@ -7711,15 +8230,18 @@
         <v>1270202</v>
       </c>
       <c r="C53" t="n">
-        <v>1230489.66621358</v>
+        <v>1230512.334281159</v>
       </c>
       <c r="D53" t="n">
-        <v>1244026.19650739</v>
+        <v>1260887.167294946</v>
       </c>
       <c r="E53" t="n">
-        <v>1323198.333683014</v>
+        <v>1297756.989677429</v>
       </c>
       <c r="F53" t="n">
+        <v>1350520.647579193</v>
+      </c>
+      <c r="G53" t="n">
         <v>1027361.254793307</v>
       </c>
     </row>
@@ -7731,15 +8253,18 @@
         <v>1417738</v>
       </c>
       <c r="C54" t="n">
-        <v>1289156.585893056</v>
+        <v>1289106.690707203</v>
       </c>
       <c r="D54" t="n">
-        <v>1294500.267319478</v>
+        <v>1302387.694002334</v>
       </c>
       <c r="E54" t="n">
-        <v>1334555.717716217</v>
+        <v>1318018.706115723</v>
       </c>
       <c r="F54" t="n">
+        <v>1349497.001365662</v>
+      </c>
+      <c r="G54" t="n">
         <v>1168330.067690833</v>
       </c>
     </row>
@@ -7751,15 +8276,18 @@
         <v>1397043</v>
       </c>
       <c r="C55" t="n">
-        <v>1268580.974985688</v>
+        <v>1268546.890254877</v>
       </c>
       <c r="D55" t="n">
-        <v>1281263.982635596</v>
+        <v>1284572.807553118</v>
       </c>
       <c r="E55" t="n">
-        <v>1343286.65827179</v>
+        <v>1312021.798171997</v>
       </c>
       <c r="F55" t="n">
+        <v>1329128.034732819</v>
+      </c>
+      <c r="G55" t="n">
         <v>1134395.641264266</v>
       </c>
     </row>
@@ -7771,15 +8299,18 @@
         <v>1404491</v>
       </c>
       <c r="C56" t="n">
-        <v>1298279.392764757</v>
+        <v>1298227.53320758</v>
       </c>
       <c r="D56" t="n">
-        <v>1293161.993465594</v>
+        <v>1297800.252262883</v>
       </c>
       <c r="E56" t="n">
-        <v>1301600.274978638</v>
+        <v>1307098.554252625</v>
       </c>
       <c r="F56" t="n">
+        <v>1309342.092746735</v>
+      </c>
+      <c r="G56" t="n">
         <v>1197907.962690411</v>
       </c>
     </row>
@@ -7791,15 +8322,18 @@
         <v>1314022</v>
       </c>
       <c r="C57" t="n">
-        <v>1243000.810751677</v>
+        <v>1242968.099929557</v>
       </c>
       <c r="D57" t="n">
-        <v>1250696.776313128</v>
+        <v>1261227.06280305</v>
       </c>
       <c r="E57" t="n">
-        <v>1307385.975090027</v>
+        <v>1306215.08380127</v>
       </c>
       <c r="F57" t="n">
+        <v>1300442.263397217</v>
+      </c>
+      <c r="G57" t="n">
         <v>1073597.589415986</v>
       </c>
     </row>
@@ -7811,15 +8345,18 @@
         <v>1220092</v>
       </c>
       <c r="C58" t="n">
-        <v>1210606.916439991</v>
+        <v>1210604.794455711</v>
       </c>
       <c r="D58" t="n">
-        <v>1229574.698856331</v>
+        <v>1232942.349084399</v>
       </c>
       <c r="E58" t="n">
-        <v>1319951.872714996</v>
+        <v>1279701.770469666</v>
       </c>
       <c r="F58" t="n">
+        <v>1286148.74187088</v>
+      </c>
+      <c r="G58" t="n">
         <v>1020915.769334494</v>
       </c>
     </row>
@@ -7831,15 +8368,18 @@
         <v>1492492</v>
       </c>
       <c r="C59" t="n">
-        <v>1317813.520877413</v>
+        <v>1317710.873216883</v>
       </c>
       <c r="D59" t="n">
-        <v>1303155.555297251</v>
+        <v>1310716.23937352</v>
       </c>
       <c r="E59" t="n">
-        <v>1283233.957576752</v>
+        <v>1304933.117141724</v>
       </c>
       <c r="F59" t="n">
+        <v>1317163.900276184</v>
+      </c>
+      <c r="G59" t="n">
         <v>1233903.252112702</v>
       </c>
     </row>
@@ -7851,15 +8391,18 @@
         <v>1415841</v>
       </c>
       <c r="C60" t="n">
-        <v>1280159.821593027</v>
+        <v>1280082.40709606</v>
       </c>
       <c r="D60" t="n">
-        <v>1283050.96712345</v>
+        <v>1286022.916483905</v>
       </c>
       <c r="E60" t="n">
-        <v>1317849.768901825</v>
+        <v>1311826.956283569</v>
       </c>
       <c r="F60" t="n">
+        <v>1302604.746891022</v>
+      </c>
+      <c r="G60" t="n">
         <v>1154174.745939109</v>
       </c>
     </row>
@@ -7871,15 +8414,18 @@
         <v>1514742</v>
       </c>
       <c r="C61" t="n">
-        <v>1325036.364098067</v>
+        <v>1324927.959925324</v>
       </c>
       <c r="D61" t="n">
-        <v>1316890.09542665</v>
+        <v>1312797.396132404</v>
       </c>
       <c r="E61" t="n">
-        <v>1310412.851573944</v>
+        <v>1328004.837097168</v>
       </c>
       <c r="F61" t="n">
+        <v>1277813.876525879</v>
+      </c>
+      <c r="G61" t="n">
         <v>1257188.948902153</v>
       </c>
     </row>
@@ -7891,15 +8437,18 @@
         <v>1519625</v>
       </c>
       <c r="C62" t="n">
-        <v>1348514.145890651</v>
+        <v>1348385.165193168</v>
       </c>
       <c r="D62" t="n">
-        <v>1345818.426399272</v>
+        <v>1332109.7807388</v>
       </c>
       <c r="E62" t="n">
-        <v>1352141.311805725</v>
+        <v>1305649.587177277</v>
       </c>
       <c r="F62" t="n">
+        <v>1330863.890026093</v>
+      </c>
+      <c r="G62" t="n">
         <v>1286970.432653716</v>
       </c>
     </row>
@@ -7911,15 +8460,18 @@
         <v>1555592</v>
       </c>
       <c r="C63" t="n">
-        <v>1363304.965235684</v>
+        <v>1363147.738587558</v>
       </c>
       <c r="D63" t="n">
-        <v>1346913.666194546</v>
+        <v>1342184.841067614</v>
       </c>
       <c r="E63" t="n">
-        <v>1308511.64214325</v>
+        <v>1330348.217533112</v>
       </c>
       <c r="F63" t="n">
+        <v>1301854.528148651</v>
+      </c>
+      <c r="G63" t="n">
         <v>1343925.596622388</v>
       </c>
     </row>
@@ -7931,15 +8483,18 @@
         <v>1463393</v>
       </c>
       <c r="C64" t="n">
-        <v>1330383.90203384</v>
+        <v>1330269.755700323</v>
       </c>
       <c r="D64" t="n">
-        <v>1315434.412338848</v>
+        <v>1324281.539937224</v>
       </c>
       <c r="E64" t="n">
-        <v>1296315.430854797</v>
+        <v>1330177.440361023</v>
       </c>
       <c r="F64" t="n">
+        <v>1322093.099849701</v>
+      </c>
+      <c r="G64" t="n">
         <v>1239269.370558317</v>
       </c>
     </row>
@@ -7951,15 +8506,18 @@
         <v>1261890</v>
       </c>
       <c r="C65" t="n">
-        <v>1235410.413338225</v>
+        <v>1235421.798298435</v>
       </c>
       <c r="D65" t="n">
-        <v>1243610.206776037</v>
+        <v>1262824.141253664</v>
       </c>
       <c r="E65" t="n">
-        <v>1309554.607917786</v>
+        <v>1310142.474559784</v>
       </c>
       <c r="F65" t="n">
+        <v>1333208.819900513</v>
+      </c>
+      <c r="G65" t="n">
         <v>1029318.46504969</v>
       </c>
     </row>
@@ -7971,15 +8529,18 @@
         <v>1467633</v>
       </c>
       <c r="C66" t="n">
-        <v>1289335.876783197</v>
+        <v>1289271.157577895</v>
       </c>
       <c r="D66" t="n">
-        <v>1281717.657175255</v>
+        <v>1288915.921828418</v>
       </c>
       <c r="E66" t="n">
-        <v>1293476.181686401</v>
+        <v>1300004.59544754</v>
       </c>
       <c r="F66" t="n">
+        <v>1309106.771778107</v>
+      </c>
+      <c r="G66" t="n">
         <v>1143623.824169531</v>
       </c>
     </row>
@@ -7991,15 +8552,18 @@
         <v>1370563</v>
       </c>
       <c r="C67" t="n">
-        <v>1270423.46079533</v>
+        <v>1270376.57735534</v>
       </c>
       <c r="D67" t="n">
-        <v>1270596.871046666</v>
+        <v>1284127.0681958</v>
       </c>
       <c r="E67" t="n">
-        <v>1304947.110507965</v>
+        <v>1325900.893325806</v>
       </c>
       <c r="F67" t="n">
+        <v>1311490.437614441</v>
+      </c>
+      <c r="G67" t="n">
         <v>1113896.738414168</v>
       </c>
     </row>
@@ -8011,15 +8575,18 @@
         <v>1504928</v>
       </c>
       <c r="C68" t="n">
-        <v>1297721.703324717</v>
+        <v>1297653.717843206</v>
       </c>
       <c r="D68" t="n">
-        <v>1285589.32257552</v>
+        <v>1286200.933542732</v>
       </c>
       <c r="E68" t="n">
-        <v>1279462.333805084</v>
+        <v>1272816.598499298</v>
       </c>
       <c r="F68" t="n">
+        <v>1296531.674362183</v>
+      </c>
+      <c r="G68" t="n">
         <v>1180423.6871076</v>
       </c>
     </row>
@@ -8031,15 +8598,18 @@
         <v>1364156</v>
       </c>
       <c r="C69" t="n">
-        <v>1246911.088967436</v>
+        <v>1246869.57870171</v>
       </c>
       <c r="D69" t="n">
-        <v>1253985.159284725</v>
+        <v>1242668.857347309</v>
       </c>
       <c r="E69" t="n">
-        <v>1315311.352897644</v>
+        <v>1254149.447933197</v>
       </c>
       <c r="F69" t="n">
+        <v>1263906.600959778</v>
+      </c>
+      <c r="G69" t="n">
         <v>1048634.420025666</v>
       </c>
     </row>
@@ -8051,15 +8621,18 @@
         <v>1285706</v>
       </c>
       <c r="C70" t="n">
-        <v>1217135.512446728</v>
+        <v>1217127.31639557</v>
       </c>
       <c r="D70" t="n">
-        <v>1221307.58840642</v>
+        <v>1234995.700654589</v>
       </c>
       <c r="E70" t="n">
-        <v>1275977.840351105</v>
+        <v>1282321.580413818</v>
       </c>
       <c r="F70" t="n">
+        <v>1278120.326404572</v>
+      </c>
+      <c r="G70" t="n">
         <v>1014767.83338422</v>
       </c>
     </row>
@@ -8074,7 +8647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8100,10 +8673,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -8114,15 +8692,18 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>1461956.016518393</v>
+        <v>1461955.905962696</v>
       </c>
       <c r="C2" t="n">
-        <v>1435895.467408465</v>
+        <v>1421118.651567191</v>
       </c>
       <c r="D2" t="n">
-        <v>1367231.825748444</v>
+        <v>1362914.121753693</v>
       </c>
       <c r="E2" t="n">
+        <v>1372283.140441895</v>
+      </c>
+      <c r="F2" t="n">
         <v>1466274.626851014</v>
       </c>
     </row>
@@ -8131,15 +8712,18 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>1408948.284395932</v>
+        <v>1408948.195172029</v>
       </c>
       <c r="C3" t="n">
-        <v>1398660.347734847</v>
+        <v>1388304.517692638</v>
       </c>
       <c r="D3" t="n">
-        <v>1372462.197425842</v>
+        <v>1367423.132980347</v>
       </c>
       <c r="E3" t="n">
+        <v>1355128.435508728</v>
+      </c>
+      <c r="F3" t="n">
         <v>1406459.506398476</v>
       </c>
     </row>
@@ -8148,15 +8732,18 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>1483206.192771547</v>
+        <v>1483205.86171466</v>
       </c>
       <c r="C4" t="n">
-        <v>1447968.125280834</v>
+        <v>1431696.838672712</v>
       </c>
       <c r="D4" t="n">
-        <v>1357831.624610901</v>
+        <v>1358262.562187195</v>
       </c>
       <c r="E4" t="n">
+        <v>1372914.536621094</v>
+      </c>
+      <c r="F4" t="n">
         <v>1476542.642662393</v>
       </c>
     </row>
@@ -8165,15 +8752,18 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>1509710.30509284</v>
+        <v>1509709.837100313</v>
       </c>
       <c r="C5" t="n">
-        <v>1470366.961375158</v>
+        <v>1444417.562678583</v>
       </c>
       <c r="D5" t="n">
-        <v>1361975.307296753</v>
+        <v>1355717.125289917</v>
       </c>
       <c r="E5" t="n">
+        <v>1356505.208435059</v>
+      </c>
+      <c r="F5" t="n">
         <v>1538074.174295384</v>
       </c>
     </row>
@@ -8182,15 +8772,18 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>1537256.542083192</v>
+        <v>1537255.878886186</v>
       </c>
       <c r="C6" t="n">
-        <v>1492994.782400774</v>
+        <v>1460651.638860852</v>
       </c>
       <c r="D6" t="n">
-        <v>1368542.021240234</v>
+        <v>1353380.475227356</v>
       </c>
       <c r="E6" t="n">
+        <v>1358737.658760071</v>
+      </c>
+      <c r="F6" t="n">
         <v>1580759.437709347</v>
       </c>
     </row>
@@ -8199,15 +8792,18 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>1449348.415932925</v>
+        <v>1449347.775817401</v>
       </c>
       <c r="C7" t="n">
-        <v>1430468.242382777</v>
+        <v>1408217.868371581</v>
       </c>
       <c r="D7" t="n">
-        <v>1371447.121543884</v>
+        <v>1341657.811073303</v>
       </c>
       <c r="E7" t="n">
+        <v>1358325.943904877</v>
+      </c>
+      <c r="F7" t="n">
         <v>1495308.480243898</v>
       </c>
     </row>
@@ -8216,15 +8812,18 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>1316628.418797399</v>
+        <v>1316628.38499413</v>
       </c>
       <c r="C8" t="n">
-        <v>1326178.988416582</v>
+        <v>1332300.532807594</v>
       </c>
       <c r="D8" t="n">
-        <v>1366036.9181633</v>
+        <v>1364806.373493195</v>
       </c>
       <c r="E8" t="n">
+        <v>1355285.31615448</v>
+      </c>
+      <c r="F8" t="n">
         <v>1247196.584143331</v>
       </c>
     </row>
@@ -8233,15 +8832,18 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>1448484.863561966</v>
+        <v>1448484.58324605</v>
       </c>
       <c r="C9" t="n">
-        <v>1426277.413833343</v>
+        <v>1405730.58752032</v>
       </c>
       <c r="D9" t="n">
-        <v>1372158.943264008</v>
+        <v>1342629.212158203</v>
       </c>
       <c r="E9" t="n">
+        <v>1361900.353210449</v>
+      </c>
+      <c r="F9" t="n">
         <v>1431880.280552339</v>
       </c>
     </row>
@@ -8250,15 +8852,18 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>1406238.619143981</v>
+        <v>1406238.420533782</v>
       </c>
       <c r="C10" t="n">
-        <v>1392224.564464498</v>
+        <v>1380247.37290965</v>
       </c>
       <c r="D10" t="n">
-        <v>1357728.344852448</v>
+        <v>1345193.339157104</v>
       </c>
       <c r="E10" t="n">
+        <v>1349620.133304596</v>
+      </c>
+      <c r="F10" t="n">
         <v>1397351.652247004</v>
       </c>
     </row>
@@ -8267,15 +8872,18 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>1465473.050477547</v>
+        <v>1465472.733423681</v>
       </c>
       <c r="C11" t="n">
-        <v>1436550.8283555</v>
+        <v>1412097.79019077</v>
       </c>
       <c r="D11" t="n">
-        <v>1364404.294208527</v>
+        <v>1343095.980499268</v>
       </c>
       <c r="E11" t="n">
+        <v>1344864.809780121</v>
+      </c>
+      <c r="F11" t="n">
         <v>1451533.375801868</v>
       </c>
     </row>
@@ -8284,15 +8892,18 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>1369424.794226767</v>
+        <v>1369424.493358441</v>
       </c>
       <c r="C12" t="n">
-        <v>1365405.825709522</v>
+        <v>1359651.391761511</v>
       </c>
       <c r="D12" t="n">
-        <v>1359571.886119843</v>
+        <v>1350423.420314789</v>
       </c>
       <c r="E12" t="n">
+        <v>1347847.382007599</v>
+      </c>
+      <c r="F12" t="n">
         <v>1348134.609319234</v>
       </c>
     </row>
@@ -8301,15 +8912,18 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>1312243.039703819</v>
+        <v>1312242.839669333</v>
       </c>
       <c r="C13" t="n">
-        <v>1318813.355751154</v>
+        <v>1324774.237850247</v>
       </c>
       <c r="D13" t="n">
-        <v>1346467.41336441</v>
+        <v>1349658.627166748</v>
       </c>
       <c r="E13" t="n">
+        <v>1342853.832317352</v>
+      </c>
+      <c r="F13" t="n">
         <v>1263397.912703778</v>
       </c>
     </row>
@@ -8318,15 +8932,18 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>1467384.137535612</v>
+        <v>1467383.489376868</v>
       </c>
       <c r="C14" t="n">
-        <v>1438745.8425756</v>
+        <v>1412927.299468855</v>
       </c>
       <c r="D14" t="n">
-        <v>1358910.082210541</v>
+        <v>1331379.659358978</v>
       </c>
       <c r="E14" t="n">
+        <v>1347778.238315582</v>
+      </c>
+      <c r="F14" t="n">
         <v>1492355.564453505</v>
       </c>
     </row>
@@ -8335,15 +8952,18 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>1420779.477977416</v>
+        <v>1420778.967975877</v>
       </c>
       <c r="C15" t="n">
-        <v>1398980.35779158</v>
+        <v>1387335.905889364</v>
       </c>
       <c r="D15" t="n">
-        <v>1340362.577346802</v>
+        <v>1341646.287124634</v>
       </c>
       <c r="E15" t="n">
+        <v>1343853.074874878</v>
+      </c>
+      <c r="F15" t="n">
         <v>1429849.812231069</v>
       </c>
     </row>
@@ -8352,15 +8972,18 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>1488402.597060649</v>
+        <v>1488401.873626795</v>
       </c>
       <c r="C16" t="n">
-        <v>1451859.73239118</v>
+        <v>1424618.034358586</v>
       </c>
       <c r="D16" t="n">
-        <v>1352233.939174652</v>
+        <v>1336095.569042206</v>
       </c>
       <c r="E16" t="n">
+        <v>1342265.771995544</v>
+      </c>
+      <c r="F16" t="n">
         <v>1509897.022441767</v>
       </c>
     </row>
@@ -8369,15 +8992,18 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>1517139.355553404</v>
+        <v>1517138.453160465</v>
       </c>
       <c r="C17" t="n">
-        <v>1470295.78793063</v>
+        <v>1443884.120300201</v>
       </c>
       <c r="D17" t="n">
-        <v>1339011.515415192</v>
+        <v>1337835.297931671</v>
       </c>
       <c r="E17" t="n">
+        <v>1349743.313663483</v>
+      </c>
+      <c r="F17" t="n">
         <v>1561204.14765759</v>
       </c>
     </row>
@@ -8386,15 +9012,18 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>1542659.922923123</v>
+        <v>1542658.837589464</v>
       </c>
       <c r="C18" t="n">
-        <v>1491515.499169172</v>
+        <v>1459124.678349207</v>
       </c>
       <c r="D18" t="n">
-        <v>1344219.371814728</v>
+        <v>1346191.952255249</v>
       </c>
       <c r="E18" t="n">
+        <v>1339092.764095306</v>
+      </c>
+      <c r="F18" t="n">
         <v>1609047.043795534</v>
       </c>
     </row>
@@ -8403,15 +9032,18 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>1459579.039198957</v>
+        <v>1459578.093608506</v>
       </c>
       <c r="C19" t="n">
-        <v>1435666.117726866</v>
+        <v>1413101.514808512</v>
       </c>
       <c r="D19" t="n">
-        <v>1361381.775520325</v>
+        <v>1353284.458461761</v>
       </c>
       <c r="E19" t="n">
+        <v>1338533.126285553</v>
+      </c>
+      <c r="F19" t="n">
         <v>1515622.015667904</v>
       </c>
     </row>
@@ -8420,15 +9052,18 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>1340671.260644272</v>
+        <v>1340671.039099967</v>
       </c>
       <c r="C20" t="n">
-        <v>1342444.976405886</v>
+        <v>1341658.492867745</v>
       </c>
       <c r="D20" t="n">
-        <v>1358790.242828369</v>
+        <v>1356058.098594666</v>
       </c>
       <c r="E20" t="n">
+        <v>1340762.090373993</v>
+      </c>
+      <c r="F20" t="n">
         <v>1286483.763960752</v>
       </c>
     </row>
@@ -8437,15 +9072,18 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>1457273.876666622</v>
+        <v>1457273.402627488</v>
       </c>
       <c r="C21" t="n">
-        <v>1429022.933114093</v>
+        <v>1411742.912295104</v>
       </c>
       <c r="D21" t="n">
-        <v>1355611.472953796</v>
+        <v>1351684.614814758</v>
       </c>
       <c r="E21" t="n">
+        <v>1352999.797561646</v>
+      </c>
+      <c r="F21" t="n">
         <v>1457230.171840306</v>
       </c>
     </row>
@@ -8454,15 +9092,18 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>1423990.540313727</v>
+        <v>1423990.119612573</v>
       </c>
       <c r="C22" t="n">
-        <v>1398057.036867568</v>
+        <v>1383130.852836887</v>
       </c>
       <c r="D22" t="n">
-        <v>1331240.694095612</v>
+        <v>1341008.838451385</v>
       </c>
       <c r="E22" t="n">
+        <v>1317837.421813965</v>
+      </c>
+      <c r="F22" t="n">
         <v>1421304.042586561</v>
       </c>
     </row>
@@ -8471,15 +9112,18 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>1470451.736049701</v>
+        <v>1470451.287855354</v>
       </c>
       <c r="C23" t="n">
-        <v>1438877.925371973</v>
+        <v>1410838.71231638</v>
       </c>
       <c r="D23" t="n">
-        <v>1354324.325359344</v>
+        <v>1331751.86353302</v>
       </c>
       <c r="E23" t="n">
+        <v>1331762.17698288</v>
+      </c>
+      <c r="F23" t="n">
         <v>1481980.969156709</v>
       </c>
     </row>
@@ -8488,15 +9132,18 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>1384620.274684009</v>
+        <v>1384619.876236732</v>
       </c>
       <c r="C24" t="n">
-        <v>1369328.623616205</v>
+        <v>1362348.249261189</v>
       </c>
       <c r="D24" t="n">
-        <v>1332983.473442078</v>
+        <v>1337420.338939667</v>
       </c>
       <c r="E24" t="n">
+        <v>1332241.195571899</v>
+      </c>
+      <c r="F24" t="n">
         <v>1368939.341189105</v>
       </c>
     </row>
@@ -8505,15 +9152,18 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>1332142.748793587</v>
+        <v>1332142.508748576</v>
       </c>
       <c r="C25" t="n">
-        <v>1335308.264443795</v>
+        <v>1333437.431822571</v>
       </c>
       <c r="D25" t="n">
-        <v>1351298.32043457</v>
+        <v>1338776.291286469</v>
       </c>
       <c r="E25" t="n">
+        <v>1339309.685482025</v>
+      </c>
+      <c r="F25" t="n">
         <v>1296296.98752558</v>
       </c>
     </row>
@@ -8522,15 +9172,18 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>1479079.855781822</v>
+        <v>1479078.987544222</v>
       </c>
       <c r="C26" t="n">
-        <v>1443977.507561867</v>
+        <v>1419286.888157289</v>
       </c>
       <c r="D26" t="n">
-        <v>1344258.253036499</v>
+        <v>1333469.997123718</v>
       </c>
       <c r="E26" t="n">
+        <v>1340866.04801178</v>
+      </c>
+      <c r="F26" t="n">
         <v>1518292.023674777</v>
       </c>
     </row>
@@ -8539,15 +9192,18 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>1434936.893621408</v>
+        <v>1434936.229286784</v>
       </c>
       <c r="C27" t="n">
-        <v>1410296.072848613</v>
+        <v>1392378.445131414</v>
       </c>
       <c r="D27" t="n">
-        <v>1342276.61806488</v>
+        <v>1339127.965400696</v>
       </c>
       <c r="E27" t="n">
+        <v>1329988.650966644</v>
+      </c>
+      <c r="F27" t="n">
         <v>1453317.797089009</v>
       </c>
     </row>
@@ -8556,15 +9212,18 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>1499061.416043405</v>
+        <v>1499060.485333843</v>
       </c>
       <c r="C28" t="n">
-        <v>1461432.177732633</v>
+        <v>1430341.329541065</v>
       </c>
       <c r="D28" t="n">
-        <v>1354073.219486237</v>
+        <v>1330418.135944366</v>
       </c>
       <c r="E28" t="n">
+        <v>1341869.115745544</v>
+      </c>
+      <c r="F28" t="n">
         <v>1543226.214976188</v>
       </c>
     </row>
@@ -8573,15 +9232,18 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>1526320.433090255</v>
+        <v>1526319.309362227</v>
       </c>
       <c r="C29" t="n">
-        <v>1478323.459776045</v>
+        <v>1451969.282543676</v>
       </c>
       <c r="D29" t="n">
-        <v>1341039.633541107</v>
+        <v>1355954.625156403</v>
       </c>
       <c r="E29" t="n">
+        <v>1340360.253189087</v>
+      </c>
+      <c r="F29" t="n">
         <v>1584246.495333715</v>
       </c>
     </row>
@@ -8590,15 +9252,18 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>1550525.664283878</v>
+        <v>1550524.346245478</v>
       </c>
       <c r="C30" t="n">
-        <v>1499537.139859039</v>
+        <v>1469250.222590174</v>
       </c>
       <c r="D30" t="n">
-        <v>1348232.950088501</v>
+        <v>1352425.246406555</v>
       </c>
       <c r="E30" t="n">
+        <v>1355132.890144348</v>
+      </c>
+      <c r="F30" t="n">
         <v>1637290.270287135</v>
       </c>
     </row>
@@ -8607,15 +9272,18 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>1471742.993302779</v>
+        <v>1471741.910687225</v>
       </c>
       <c r="C31" t="n">
-        <v>1440203.220510469</v>
+        <v>1422603.087696986</v>
       </c>
       <c r="D31" t="n">
-        <v>1344301.346794128</v>
+        <v>1351752.596427917</v>
       </c>
       <c r="E31" t="n">
+        <v>1351110.741539001</v>
+      </c>
+      <c r="F31" t="n">
         <v>1536079.820013054</v>
       </c>
     </row>
@@ -8624,15 +9292,18 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>1358984.543616633</v>
+        <v>1358984.290734927</v>
       </c>
       <c r="C32" t="n">
-        <v>1354683.60660956</v>
+        <v>1351369.860912133</v>
       </c>
       <c r="D32" t="n">
-        <v>1350665.08429718</v>
+        <v>1347159.625003815</v>
       </c>
       <c r="E32" t="n">
+        <v>1342634.538352966</v>
+      </c>
+      <c r="F32" t="n">
         <v>1325928.289888104</v>
       </c>
     </row>
@@ -8641,15 +9312,18 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>1469561.9672241</v>
+        <v>1469561.344308968</v>
       </c>
       <c r="C33" t="n">
-        <v>1439687.251496477</v>
+        <v>1417868.092013329</v>
       </c>
       <c r="D33" t="n">
-        <v>1359272.796073914</v>
+        <v>1348070.307468414</v>
       </c>
       <c r="E33" t="n">
+        <v>1350012.141239166</v>
+      </c>
+      <c r="F33" t="n">
         <v>1482368.392110338</v>
       </c>
     </row>
@@ -8658,15 +9332,18 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>1438000.877574426</v>
+        <v>1438000.347280504</v>
       </c>
       <c r="C34" t="n">
-        <v>1414910.546494951</v>
+        <v>1398907.590917132</v>
       </c>
       <c r="D34" t="n">
-        <v>1353328.95639801</v>
+        <v>1347247.119857788</v>
       </c>
       <c r="E34" t="n">
+        <v>1346892.346866608</v>
+      </c>
+      <c r="F34" t="n">
         <v>1445261.676542776</v>
       </c>
     </row>
@@ -8675,15 +9352,18 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>1482061.813826792</v>
+        <v>1482061.206500658</v>
       </c>
       <c r="C35" t="n">
-        <v>1445298.363429661</v>
+        <v>1421806.065623114</v>
       </c>
       <c r="D35" t="n">
-        <v>1343191.222545624</v>
+        <v>1341654.470096588</v>
       </c>
       <c r="E35" t="n">
+        <v>1337812.976333618</v>
+      </c>
+      <c r="F35" t="n">
         <v>1512366.502102674</v>
       </c>
     </row>
@@ -8692,15 +9372,18 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>1400668.270914038</v>
+        <v>1400667.812372946</v>
       </c>
       <c r="C36" t="n">
-        <v>1386575.033509553</v>
+        <v>1373115.38476615</v>
       </c>
       <c r="D36" t="n">
-        <v>1352299.354530334</v>
+        <v>1340673.627120972</v>
       </c>
       <c r="E36" t="n">
+        <v>1335694.7486763</v>
+      </c>
+      <c r="F36" t="n">
         <v>1389812.794384272</v>
       </c>
     </row>
@@ -8709,15 +9392,18 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>1350904.306186284</v>
+        <v>1350904.060414267</v>
       </c>
       <c r="C37" t="n">
-        <v>1350242.492806355</v>
+        <v>1349639.261571608</v>
       </c>
       <c r="D37" t="n">
-        <v>1353192.605812073</v>
+        <v>1355572.204372406</v>
       </c>
       <c r="E37" t="n">
+        <v>1344467.136711121</v>
+      </c>
+      <c r="F37" t="n">
         <v>1329340.792625384</v>
       </c>
     </row>
@@ -8726,15 +9412,18 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>1490246.663668669</v>
+        <v>1490245.653553338</v>
       </c>
       <c r="C38" t="n">
-        <v>1455925.723184392</v>
+        <v>1432559.912583424</v>
       </c>
       <c r="D38" t="n">
-        <v>1355069.798946381</v>
+        <v>1349110.755405426</v>
       </c>
       <c r="E38" t="n">
+        <v>1353943.792953491</v>
+      </c>
+      <c r="F38" t="n">
         <v>1544084.145057096</v>
       </c>
     </row>
@@ -8743,15 +9432,18 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>1448386.106484951</v>
+        <v>1448385.341993276</v>
       </c>
       <c r="C39" t="n">
-        <v>1425615.917613169</v>
+        <v>1404919.786959077</v>
       </c>
       <c r="D39" t="n">
-        <v>1360270.731292725</v>
+        <v>1346414.199836731</v>
       </c>
       <c r="E39" t="n">
+        <v>1343573.788589478</v>
+      </c>
+      <c r="F39" t="n">
         <v>1476866.515115936</v>
       </c>
     </row>

--- a/fcst_results/no_covid_series_IAH-Dom_results.xlsx
+++ b/fcst_results/no_covid_series_IAH-Dom_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>1362914.121753693</v>
+        <v>1349696.733669281</v>
       </c>
       <c r="C2" t="n">
-        <v>1372283.140441895</v>
+        <v>1369413.241443634</v>
       </c>
       <c r="D2" t="n">
-        <v>1461955.905962696</v>
+        <v>1461956.016518393</v>
       </c>
       <c r="E2" t="n">
         <v>1466274.626851014</v>
       </c>
       <c r="F2" t="n">
-        <v>1421118.651567191</v>
+        <v>1415013.29082404</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>1367423.132980347</v>
+        <v>1329120.190700531</v>
       </c>
       <c r="C3" t="n">
-        <v>1355128.435508728</v>
+        <v>1357821.020641327</v>
       </c>
       <c r="D3" t="n">
-        <v>1408948.195172029</v>
+        <v>1408948.284395932</v>
       </c>
       <c r="E3" t="n">
         <v>1406459.506398476</v>
       </c>
       <c r="F3" t="n">
-        <v>1388304.517692638</v>
+        <v>1378805.567087656</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>1358262.562187195</v>
+        <v>1354231.988510132</v>
       </c>
       <c r="C4" t="n">
-        <v>1372914.536621094</v>
+        <v>1363067.516162872</v>
       </c>
       <c r="D4" t="n">
-        <v>1483205.86171466</v>
+        <v>1483206.192771547</v>
       </c>
       <c r="E4" t="n">
         <v>1476542.642662393</v>
       </c>
       <c r="F4" t="n">
-        <v>1431696.838672712</v>
+        <v>1425469.616692702</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>1355717.125289917</v>
+        <v>1339645.913631439</v>
       </c>
       <c r="C5" t="n">
-        <v>1356505.208435059</v>
+        <v>1357777.442684174</v>
       </c>
       <c r="D5" t="n">
-        <v>1509709.837100313</v>
+        <v>1509710.30509284</v>
       </c>
       <c r="E5" t="n">
         <v>1538074.174295384</v>
       </c>
       <c r="F5" t="n">
-        <v>1444417.562678583</v>
+        <v>1436785.900231455</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>1353380.475227356</v>
+        <v>1346941.202598572</v>
       </c>
       <c r="C6" t="n">
-        <v>1358737.658760071</v>
+        <v>1361581.701503754</v>
       </c>
       <c r="D6" t="n">
-        <v>1537255.878886186</v>
+        <v>1537256.542083192</v>
       </c>
       <c r="E6" t="n">
         <v>1580759.437709347</v>
       </c>
       <c r="F6" t="n">
-        <v>1460651.638860852</v>
+        <v>1454833.706767962</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>1341657.811073303</v>
+        <v>1340920.326778412</v>
       </c>
       <c r="C7" t="n">
-        <v>1358325.943904877</v>
+        <v>1350120.214572906</v>
       </c>
       <c r="D7" t="n">
-        <v>1449347.775817401</v>
+        <v>1449348.415932925</v>
       </c>
       <c r="E7" t="n">
         <v>1495308.480243898</v>
       </c>
       <c r="F7" t="n">
-        <v>1408217.868371581</v>
+        <v>1403543.837328327</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>1364806.373493195</v>
+        <v>1341942.133033752</v>
       </c>
       <c r="C8" t="n">
-        <v>1355285.31615448</v>
+        <v>1348889.137283325</v>
       </c>
       <c r="D8" t="n">
-        <v>1316628.38499413</v>
+        <v>1316628.418797399</v>
       </c>
       <c r="E8" t="n">
         <v>1247196.584143331</v>
       </c>
       <c r="F8" t="n">
-        <v>1332300.532807594</v>
+        <v>1326849.167910261</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>1342629.212158203</v>
+        <v>1352103.350563049</v>
       </c>
       <c r="C9" t="n">
-        <v>1361900.353210449</v>
+        <v>1343563.910919189</v>
       </c>
       <c r="D9" t="n">
-        <v>1448484.58324605</v>
+        <v>1448484.863561966</v>
       </c>
       <c r="E9" t="n">
         <v>1431880.280552339</v>
       </c>
       <c r="F9" t="n">
-        <v>1405730.58752032</v>
+        <v>1401219.533094939</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>1345193.339157104</v>
+        <v>1340392.50087738</v>
       </c>
       <c r="C10" t="n">
-        <v>1349620.133304596</v>
+        <v>1345080.956447601</v>
       </c>
       <c r="D10" t="n">
-        <v>1406238.420533782</v>
+        <v>1406238.619143981</v>
       </c>
       <c r="E10" t="n">
         <v>1397351.652247004</v>
       </c>
       <c r="F10" t="n">
-        <v>1380247.37290965</v>
+        <v>1376558.063762681</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>1343095.980499268</v>
+        <v>1347414.265533447</v>
       </c>
       <c r="C11" t="n">
-        <v>1344864.809780121</v>
+        <v>1353319.223987579</v>
       </c>
       <c r="D11" t="n">
-        <v>1465472.733423681</v>
+        <v>1465473.050477547</v>
       </c>
       <c r="E11" t="n">
         <v>1451533.375801868</v>
       </c>
       <c r="F11" t="n">
-        <v>1412097.79019077</v>
+        <v>1411752.511337451</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>1350423.420314789</v>
+        <v>1331556.682704926</v>
       </c>
       <c r="C12" t="n">
-        <v>1347847.382007599</v>
+        <v>1359123.759460449</v>
       </c>
       <c r="D12" t="n">
-        <v>1369424.493358441</v>
+        <v>1369424.794226767</v>
       </c>
       <c r="E12" t="n">
         <v>1348134.609319234</v>
       </c>
       <c r="F12" t="n">
-        <v>1359651.391761511</v>
+        <v>1357538.676099335</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>1349658.627166748</v>
+        <v>1333308.710262299</v>
       </c>
       <c r="C13" t="n">
-        <v>1342853.832317352</v>
+        <v>1344128.293884277</v>
       </c>
       <c r="D13" t="n">
-        <v>1312242.839669333</v>
+        <v>1312243.039703819</v>
       </c>
       <c r="E13" t="n">
         <v>1263397.912703778</v>
       </c>
       <c r="F13" t="n">
-        <v>1324774.237850247</v>
+        <v>1322346.528676137</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>1331379.659358978</v>
+        <v>1336533.091732025</v>
       </c>
       <c r="C14" t="n">
-        <v>1347778.238315582</v>
+        <v>1351022.229866028</v>
       </c>
       <c r="D14" t="n">
-        <v>1467383.489376868</v>
+        <v>1467384.137535612</v>
       </c>
       <c r="E14" t="n">
         <v>1492355.564453505</v>
       </c>
       <c r="F14" t="n">
-        <v>1412927.299468855</v>
+        <v>1411543.730346492</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>1341646.287124634</v>
+        <v>1321609.19084549</v>
       </c>
       <c r="C15" t="n">
-        <v>1343853.074874878</v>
+        <v>1343187.784729004</v>
       </c>
       <c r="D15" t="n">
-        <v>1420778.967975877</v>
+        <v>1420779.477977416</v>
       </c>
       <c r="E15" t="n">
         <v>1429849.812231069</v>
       </c>
       <c r="F15" t="n">
-        <v>1387335.905889364</v>
+        <v>1380534.473639653</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>1336095.569042206</v>
+        <v>1331258.948417664</v>
       </c>
       <c r="C16" t="n">
-        <v>1342265.771995544</v>
+        <v>1338608.903511047</v>
       </c>
       <c r="D16" t="n">
-        <v>1488401.873626795</v>
+        <v>1488402.597060649</v>
       </c>
       <c r="E16" t="n">
         <v>1509897.022441767</v>
       </c>
       <c r="F16" t="n">
-        <v>1424618.034358586</v>
+        <v>1418572.842767292</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>1337835.297931671</v>
+        <v>1323684.131065369</v>
       </c>
       <c r="C17" t="n">
-        <v>1349743.313663483</v>
+        <v>1336538.66002655</v>
       </c>
       <c r="D17" t="n">
-        <v>1517138.453160465</v>
+        <v>1517139.355553404</v>
       </c>
       <c r="E17" t="n">
         <v>1561204.14765759</v>
       </c>
       <c r="F17" t="n">
-        <v>1443884.120300201</v>
+        <v>1432867.971418972</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>1346191.952255249</v>
+        <v>1341363.90196228</v>
       </c>
       <c r="C18" t="n">
-        <v>1339092.764095306</v>
+        <v>1342238.463142395</v>
       </c>
       <c r="D18" t="n">
-        <v>1542658.837589464</v>
+        <v>1542659.922923123</v>
       </c>
       <c r="E18" t="n">
         <v>1609047.043795534</v>
       </c>
       <c r="F18" t="n">
-        <v>1459124.678349207</v>
+        <v>1452924.248268129</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>1353284.458461761</v>
+        <v>1328189.752895355</v>
       </c>
       <c r="C19" t="n">
-        <v>1338533.126285553</v>
+        <v>1343135.200660706</v>
       </c>
       <c r="D19" t="n">
-        <v>1459578.093608506</v>
+        <v>1459579.039198957</v>
       </c>
       <c r="E19" t="n">
         <v>1515622.015667904</v>
       </c>
       <c r="F19" t="n">
-        <v>1413101.514808512</v>
+        <v>1404992.614727314</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>1356058.098594666</v>
+        <v>1326334.203479767</v>
       </c>
       <c r="C20" t="n">
-        <v>1340762.090373993</v>
+        <v>1344647.016834259</v>
       </c>
       <c r="D20" t="n">
-        <v>1340671.039099967</v>
+        <v>1340671.260644272</v>
       </c>
       <c r="E20" t="n">
         <v>1286483.763960752</v>
       </c>
       <c r="F20" t="n">
-        <v>1341658.492867745</v>
+        <v>1335972.838137489</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>1351684.614814758</v>
+        <v>1329124.790596008</v>
       </c>
       <c r="C21" t="n">
-        <v>1352999.797561646</v>
+        <v>1332120.968830109</v>
       </c>
       <c r="D21" t="n">
-        <v>1457273.402627488</v>
+        <v>1457273.876666622</v>
       </c>
       <c r="E21" t="n">
         <v>1457230.171840306</v>
       </c>
       <c r="F21" t="n">
-        <v>1411742.912295104</v>
+        <v>1398827.815059484</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>1341008.838451385</v>
+        <v>1339733.941104889</v>
       </c>
       <c r="C22" t="n">
-        <v>1317837.421813965</v>
+        <v>1337961.96452713</v>
       </c>
       <c r="D22" t="n">
-        <v>1423990.119612573</v>
+        <v>1423990.540313727</v>
       </c>
       <c r="E22" t="n">
         <v>1421304.042586561</v>
       </c>
       <c r="F22" t="n">
-        <v>1383130.852836887</v>
+        <v>1384554.615674922</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>1331751.86353302</v>
+        <v>1329940.085754395</v>
       </c>
       <c r="C23" t="n">
-        <v>1331762.17698288</v>
+        <v>1346470.415401459</v>
       </c>
       <c r="D23" t="n">
-        <v>1470451.287855354</v>
+        <v>1470451.736049701</v>
       </c>
       <c r="E23" t="n">
         <v>1481980.969156709</v>
       </c>
       <c r="F23" t="n">
-        <v>1410838.71231638</v>
+        <v>1410033.699238089</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>1337420.338939667</v>
+        <v>1331693.275390625</v>
       </c>
       <c r="C24" t="n">
-        <v>1332241.195571899</v>
+        <v>1342100.272598267</v>
       </c>
       <c r="D24" t="n">
-        <v>1384619.876236732</v>
+        <v>1384620.274684009</v>
       </c>
       <c r="E24" t="n">
         <v>1368939.341189105</v>
       </c>
       <c r="F24" t="n">
-        <v>1362348.249261189</v>
+        <v>1361957.281628178</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>1338776.291286469</v>
+        <v>1334222.588443756</v>
       </c>
       <c r="C25" t="n">
-        <v>1339309.685482025</v>
+        <v>1342099.013679504</v>
       </c>
       <c r="D25" t="n">
-        <v>1332142.508748576</v>
+        <v>1332142.748793587</v>
       </c>
       <c r="E25" t="n">
         <v>1296296.98752558</v>
       </c>
       <c r="F25" t="n">
-        <v>1333437.431822571</v>
+        <v>1333365.981634081</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>1333469.997123718</v>
+        <v>1327137.732589722</v>
       </c>
       <c r="C26" t="n">
-        <v>1340866.04801178</v>
+        <v>1344671.468910217</v>
       </c>
       <c r="D26" t="n">
-        <v>1479078.987544222</v>
+        <v>1479079.855781822</v>
       </c>
       <c r="E26" t="n">
         <v>1518292.023674777</v>
       </c>
       <c r="F26" t="n">
-        <v>1419286.888157289</v>
+        <v>1414865.702258842</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>1339127.965400696</v>
+        <v>1324619.362445831</v>
       </c>
       <c r="C27" t="n">
-        <v>1329988.650966644</v>
+        <v>1335833.229740143</v>
       </c>
       <c r="D27" t="n">
-        <v>1434936.229286784</v>
+        <v>1434936.893621408</v>
       </c>
       <c r="E27" t="n">
         <v>1453317.797089009</v>
       </c>
       <c r="F27" t="n">
-        <v>1392378.445131414</v>
+        <v>1387501.273977026</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>1330418.135944366</v>
+        <v>1310407.186439514</v>
       </c>
       <c r="C28" t="n">
-        <v>1341869.115745544</v>
+        <v>1329474.237392426</v>
       </c>
       <c r="D28" t="n">
-        <v>1499060.485333843</v>
+        <v>1499061.416043405</v>
       </c>
       <c r="E28" t="n">
         <v>1543226.214976188</v>
       </c>
       <c r="F28" t="n">
-        <v>1430341.329541065</v>
+        <v>1418486.783735058</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>1355954.625156403</v>
+        <v>1328407.013221741</v>
       </c>
       <c r="C29" t="n">
-        <v>1340360.253189087</v>
+        <v>1345234.350856781</v>
       </c>
       <c r="D29" t="n">
-        <v>1526319.309362227</v>
+        <v>1526320.433090255</v>
       </c>
       <c r="E29" t="n">
         <v>1584246.495333715</v>
       </c>
       <c r="F29" t="n">
-        <v>1451969.282543676</v>
+        <v>1441556.854797857</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>1352425.246406555</v>
+        <v>1333023.032543182</v>
       </c>
       <c r="C30" t="n">
-        <v>1355132.890144348</v>
+        <v>1335713.874557495</v>
       </c>
       <c r="D30" t="n">
-        <v>1550524.346245478</v>
+        <v>1550525.664283878</v>
       </c>
       <c r="E30" t="n">
         <v>1637290.270287135</v>
       </c>
       <c r="F30" t="n">
-        <v>1469250.222590174</v>
+        <v>1454654.491567418</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>1351752.596427917</v>
+        <v>1316390.197856903</v>
       </c>
       <c r="C31" t="n">
-        <v>1351110.741539001</v>
+        <v>1336877.309173584</v>
       </c>
       <c r="D31" t="n">
-        <v>1471741.910687225</v>
+        <v>1471742.993302779</v>
       </c>
       <c r="E31" t="n">
         <v>1536079.820013054</v>
       </c>
       <c r="F31" t="n">
-        <v>1422603.087696986</v>
+        <v>1407783.326971476</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>1347159.625003815</v>
+        <v>1338866.110298157</v>
       </c>
       <c r="C32" t="n">
-        <v>1342634.538352966</v>
+        <v>1343277.458480835</v>
       </c>
       <c r="D32" t="n">
-        <v>1358984.290734927</v>
+        <v>1358984.543616633</v>
       </c>
       <c r="E32" t="n">
         <v>1325928.289888104</v>
       </c>
       <c r="F32" t="n">
-        <v>1351369.860912133</v>
+        <v>1349262.528460813</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>1348070.307468414</v>
+        <v>1342135.861263275</v>
       </c>
       <c r="C33" t="n">
-        <v>1350012.141239166</v>
+        <v>1334404.889564514</v>
       </c>
       <c r="D33" t="n">
-        <v>1469561.344308968</v>
+        <v>1469561.9672241</v>
       </c>
       <c r="E33" t="n">
         <v>1482368.392110338</v>
       </c>
       <c r="F33" t="n">
-        <v>1417868.092013329</v>
+        <v>1409477.497611538</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>1347247.119857788</v>
+        <v>1344986.973320007</v>
       </c>
       <c r="C34" t="n">
-        <v>1346892.346866608</v>
+        <v>1337360.733978271</v>
       </c>
       <c r="D34" t="n">
-        <v>1438000.347280504</v>
+        <v>1438000.877574426</v>
       </c>
       <c r="E34" t="n">
         <v>1445261.676542776</v>
       </c>
       <c r="F34" t="n">
-        <v>1398907.590917132</v>
+        <v>1393577.788650581</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>1341654.470096588</v>
+        <v>1346028.922275543</v>
       </c>
       <c r="C35" t="n">
-        <v>1337812.976333618</v>
+        <v>1347535.073314667</v>
       </c>
       <c r="D35" t="n">
-        <v>1482061.206500658</v>
+        <v>1482061.813826792</v>
       </c>
       <c r="E35" t="n">
         <v>1512366.502102674</v>
       </c>
       <c r="F35" t="n">
-        <v>1421806.065623114</v>
+        <v>1420984.011447393</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>1340673.627120972</v>
+        <v>1322909.411827087</v>
       </c>
       <c r="C36" t="n">
-        <v>1335694.7486763</v>
+        <v>1343789.547897339</v>
       </c>
       <c r="D36" t="n">
-        <v>1400667.812372946</v>
+        <v>1400668.270914038</v>
       </c>
       <c r="E36" t="n">
         <v>1389812.794384272</v>
       </c>
       <c r="F36" t="n">
-        <v>1373115.38476615</v>
+        <v>1369247.252466287</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>1355572.204372406</v>
+        <v>1343645.934318542</v>
       </c>
       <c r="C37" t="n">
-        <v>1344467.136711121</v>
+        <v>1334575.473056793</v>
       </c>
       <c r="D37" t="n">
-        <v>1350904.060414267</v>
+        <v>1350904.306186284</v>
       </c>
       <c r="E37" t="n">
         <v>1329340.792625384</v>
       </c>
       <c r="F37" t="n">
-        <v>1349639.261571608</v>
+        <v>1344431.20092257</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>1349110.755405426</v>
+        <v>1328470.394939423</v>
       </c>
       <c r="C38" t="n">
-        <v>1353943.792953491</v>
+        <v>1343782.430164337</v>
       </c>
       <c r="D38" t="n">
-        <v>1490245.653553338</v>
+        <v>1490246.663668669</v>
       </c>
       <c r="E38" t="n">
         <v>1544084.145057096</v>
       </c>
       <c r="F38" t="n">
-        <v>1432559.912583424</v>
+        <v>1421621.199548668</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>1346414.199836731</v>
+        <v>1329930.934383392</v>
       </c>
       <c r="C39" t="n">
-        <v>1343573.788589478</v>
+        <v>1328908.740768433</v>
       </c>
       <c r="D39" t="n">
-        <v>1448385.341993276</v>
+        <v>1448386.106484951</v>
       </c>
       <c r="E39" t="n">
         <v>1476866.515115936</v>
       </c>
       <c r="F39" t="n">
-        <v>1404919.786959077</v>
+        <v>1394739.943423916</v>
       </c>
     </row>
   </sheetData>
@@ -1387,19 +1454,19 @@
         <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>94658.17271484672</v>
+        <v>94620.5827279542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05342264946047947</v>
+        <v>0.05340420560765513</v>
       </c>
       <c r="M2" t="n">
-        <v>72969.22217220838</v>
+        <v>72941.85417172259</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2849265402622503</v>
+        <v>0.285494357368557</v>
       </c>
       <c r="O2" t="n">
-        <v>1217127.31639557</v>
+        <v>1217135.512446728</v>
       </c>
       <c r="P2" t="n">
         <v>1285706</v>
@@ -1408,19 +1475,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>163566.0548257188</v>
+        <v>174565.30494858</v>
       </c>
       <c r="S2" t="n">
-        <v>114725.8395670812</v>
+        <v>114725.8595153741</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04863333811748791</v>
+        <v>0.04863340448808084</v>
       </c>
       <c r="U2" t="n">
-        <v>59567.25877940949</v>
+        <v>59567.33789786687</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3059828281248081</v>
+        <v>0.3059825867762326</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1431,16 +1498,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>94658.17271484672</v>
+        <v>94620.5827279542</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05342264946047947</v>
+        <v>0.05340420560765513</v>
       </c>
       <c r="AE2" t="n">
-        <v>72969.22217220838</v>
+        <v>72941.85417172259</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2849265402622503</v>
+        <v>0.285494357368557</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1478,19 +1545,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>100340.3755707441</v>
+        <v>99633.47425983079</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05834555939665606</v>
+        <v>0.05801594911896291</v>
       </c>
       <c r="M3" t="n">
-        <v>78086.55644306516</v>
+        <v>77474.35063860058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.196500019329879</v>
+        <v>0.2077815082391122</v>
       </c>
       <c r="O3" t="n">
-        <v>1234995.700654589</v>
+        <v>1248403.279915834</v>
       </c>
       <c r="P3" t="n">
         <v>1285706</v>
@@ -1499,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>149370.9846649918</v>
+        <v>167051.2193163313</v>
       </c>
       <c r="S3" t="n">
-        <v>73418.74646382112</v>
+        <v>75624.68381771675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04479823192551602</v>
+        <v>0.0463586765948517</v>
       </c>
       <c r="U3" t="n">
-        <v>58572.07143161668</v>
+        <v>60915.5394713193</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6454232115013084</v>
+        <v>0.6237959075416734</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1519,25 +1586,25 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['arima', 'lstm_reg', 'lstm', 'prophet']</t>
+          <t>['arima', 'lstm', 'lstm_reg', 'prophet']</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.5190764993331844, 0.22914427251928365, 0.20459045548087862, 0.04718877266665313)</t>
+          <t>(0.4935165454656957, 0.23759076322195627, 0.22402755081546655, 0.04486514049688142)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>100340.3755707441</v>
+        <v>99633.47425983079</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05834555939665606</v>
+        <v>0.05801594911896291</v>
       </c>
       <c r="AE3" t="n">
-        <v>78086.55644306516</v>
+        <v>77474.35063860058</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.196500019329879</v>
+        <v>0.2077815082391122</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1546,7 +1613,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1557,7 +1624,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1581,19 +1648,19 @@
         <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>130386.893555607</v>
+        <v>127688.9346370948</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08267252372082344</v>
+        <v>0.08057106435417989</v>
       </c>
       <c r="M4" t="n">
-        <v>108199.0192724587</v>
+        <v>104975.2130615677</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3567577252379384</v>
+        <v>-0.3011907075856095</v>
       </c>
       <c r="O4" t="n">
-        <v>1282321.580413818</v>
+        <v>1317756.124713898</v>
       </c>
       <c r="P4" t="n">
         <v>1285706</v>
@@ -1602,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>246220.0962177023</v>
+        <v>229305.5462065013</v>
       </c>
       <c r="S4" t="n">
-        <v>120908.924081452</v>
+        <v>120310.3852621735</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07402280140279827</v>
+        <v>0.07363054345124145</v>
       </c>
       <c r="U4" t="n">
-        <v>97738.62295884048</v>
+        <v>97240.43619400973</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03835874851657939</v>
+        <v>0.04785606179883262</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1625,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>130386.893555607</v>
+        <v>127688.9346370948</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08267252372082344</v>
+        <v>0.08057106435417989</v>
       </c>
       <c r="AE4" t="n">
-        <v>108199.0192724587</v>
+        <v>104975.2130615677</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.3567577252379384</v>
+        <v>-0.3011907075856095</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1643,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1654,7 +1721,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1678,19 +1745,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>134854.1602964251</v>
+        <v>130915.1343549884</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08514964076599355</v>
+        <v>0.08201081720895595</v>
       </c>
       <c r="M5" t="n">
-        <v>110978.4259907819</v>
+        <v>107242.1815584708</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4513198138380723</v>
+        <v>-0.367773350360767</v>
       </c>
       <c r="O5" t="n">
-        <v>1278120.326404572</v>
+        <v>1290521.547771454</v>
       </c>
       <c r="P5" t="n">
         <v>1285706</v>
@@ -1699,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>233754.3208478847</v>
+        <v>194537.7282157682</v>
       </c>
       <c r="S5" t="n">
-        <v>120016.4780944221</v>
+        <v>122154.4585529007</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07349288753124902</v>
+        <v>0.07466601268608894</v>
       </c>
       <c r="U5" t="n">
-        <v>96469.44282474418</v>
+        <v>99259.86715941355</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05250237913141043</v>
+        <v>0.01844414515780413</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1722,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>134854.1602964251</v>
+        <v>130915.1343549884</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.08514964076599355</v>
+        <v>0.08201081720895595</v>
       </c>
       <c r="AE5" t="n">
-        <v>110978.4259907819</v>
+        <v>107242.1815584708</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.4513198138380723</v>
+        <v>-0.367773350360767</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1771,7 +1838,7 @@
         <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>162356.8053614395</v>
+        <v>162356.8053614396</v>
       </c>
       <c r="L6" t="n">
         <v>0.1010291429561306</v>
@@ -1792,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>104923.1321488607</v>
+        <v>119461.732859066</v>
       </c>
       <c r="S6" t="n">
         <v>57694.02435842139</v>
@@ -1815,7 +1882,7 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>162356.8053614395</v>
+        <v>162356.8053614396</v>
       </c>
       <c r="AD6" t="n">
         <v>0.1010291429561306</v>
@@ -4861,7 +4928,7 @@
         <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>1461955.905962696</v>
+        <v>1461956.016518393</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4874,7 +4941,7 @@
         <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>1408948.195172029</v>
+        <v>1408948.284395932</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4887,7 +4954,7 @@
         <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>1483205.86171466</v>
+        <v>1483206.192771547</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4900,7 +4967,7 @@
         <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>1509709.837100313</v>
+        <v>1509710.30509284</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4913,7 +4980,7 @@
         <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>1537255.878886186</v>
+        <v>1537256.542083192</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4926,7 +4993,7 @@
         <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>1449347.775817401</v>
+        <v>1449348.415932925</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4939,7 +5006,7 @@
         <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>1316628.38499413</v>
+        <v>1316628.418797399</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4952,7 +5019,7 @@
         <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>1448484.58324605</v>
+        <v>1448484.863561966</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4965,7 +5032,7 @@
         <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>1406238.420533782</v>
+        <v>1406238.619143981</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4978,7 +5045,7 @@
         <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>1465472.733423681</v>
+        <v>1465473.050477547</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4991,7 +5058,7 @@
         <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>1369424.493358441</v>
+        <v>1369424.794226767</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5004,7 +5071,7 @@
         <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>1312242.839669333</v>
+        <v>1312243.039703819</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5017,7 +5084,7 @@
         <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>1467383.489376868</v>
+        <v>1467384.137535612</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5030,7 +5097,7 @@
         <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>1420778.967975877</v>
+        <v>1420779.477977416</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5043,7 +5110,7 @@
         <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>1488401.873626795</v>
+        <v>1488402.597060649</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5056,7 +5123,7 @@
         <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>1517138.453160465</v>
+        <v>1517139.355553404</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5069,7 +5136,7 @@
         <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>1542658.837589464</v>
+        <v>1542659.922923123</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5082,7 +5149,7 @@
         <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>1459578.093608506</v>
+        <v>1459579.039198957</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5095,7 +5162,7 @@
         <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>1340671.039099967</v>
+        <v>1340671.260644272</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5108,7 +5175,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>1457273.402627488</v>
+        <v>1457273.876666622</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5121,7 +5188,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>1423990.119612573</v>
+        <v>1423990.540313727</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5134,7 +5201,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>1470451.287855354</v>
+        <v>1470451.736049701</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5147,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>1384619.876236732</v>
+        <v>1384620.274684009</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5160,7 +5227,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>1332142.508748576</v>
+        <v>1332142.748793587</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5173,7 +5240,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>1479078.987544222</v>
+        <v>1479079.855781822</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5186,7 +5253,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>1434936.229286784</v>
+        <v>1434936.893621408</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5199,7 +5266,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>1499060.485333843</v>
+        <v>1499061.416043405</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5212,7 +5279,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>1526319.309362227</v>
+        <v>1526320.433090255</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5225,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>1550524.346245478</v>
+        <v>1550525.664283878</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5238,7 +5305,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>1471741.910687225</v>
+        <v>1471742.993302779</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5251,7 +5318,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>1358984.290734927</v>
+        <v>1358984.543616633</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5264,7 +5331,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>1469561.344308968</v>
+        <v>1469561.9672241</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5277,7 +5344,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>1438000.347280504</v>
+        <v>1438000.877574426</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5290,7 +5357,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>1482061.206500658</v>
+        <v>1482061.813826792</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5303,7 +5370,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>1400667.812372946</v>
+        <v>1400668.270914038</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5316,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>1350904.060414267</v>
+        <v>1350904.306186284</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5329,7 +5396,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>1490245.653553338</v>
+        <v>1490246.663668669</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5342,7 +5409,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>1448385.341993276</v>
+        <v>1448386.106484951</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5392,12 +5459,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5414,16 +5481,16 @@
         <v>1365748</v>
       </c>
       <c r="C2" t="n">
-        <v>1382788.314088087</v>
+        <v>1382781.409753699</v>
       </c>
       <c r="D2" t="n">
-        <v>1410436.421887074</v>
+        <v>1418937.523476768</v>
       </c>
       <c r="E2" t="n">
-        <v>1431977.824008942</v>
+        <v>1467785.92824173</v>
       </c>
       <c r="F2" t="n">
-        <v>1463978.23160553</v>
+        <v>1455013.858459473</v>
       </c>
       <c r="G2" t="n">
         <v>1377828.047916109</v>
@@ -5437,16 +5504,16 @@
         <v>1441959</v>
       </c>
       <c r="C3" t="n">
-        <v>1404897.179280684</v>
+        <v>1404917.255988404</v>
       </c>
       <c r="D3" t="n">
-        <v>1428840.788063617</v>
+        <v>1436615.369388697</v>
       </c>
       <c r="E3" t="n">
-        <v>1442753.926513672</v>
+        <v>1473549.258335114</v>
       </c>
       <c r="F3" t="n">
-        <v>1473257.576541901</v>
+        <v>1468180.889793396</v>
       </c>
       <c r="G3" t="n">
         <v>1432087.273306251</v>
@@ -5460,19 +5527,19 @@
         <v>1373174</v>
       </c>
       <c r="C4" t="n">
-        <v>1353302.463356728</v>
+        <v>1353296.968879655</v>
       </c>
       <c r="D4" t="n">
-        <v>1392163.223492409</v>
+        <v>1397741.649437275</v>
       </c>
       <c r="E4" t="n">
-        <v>1439003.026481628</v>
+        <v>1438567.392169952</v>
       </c>
       <c r="F4" t="n">
-        <v>1450300.418193817</v>
+        <v>1463891.559890747</v>
       </c>
       <c r="G4" t="n">
-        <v>1340123.718037498</v>
+        <v>1340123.718037497</v>
       </c>
     </row>
     <row r="5">
@@ -5483,16 +5550,16 @@
         <v>1225273</v>
       </c>
       <c r="C5" t="n">
-        <v>1206427.255385631</v>
+        <v>1206360.856637617</v>
       </c>
       <c r="D5" t="n">
-        <v>1319041.77257336</v>
+        <v>1305718.686447338</v>
       </c>
       <c r="E5" t="n">
-        <v>1464351.791538239</v>
+        <v>1422878.552875519</v>
       </c>
       <c r="F5" t="n">
-        <v>1492839.089488983</v>
+        <v>1441806.97750473</v>
       </c>
       <c r="G5" t="n">
         <v>1098678.307472316</v>
@@ -5506,16 +5573,16 @@
         <v>1367566</v>
       </c>
       <c r="C6" t="n">
-        <v>1289190.866005405</v>
+        <v>1289166.021770413</v>
       </c>
       <c r="D6" t="n">
-        <v>1359552.495015839</v>
+        <v>1356738.219985148</v>
       </c>
       <c r="E6" t="n">
-        <v>1470585.182529449</v>
+        <v>1406863.072582245</v>
       </c>
       <c r="F6" t="n">
-        <v>1441368.389575958</v>
+        <v>1475884.746318817</v>
       </c>
       <c r="G6" t="n">
         <v>1239647.120369824</v>
@@ -5529,16 +5596,16 @@
         <v>1292767</v>
       </c>
       <c r="C7" t="n">
-        <v>1257715.005715149</v>
+        <v>1257683.641505286</v>
       </c>
       <c r="D7" t="n">
-        <v>1335606.118088288</v>
+        <v>1335979.34121594</v>
       </c>
       <c r="E7" t="n">
-        <v>1434027.973213196</v>
+        <v>1412760.768043518</v>
       </c>
       <c r="F7" t="n">
-        <v>1452953.492645264</v>
+        <v>1453117.152084351</v>
       </c>
       <c r="G7" t="n">
         <v>1205712.693943207</v>
@@ -5552,16 +5619,16 @@
         <v>1368676</v>
       </c>
       <c r="C8" t="n">
-        <v>1307177.260020926</v>
+        <v>1307159.161423223</v>
       </c>
       <c r="D8" t="n">
-        <v>1364302.592687009</v>
+        <v>1366723.569729521</v>
       </c>
       <c r="E8" t="n">
-        <v>1433135.78717041</v>
+        <v>1436244.977573395</v>
       </c>
       <c r="F8" t="n">
-        <v>1454073.542984009</v>
+        <v>1443734.914749146</v>
       </c>
       <c r="G8" t="n">
         <v>1269225.015369395</v>
@@ -5575,16 +5642,16 @@
         <v>1232680</v>
       </c>
       <c r="C9" t="n">
-        <v>1220500.933676911</v>
+        <v>1220488.476538344</v>
       </c>
       <c r="D9" t="n">
-        <v>1303784.950062556</v>
+        <v>1312726.001715995</v>
       </c>
       <c r="E9" t="n">
-        <v>1388424.803131104</v>
+        <v>1428026.029594421</v>
       </c>
       <c r="F9" t="n">
-        <v>1456934.484291077</v>
+        <v>1427244.967342377</v>
       </c>
       <c r="G9" t="n">
         <v>1144914.642095032</v>
@@ -5598,16 +5665,16 @@
         <v>1150017</v>
       </c>
       <c r="C10" t="n">
-        <v>1175819.653844161</v>
+        <v>1175799.278506254</v>
       </c>
       <c r="D10" t="n">
-        <v>1277633.890210166</v>
+        <v>1286772.665081039</v>
       </c>
       <c r="E10" t="n">
-        <v>1425969.779476166</v>
+        <v>1406248.090766907</v>
       </c>
       <c r="F10" t="n">
-        <v>1412576.191184998</v>
+        <v>1443490.006629944</v>
       </c>
       <c r="G10" t="n">
         <v>1092232.822013451</v>
@@ -5621,16 +5688,16 @@
         <v>1356672</v>
       </c>
       <c r="C11" t="n">
-        <v>1331963.258039293</v>
+        <v>1331987.453571501</v>
       </c>
       <c r="D11" t="n">
-        <v>1382713.106078515</v>
+        <v>1390355.589214734</v>
       </c>
       <c r="E11" t="n">
-        <v>1473577.92294693</v>
+        <v>1449585.255496979</v>
       </c>
       <c r="F11" t="n">
-        <v>1427576.837696075</v>
+        <v>1473170.517467499</v>
       </c>
       <c r="G11" t="n">
         <v>1305220.304791636</v>
@@ -5644,16 +5711,16 @@
         <v>1306233</v>
       </c>
       <c r="C12" t="n">
-        <v>1271993.245597132</v>
+        <v>1272006.094293493</v>
       </c>
       <c r="D12" t="n">
-        <v>1349974.907753587</v>
+        <v>1346481.592529004</v>
       </c>
       <c r="E12" t="n">
-        <v>1472516.46075058</v>
+        <v>1462926.017620087</v>
       </c>
       <c r="F12" t="n">
-        <v>1439289.721019745</v>
+        <v>1411281.63533783</v>
       </c>
       <c r="G12" t="n">
         <v>1225491.798618015</v>
@@ -5667,16 +5734,16 @@
         <v>1400779</v>
       </c>
       <c r="C13" t="n">
-        <v>1340893.624540553</v>
+        <v>1340917.962383393</v>
       </c>
       <c r="D13" t="n">
-        <v>1394277.042000052</v>
+        <v>1399870.718589679</v>
       </c>
       <c r="E13" t="n">
-        <v>1464382.973987579</v>
+        <v>1492167.359489441</v>
       </c>
       <c r="F13" t="n">
-        <v>1466369.160434723</v>
+        <v>1446146.809417725</v>
       </c>
       <c r="G13" t="n">
         <v>1328506.001581081</v>
@@ -5690,16 +5757,16 @@
         <v>1447188</v>
       </c>
       <c r="C14" t="n">
-        <v>1372390.122185133</v>
+        <v>1372416.632583388</v>
       </c>
       <c r="D14" t="n">
-        <v>1395489.959215167</v>
+        <v>1420831.250266582</v>
       </c>
       <c r="E14" t="n">
-        <v>1418384.987613678</v>
+        <v>1473017.94619751</v>
       </c>
       <c r="F14" t="n">
-        <v>1437035.675395966</v>
+        <v>1484664.348926544</v>
       </c>
       <c r="G14" t="n">
         <v>1358287.485332709</v>
@@ -5713,16 +5780,16 @@
         <v>1515810</v>
       </c>
       <c r="C15" t="n">
-        <v>1393172.563971852</v>
+        <v>1393225.83071857</v>
       </c>
       <c r="D15" t="n">
-        <v>1428871.406699032</v>
+        <v>1423350.874651055</v>
       </c>
       <c r="E15" t="n">
-        <v>1461189.581287384</v>
+        <v>1466847.597984314</v>
       </c>
       <c r="F15" t="n">
-        <v>1486391.34336853</v>
+        <v>1445207.849700928</v>
       </c>
       <c r="G15" t="n">
         <v>1415242.64930126</v>
@@ -5736,16 +5803,16 @@
         <v>1371694</v>
       </c>
       <c r="C16" t="n">
-        <v>1346859.0298874</v>
+        <v>1346883.59679675</v>
       </c>
       <c r="D16" t="n">
-        <v>1393012.849940191</v>
+        <v>1400600.935134333</v>
       </c>
       <c r="E16" t="n">
-        <v>1443015.684776306</v>
+        <v>1464652.043663025</v>
       </c>
       <c r="F16" t="n">
-        <v>1473119.724937439</v>
+        <v>1469034.291454315</v>
       </c>
       <c r="G16" t="n">
         <v>1310586.423237367</v>
@@ -5759,16 +5826,16 @@
         <v>1248898</v>
       </c>
       <c r="C17" t="n">
-        <v>1213775.116718794</v>
+        <v>1213716.956639699</v>
       </c>
       <c r="D17" t="n">
-        <v>1300193.888090041</v>
+        <v>1304943.514015802</v>
       </c>
       <c r="E17" t="n">
-        <v>1409401.682266235</v>
+        <v>1421472.6795578</v>
       </c>
       <c r="F17" t="n">
-        <v>1443165.011909485</v>
+        <v>1423240.879379272</v>
       </c>
       <c r="G17" t="n">
         <v>1100635.51772866</v>
@@ -5782,16 +5849,16 @@
         <v>1402365</v>
       </c>
       <c r="C18" t="n">
-        <v>1289147.65363195</v>
+        <v>1289143.409655113</v>
       </c>
       <c r="D18" t="n">
-        <v>1354862.396867736</v>
+        <v>1352372.174098197</v>
       </c>
       <c r="E18" t="n">
-        <v>1446754.673500061</v>
+        <v>1417073.339523315</v>
       </c>
       <c r="F18" t="n">
-        <v>1450942.708862305</v>
+        <v>1450565.081653595</v>
       </c>
       <c r="G18" t="n">
         <v>1214940.876848544</v>
@@ -5805,16 +5872,16 @@
         <v>1358981</v>
       </c>
       <c r="C19" t="n">
-        <v>1262564.192394297</v>
+        <v>1262553.582085946</v>
       </c>
       <c r="D19" t="n">
-        <v>1326415.573483421</v>
+        <v>1322422.295010196</v>
       </c>
       <c r="E19" t="n">
-        <v>1412301.020595551</v>
+        <v>1375872.608352661</v>
       </c>
       <c r="F19" t="n">
-        <v>1424791.286254883</v>
+        <v>1425100.641330719</v>
       </c>
       <c r="G19" t="n">
         <v>1185213.791093153</v>
@@ -5828,16 +5895,16 @@
         <v>1397123</v>
       </c>
       <c r="C20" t="n">
-        <v>1300721.260496673</v>
+        <v>1300713.605451351</v>
       </c>
       <c r="D20" t="n">
-        <v>1356737.338238925</v>
+        <v>1350458.19350636</v>
       </c>
       <c r="E20" t="n">
-        <v>1436778.759128571</v>
+        <v>1446031.230991364</v>
       </c>
       <c r="F20" t="n">
-        <v>1433428.388942719</v>
+        <v>1378452.423416138</v>
       </c>
       <c r="G20" t="n">
         <v>1251740.739786566</v>
@@ -5851,16 +5918,16 @@
         <v>1258130</v>
       </c>
       <c r="C21" t="n">
-        <v>1229459.076172339</v>
+        <v>1229464.176577253</v>
       </c>
       <c r="D21" t="n">
-        <v>1289945.628144705</v>
+        <v>1295588.518718429</v>
       </c>
       <c r="E21" t="n">
-        <v>1381418.339179993</v>
+        <v>1403678.492313385</v>
       </c>
       <c r="F21" t="n">
-        <v>1380167.40970993</v>
+        <v>1361795.814533234</v>
       </c>
       <c r="G21" t="n">
         <v>1119951.472704615</v>
@@ -5874,16 +5941,16 @@
         <v>1174589</v>
       </c>
       <c r="C22" t="n">
-        <v>1187705.423309141</v>
+        <v>1187693.090833223</v>
       </c>
       <c r="D22" t="n">
-        <v>1265935.960629794</v>
+        <v>1283480.353389806</v>
       </c>
       <c r="E22" t="n">
-        <v>1337444.597335815</v>
+        <v>1377681.432514191</v>
       </c>
       <c r="F22" t="n">
-        <v>1425810.429412842</v>
+        <v>1434120.164802551</v>
       </c>
       <c r="G22" t="n">
         <v>1086084.886063207</v>
@@ -5897,16 +5964,16 @@
         <v>1304802</v>
       </c>
       <c r="C23" t="n">
-        <v>1325645.059484149</v>
+        <v>1325689.977555347</v>
       </c>
       <c r="D23" t="n">
-        <v>1347439.668699318</v>
+        <v>1356119.161566251</v>
       </c>
       <c r="E23" t="n">
-        <v>1401181.426948547</v>
+        <v>1403596.856273651</v>
       </c>
       <c r="F23" t="n">
-        <v>1354888.272544861</v>
+        <v>1385256.443546295</v>
       </c>
       <c r="G23" t="n">
         <v>1293921.43220102</v>
@@ -5920,16 +5987,16 @@
         <v>1229416</v>
       </c>
       <c r="C24" t="n">
-        <v>1277124.581600807</v>
+        <v>1277162.510307874</v>
       </c>
       <c r="D24" t="n">
-        <v>1321471.31351932</v>
+        <v>1332796.895983752</v>
       </c>
       <c r="E24" t="n">
-        <v>1420137.983570099</v>
+        <v>1385159.071022034</v>
       </c>
       <c r="F24" t="n">
-        <v>1342735.784473419</v>
+        <v>1418812.632633209</v>
       </c>
       <c r="G24" t="n">
         <v>1237975.525327319</v>
@@ -5943,16 +6010,16 @@
         <v>1341370</v>
       </c>
       <c r="C25" t="n">
-        <v>1334865.311143405</v>
+        <v>1334912.968781109</v>
       </c>
       <c r="D25" t="n">
-        <v>1354989.023616053</v>
+        <v>1355809.27049064</v>
       </c>
       <c r="E25" t="n">
-        <v>1399217.513679504</v>
+        <v>1399391.87392807</v>
       </c>
       <c r="F25" t="n">
-        <v>1371925.220153809</v>
+        <v>1369170.51222229</v>
       </c>
       <c r="G25" t="n">
         <v>1288152.296533135</v>
@@ -5966,16 +6033,16 @@
         <v>1389216</v>
       </c>
       <c r="C26" t="n">
-        <v>1365055.959569284</v>
+        <v>1365114.368985848</v>
       </c>
       <c r="D26" t="n">
-        <v>1366218.730822535</v>
+        <v>1363681.663452058</v>
       </c>
       <c r="E26" t="n">
-        <v>1372171.14509201</v>
+        <v>1386530.130393982</v>
       </c>
       <c r="F26" t="n">
-        <v>1367315.54384613</v>
+        <v>1339965.049537659</v>
       </c>
       <c r="G26" t="n">
         <v>1345349.531937454</v>
@@ -5989,16 +6056,16 @@
         <v>1382725</v>
       </c>
       <c r="C27" t="n">
-        <v>1384049.553415412</v>
+        <v>1384134.452831553</v>
       </c>
       <c r="D27" t="n">
-        <v>1407687.142152138</v>
+        <v>1391482.078456311</v>
       </c>
       <c r="E27" t="n">
-        <v>1415279.041347504</v>
+        <v>1399369.116550446</v>
       </c>
       <c r="F27" t="n">
-        <v>1462289.295246124</v>
+        <v>1398778.87733078</v>
       </c>
       <c r="G27" t="n">
         <v>1394103.343728571</v>
@@ -6012,16 +6079,16 @@
         <v>1287874</v>
       </c>
       <c r="C28" t="n">
-        <v>1341669.697289449</v>
+        <v>1341721.394330155</v>
       </c>
       <c r="D28" t="n">
-        <v>1351874.279738354</v>
+        <v>1347921.181207622</v>
       </c>
       <c r="E28" t="n">
-        <v>1367756.988552094</v>
+        <v>1367643.443763733</v>
       </c>
       <c r="F28" t="n">
-        <v>1365365.285003662</v>
+        <v>1344550.273769379</v>
       </c>
       <c r="G28" t="n">
         <v>1328508.473173762</v>
@@ -6035,16 +6102,16 @@
         <v>1206037</v>
       </c>
       <c r="C29" t="n">
-        <v>1219454.596186141</v>
+        <v>1219408.746428163</v>
       </c>
       <c r="D29" t="n">
-        <v>1275649.987287433</v>
+        <v>1280243.588349156</v>
       </c>
       <c r="E29" t="n">
-        <v>1389600.487995148</v>
+        <v>1367119.975658417</v>
       </c>
       <c r="F29" t="n">
-        <v>1348659.917228699</v>
+        <v>1373453.934890747</v>
       </c>
       <c r="G29" t="n">
         <v>1023926.285940476</v>
@@ -6058,16 +6125,16 @@
         <v>1304495</v>
       </c>
       <c r="C30" t="n">
-        <v>1288815.389729076</v>
+        <v>1288831.251020144</v>
       </c>
       <c r="D30" t="n">
-        <v>1323673.742075913</v>
+        <v>1318972.869665271</v>
       </c>
       <c r="E30" t="n">
-        <v>1367062.452754974</v>
+        <v>1363417.156639099</v>
       </c>
       <c r="F30" t="n">
-        <v>1388154.813476562</v>
+        <v>1358687.059909821</v>
       </c>
       <c r="G30" t="n">
         <v>1216861.580658962</v>
@@ -6081,16 +6148,16 @@
         <v>1250473</v>
       </c>
       <c r="C31" t="n">
-        <v>1264459.448087964</v>
+        <v>1264465.155332022</v>
       </c>
       <c r="D31" t="n">
-        <v>1303206.442773736</v>
+        <v>1307565.848257461</v>
       </c>
       <c r="E31" t="n">
-        <v>1347432.277755737</v>
+        <v>1374940.766368866</v>
       </c>
       <c r="F31" t="n">
-        <v>1381453.007865906</v>
+        <v>1357523.334774017</v>
       </c>
       <c r="G31" t="n">
         <v>1175423.021557123</v>
@@ -6104,16 +6171,16 @@
         <v>1306926</v>
       </c>
       <c r="C32" t="n">
-        <v>1299590.51871465</v>
+        <v>1299605.037835254</v>
       </c>
       <c r="D32" t="n">
-        <v>1318291.209252584</v>
+        <v>1311486.47310281</v>
       </c>
       <c r="E32" t="n">
-        <v>1347567.32100296</v>
+        <v>1326621.963256836</v>
       </c>
       <c r="F32" t="n">
-        <v>1352676.013339996</v>
+        <v>1337375.06628418</v>
       </c>
       <c r="G32" t="n">
         <v>1232758.849509601</v>
@@ -6127,16 +6194,16 @@
         <v>1218332</v>
       </c>
       <c r="C33" t="n">
-        <v>1234153.628508667</v>
+        <v>1234168.384238437</v>
       </c>
       <c r="D33" t="n">
-        <v>1281629.10763764</v>
+        <v>1276410.835165596</v>
       </c>
       <c r="E33" t="n">
-        <v>1346176.603130341</v>
+        <v>1322749.625984192</v>
       </c>
       <c r="F33" t="n">
-        <v>1366118.989982605</v>
+        <v>1350824.240680695</v>
       </c>
       <c r="G33" t="n">
         <v>1124110.560754169</v>
@@ -6150,16 +6217,16 @@
         <v>1119025</v>
       </c>
       <c r="C34" t="n">
-        <v>1195827.334499298</v>
+        <v>1195819.311660134</v>
       </c>
       <c r="D34" t="n">
-        <v>1255579.236820492</v>
+        <v>1264607.584355243</v>
       </c>
       <c r="E34" t="n">
-        <v>1328029.192333221</v>
+        <v>1351073.845535278</v>
       </c>
       <c r="F34" t="n">
-        <v>1377218.101989746</v>
+        <v>1370691.915546417</v>
       </c>
       <c r="G34" t="n">
         <v>1033665.542057467</v>
@@ -6173,16 +6240,16 @@
         <v>1326162</v>
       </c>
       <c r="C35" t="n">
-        <v>1322634.963193793</v>
+        <v>1322701.657594293</v>
       </c>
       <c r="D35" t="n">
-        <v>1339004.229924981</v>
+        <v>1337806.11532156</v>
       </c>
       <c r="E35" t="n">
-        <v>1361170.567687988</v>
+        <v>1383625.707969666</v>
       </c>
       <c r="F35" t="n">
-        <v>1370652.646965027</v>
+        <v>1335221.782581329</v>
       </c>
       <c r="G35" t="n">
         <v>1274214.417553417</v>
@@ -6196,16 +6263,16 @@
         <v>1233070</v>
       </c>
       <c r="C36" t="n">
-        <v>1278076.910193399</v>
+        <v>1278129.334521767</v>
       </c>
       <c r="D36" t="n">
-        <v>1307491.27337395</v>
+        <v>1314001.136667562</v>
       </c>
       <c r="E36" t="n">
-        <v>1361372.236789703</v>
+        <v>1374724.9102211</v>
       </c>
       <c r="F36" t="n">
-        <v>1344269.147525787</v>
+        <v>1349460.880081177</v>
       </c>
       <c r="G36" t="n">
         <v>1209955.11680719</v>
@@ -6219,16 +6286,16 @@
         <v>1363368</v>
       </c>
       <c r="C37" t="n">
-        <v>1331169.533304565</v>
+        <v>1331240.116757246</v>
       </c>
       <c r="D37" t="n">
-        <v>1343272.132199945</v>
+        <v>1341671.622459684</v>
       </c>
       <c r="E37" t="n">
-        <v>1362435.151584625</v>
+        <v>1356243.595432281</v>
       </c>
       <c r="F37" t="n">
-        <v>1367631.145095825</v>
+        <v>1362001.308811188</v>
       </c>
       <c r="G37" t="n">
         <v>1277736.564364634</v>
@@ -6242,16 +6309,16 @@
         <v>1401174</v>
       </c>
       <c r="C38" t="n">
-        <v>1358938.93916505</v>
+        <v>1359024.200062337</v>
       </c>
       <c r="D38" t="n">
-        <v>1349813.393714589</v>
+        <v>1363020.525301326</v>
       </c>
       <c r="E38" t="n">
-        <v>1345799.944320679</v>
+        <v>1364559.238056183</v>
       </c>
       <c r="F38" t="n">
-        <v>1336655.01317215</v>
+        <v>1377612.143562317</v>
       </c>
       <c r="G38" t="n">
         <v>1325970.472758589</v>
@@ -6265,16 +6332,16 @@
         <v>1418008</v>
       </c>
       <c r="C39" t="n">
-        <v>1376414.463224801</v>
+        <v>1376527.072349675</v>
       </c>
       <c r="D39" t="n">
-        <v>1361782.953074973</v>
+        <v>1369837.563020821</v>
       </c>
       <c r="E39" t="n">
-        <v>1332751.299770355</v>
+        <v>1377693.343822479</v>
       </c>
       <c r="F39" t="n">
-        <v>1353552.075538635</v>
+        <v>1345235.7550354</v>
       </c>
       <c r="G39" t="n">
         <v>1377496.923798338</v>
@@ -6288,16 +6355,16 @@
         <v>1112493</v>
       </c>
       <c r="C40" t="n">
-        <v>1337483.766384752</v>
+        <v>1337559.004536682</v>
       </c>
       <c r="D40" t="n">
-        <v>1339605.78514996</v>
+        <v>1332891.713813591</v>
       </c>
       <c r="E40" t="n">
-        <v>1334100.957523346</v>
+        <v>1347848.20514679</v>
       </c>
       <c r="F40" t="n">
-        <v>1360623.18012619</v>
+        <v>1313624.208076477</v>
       </c>
       <c r="G40" t="n">
         <v>1298556.431506388</v>
@@ -6311,16 +6378,16 @@
         <v>1023025</v>
       </c>
       <c r="C41" t="n">
-        <v>1225180.637818552</v>
+        <v>1225146.545748641</v>
       </c>
       <c r="D41" t="n">
-        <v>1261796.767005925</v>
+        <v>1258613.887909309</v>
       </c>
       <c r="E41" t="n">
-        <v>1330768.212200165</v>
+        <v>1350173.379680634</v>
       </c>
       <c r="F41" t="n">
-        <v>1331936.779331207</v>
+        <v>1281910.495018005</v>
       </c>
       <c r="G41" t="n">
         <v>1025558.01962978</v>
@@ -6334,16 +6401,16 @@
         <v>1298780</v>
       </c>
       <c r="C42" t="n">
-        <v>1288936.541472038</v>
+        <v>1288970.268512527</v>
       </c>
       <c r="D42" t="n">
-        <v>1312899.407126653</v>
+        <v>1305836.285118471</v>
       </c>
       <c r="E42" t="n">
-        <v>1348247.0887146</v>
+        <v>1336784.246025085</v>
       </c>
       <c r="F42" t="n">
-        <v>1361820.799228668</v>
+        <v>1332817.925624847</v>
       </c>
       <c r="G42" t="n">
         <v>1192743.532387379</v>
@@ -6357,16 +6424,16 @@
         <v>1310910</v>
       </c>
       <c r="C43" t="n">
-        <v>1266563.438327999</v>
+        <v>1266583.883700135</v>
       </c>
       <c r="D43" t="n">
-        <v>1281587.322364241</v>
+        <v>1292584.667156151</v>
       </c>
       <c r="E43" t="n">
-        <v>1291167.66361618</v>
+        <v>1330986.731445312</v>
       </c>
       <c r="F43" t="n">
-        <v>1338194.0897789</v>
+        <v>1336707.887760162</v>
       </c>
       <c r="G43" t="n">
         <v>1154905.927922475</v>
@@ -6380,16 +6447,16 @@
         <v>1371367</v>
       </c>
       <c r="C44" t="n">
-        <v>1298858.244852537</v>
+        <v>1298892.396265869</v>
       </c>
       <c r="D44" t="n">
-        <v>1305326.576586114</v>
+        <v>1306006.324100699</v>
       </c>
       <c r="E44" t="n">
-        <v>1304301.091503143</v>
+        <v>1309851.470645905</v>
       </c>
       <c r="F44" t="n">
-        <v>1343638.429225922</v>
+        <v>1335754.4504776</v>
       </c>
       <c r="G44" t="n">
         <v>1215353.98107534</v>
@@ -6403,16 +6470,16 @@
         <v>1186117</v>
       </c>
       <c r="C45" t="n">
-        <v>1238728.186568831</v>
+        <v>1238752.017503358</v>
       </c>
       <c r="D45" t="n">
-        <v>1276914.638911443</v>
+        <v>1267274.79946947</v>
       </c>
       <c r="E45" t="n">
-        <v>1333130.331157684</v>
+        <v>1317919.396793365</v>
       </c>
       <c r="F45" t="n">
-        <v>1351928.699794769</v>
+        <v>1310145.815536499</v>
       </c>
       <c r="G45" t="n">
         <v>1098758.388844196</v>
@@ -6426,16 +6493,16 @@
         <v>1154994</v>
       </c>
       <c r="C46" t="n">
-        <v>1203512.052041566</v>
+        <v>1203508.763440844</v>
       </c>
       <c r="D46" t="n">
-        <v>1253364.037584887</v>
+        <v>1253037.286103671</v>
       </c>
       <c r="E46" t="n">
-        <v>1346068.72347641</v>
+        <v>1313094.009597778</v>
       </c>
       <c r="F46" t="n">
-        <v>1328177.599487305</v>
+        <v>1343677.746227264</v>
       </c>
       <c r="G46" t="n">
         <v>1027210.786084658</v>
@@ -6449,16 +6516,16 @@
         <v>1374882</v>
       </c>
       <c r="C47" t="n">
-        <v>1320055.603145929</v>
+        <v>1320141.328026647</v>
       </c>
       <c r="D47" t="n">
-        <v>1318088.963972322</v>
+        <v>1317999.590002214</v>
       </c>
       <c r="E47" t="n">
-        <v>1323046.149772644</v>
+        <v>1330824.234085083</v>
       </c>
       <c r="F47" t="n">
-        <v>1322281.356624603</v>
+        <v>1312455.737785339</v>
       </c>
       <c r="G47" t="n">
         <v>1254207.869729331</v>
@@ -6472,16 +6539,16 @@
         <v>1359171</v>
       </c>
       <c r="C48" t="n">
-        <v>1279110.604431926</v>
+        <v>1279176.035402749</v>
       </c>
       <c r="D48" t="n">
-        <v>1299775.583302341</v>
+        <v>1314303.685207633</v>
       </c>
       <c r="E48" t="n">
-        <v>1330941.216690063</v>
+        <v>1365498.343032837</v>
       </c>
       <c r="F48" t="n">
-        <v>1344460.503177643</v>
+        <v>1363885.571258545</v>
       </c>
       <c r="G48" t="n">
         <v>1182018.131777767</v>
@@ -6495,16 +6562,16 @@
         <v>1432452</v>
       </c>
       <c r="C49" t="n">
-        <v>1327907.406898683</v>
+        <v>1327998.033586607</v>
       </c>
       <c r="D49" t="n">
-        <v>1327945.975978379</v>
+        <v>1336943.487644816</v>
       </c>
       <c r="E49" t="n">
-        <v>1317819.990631104</v>
+        <v>1365465.078525543</v>
       </c>
       <c r="F49" t="n">
-        <v>1353345.9518013</v>
+        <v>1340325.003463745</v>
       </c>
       <c r="G49" t="n">
         <v>1267417.578806915</v>
@@ -6518,16 +6585,16 @@
         <v>1511298</v>
       </c>
       <c r="C50" t="n">
-        <v>1353431.190941321</v>
+        <v>1353539.749298365</v>
       </c>
       <c r="D50" t="n">
-        <v>1342510.55548853</v>
+        <v>1345848.384671618</v>
       </c>
       <c r="E50" t="n">
-        <v>1337969.421199799</v>
+        <v>1347491.737457275</v>
       </c>
       <c r="F50" t="n">
-        <v>1328192.706512451</v>
+        <v>1335039.965660095</v>
       </c>
       <c r="G50" t="n">
         <v>1306510.995237141</v>
@@ -6541,16 +6608,16 @@
         <v>1557029</v>
       </c>
       <c r="C51" t="n">
-        <v>1369494.239536581</v>
+        <v>1369630.725431825</v>
       </c>
       <c r="D51" t="n">
-        <v>1352367.460427497</v>
+        <v>1351334.589832033</v>
       </c>
       <c r="E51" t="n">
-        <v>1329449.446376801</v>
+        <v>1341472.604755402</v>
       </c>
       <c r="F51" t="n">
-        <v>1332644.679035187</v>
+        <v>1319598.939682007</v>
       </c>
       <c r="G51" t="n">
         <v>1360770.220627289</v>
@@ -6564,16 +6631,16 @@
         <v>1458131</v>
       </c>
       <c r="C52" t="n">
-        <v>1333718.669981952</v>
+        <v>1333814.540136197</v>
       </c>
       <c r="D52" t="n">
-        <v>1332515.68594712</v>
+        <v>1331957.027678879</v>
       </c>
       <c r="E52" t="n">
-        <v>1323421.017044067</v>
+        <v>1336057.41411972</v>
       </c>
       <c r="F52" t="n">
-        <v>1354344.177539825</v>
+        <v>1336163.308555603</v>
       </c>
       <c r="G52" t="n">
         <v>1268806.66535849</v>
@@ -6587,16 +6654,16 @@
         <v>1270202</v>
       </c>
       <c r="C53" t="n">
-        <v>1230512.334281159</v>
+        <v>1230489.66621358</v>
       </c>
       <c r="D53" t="n">
-        <v>1260887.167294946</v>
+        <v>1262996.446573747</v>
       </c>
       <c r="E53" t="n">
-        <v>1297756.989677429</v>
+        <v>1308660.533496857</v>
       </c>
       <c r="F53" t="n">
-        <v>1350520.647579193</v>
+        <v>1333367.588924408</v>
       </c>
       <c r="G53" t="n">
         <v>1027361.254793307</v>
@@ -6610,16 +6677,16 @@
         <v>1417738</v>
       </c>
       <c r="C54" t="n">
-        <v>1289106.690707203</v>
+        <v>1289156.585893056</v>
       </c>
       <c r="D54" t="n">
-        <v>1302387.694002334</v>
+        <v>1298667.962323059</v>
       </c>
       <c r="E54" t="n">
-        <v>1318018.706115723</v>
+        <v>1324575.736068726</v>
       </c>
       <c r="F54" t="n">
-        <v>1349497.001365662</v>
+        <v>1318246.812511444</v>
       </c>
       <c r="G54" t="n">
         <v>1168330.067690833</v>
@@ -6633,16 +6700,16 @@
         <v>1397043</v>
       </c>
       <c r="C55" t="n">
-        <v>1268546.890254877</v>
+        <v>1268580.974985688</v>
       </c>
       <c r="D55" t="n">
-        <v>1284572.807553118</v>
+        <v>1294983.655540106</v>
       </c>
       <c r="E55" t="n">
-        <v>1312021.798171997</v>
+        <v>1327730.634906769</v>
       </c>
       <c r="F55" t="n">
-        <v>1329128.034732819</v>
+        <v>1350577.637863159</v>
       </c>
       <c r="G55" t="n">
         <v>1134395.641264266</v>
@@ -6656,16 +6723,16 @@
         <v>1404491</v>
       </c>
       <c r="C56" t="n">
-        <v>1298227.53320758</v>
+        <v>1298279.392764757</v>
       </c>
       <c r="D56" t="n">
-        <v>1297800.252262883</v>
+        <v>1301317.893048631</v>
       </c>
       <c r="E56" t="n">
-        <v>1307098.554252625</v>
+        <v>1296464.709568024</v>
       </c>
       <c r="F56" t="n">
-        <v>1309342.092746735</v>
+        <v>1333868.009132385</v>
       </c>
       <c r="G56" t="n">
         <v>1197907.962690411</v>
@@ -6679,16 +6746,16 @@
         <v>1314022</v>
       </c>
       <c r="C57" t="n">
-        <v>1242968.099929557</v>
+        <v>1243000.810751677</v>
       </c>
       <c r="D57" t="n">
-        <v>1261227.06280305</v>
+        <v>1255474.281488203</v>
       </c>
       <c r="E57" t="n">
-        <v>1306215.08380127</v>
+        <v>1286802.653327942</v>
       </c>
       <c r="F57" t="n">
-        <v>1300442.263397217</v>
+        <v>1286151.114448547</v>
       </c>
       <c r="G57" t="n">
         <v>1073597.589415986</v>
@@ -6702,16 +6769,16 @@
         <v>1220092</v>
       </c>
       <c r="C58" t="n">
-        <v>1210604.794455711</v>
+        <v>1210606.916439991</v>
       </c>
       <c r="D58" t="n">
-        <v>1232942.349084399</v>
+        <v>1258920.282869201</v>
       </c>
       <c r="E58" t="n">
-        <v>1279701.770469666</v>
+        <v>1336748.899459839</v>
       </c>
       <c r="F58" t="n">
-        <v>1286148.74187088</v>
+        <v>1330474.835708618</v>
       </c>
       <c r="G58" t="n">
         <v>1020915.769334494</v>
@@ -6725,16 +6792,16 @@
         <v>1492492</v>
       </c>
       <c r="C59" t="n">
-        <v>1317710.873216883</v>
+        <v>1317813.520877413</v>
       </c>
       <c r="D59" t="n">
-        <v>1310716.23937352</v>
+        <v>1314798.33286733</v>
       </c>
       <c r="E59" t="n">
-        <v>1304933.117141724</v>
+        <v>1314919.780742645</v>
       </c>
       <c r="F59" t="n">
-        <v>1317163.900276184</v>
+        <v>1324227.838710785</v>
       </c>
       <c r="G59" t="n">
         <v>1233903.252112702</v>
@@ -6748,16 +6815,16 @@
         <v>1415841</v>
       </c>
       <c r="C60" t="n">
-        <v>1280082.40709606</v>
+        <v>1280159.821593027</v>
       </c>
       <c r="D60" t="n">
-        <v>1286022.916483905</v>
+        <v>1290660.009736962</v>
       </c>
       <c r="E60" t="n">
-        <v>1311826.956283569</v>
+        <v>1322914.060142517</v>
       </c>
       <c r="F60" t="n">
-        <v>1302604.746891022</v>
+        <v>1306917.754150391</v>
       </c>
       <c r="G60" t="n">
         <v>1154174.745939109</v>
@@ -6771,16 +6838,16 @@
         <v>1514742</v>
       </c>
       <c r="C61" t="n">
-        <v>1324927.959925324</v>
+        <v>1325036.364098067</v>
       </c>
       <c r="D61" t="n">
-        <v>1312797.396132404</v>
+        <v>1326075.168141366</v>
       </c>
       <c r="E61" t="n">
-        <v>1328004.837097168</v>
+        <v>1330493.380550385</v>
       </c>
       <c r="F61" t="n">
-        <v>1277813.876525879</v>
+        <v>1337473.455627441</v>
       </c>
       <c r="G61" t="n">
         <v>1257188.948902153</v>
@@ -6794,16 +6861,16 @@
         <v>1519625</v>
       </c>
       <c r="C62" t="n">
-        <v>1348385.165193168</v>
+        <v>1348514.145890651</v>
       </c>
       <c r="D62" t="n">
-        <v>1332109.7807388</v>
+        <v>1318666.364804089</v>
       </c>
       <c r="E62" t="n">
-        <v>1305649.587177277</v>
+        <v>1277486.218708038</v>
       </c>
       <c r="F62" t="n">
-        <v>1330863.890026093</v>
+        <v>1302934.77728653</v>
       </c>
       <c r="G62" t="n">
         <v>1286970.432653716</v>
@@ -6817,16 +6884,16 @@
         <v>1555592</v>
       </c>
       <c r="C63" t="n">
-        <v>1363147.738587558</v>
+        <v>1363304.965235684</v>
       </c>
       <c r="D63" t="n">
-        <v>1342184.841067614</v>
+        <v>1346974.389422441</v>
       </c>
       <c r="E63" t="n">
-        <v>1330348.217533112</v>
+        <v>1351552.379924774</v>
       </c>
       <c r="F63" t="n">
-        <v>1301854.528148651</v>
+        <v>1306754.724170685</v>
       </c>
       <c r="G63" t="n">
         <v>1343925.596622388</v>
@@ -6840,16 +6907,16 @@
         <v>1463393</v>
       </c>
       <c r="C64" t="n">
-        <v>1330269.755700323</v>
+        <v>1330383.90203384</v>
       </c>
       <c r="D64" t="n">
-        <v>1324281.539937224</v>
+        <v>1313576.869987343</v>
       </c>
       <c r="E64" t="n">
-        <v>1330177.440361023</v>
+        <v>1318688.11195755</v>
       </c>
       <c r="F64" t="n">
-        <v>1322093.099849701</v>
+        <v>1286012.778644562</v>
       </c>
       <c r="G64" t="n">
         <v>1239269.370558317</v>
@@ -6863,16 +6930,16 @@
         <v>1261890</v>
       </c>
       <c r="C65" t="n">
-        <v>1235421.798298435</v>
+        <v>1235410.413338225</v>
       </c>
       <c r="D65" t="n">
-        <v>1262824.141253664</v>
+        <v>1252500.141355339</v>
       </c>
       <c r="E65" t="n">
-        <v>1310142.474559784</v>
+        <v>1289724.652194977</v>
       </c>
       <c r="F65" t="n">
-        <v>1333208.819900513</v>
+        <v>1295365.140869141</v>
       </c>
       <c r="G65" t="n">
         <v>1029318.46504969</v>
@@ -6886,16 +6953,16 @@
         <v>1467633</v>
       </c>
       <c r="C66" t="n">
-        <v>1289271.157577895</v>
+        <v>1289335.876783197</v>
       </c>
       <c r="D66" t="n">
-        <v>1288915.921828418</v>
+        <v>1284469.481407341</v>
       </c>
       <c r="E66" t="n">
-        <v>1300004.59544754</v>
+        <v>1288034.06955719</v>
       </c>
       <c r="F66" t="n">
-        <v>1309106.771778107</v>
+        <v>1298175.386486053</v>
       </c>
       <c r="G66" t="n">
         <v>1143623.824169531</v>
@@ -6909,16 +6976,16 @@
         <v>1370563</v>
       </c>
       <c r="C67" t="n">
-        <v>1270376.57735534</v>
+        <v>1270423.46079533</v>
       </c>
       <c r="D67" t="n">
-        <v>1284127.0681958</v>
+        <v>1278468.924298191</v>
       </c>
       <c r="E67" t="n">
-        <v>1325900.893325806</v>
+        <v>1284561.10005188</v>
       </c>
       <c r="F67" t="n">
-        <v>1311490.437614441</v>
+        <v>1322689.730503082</v>
       </c>
       <c r="G67" t="n">
         <v>1113896.738414168</v>
@@ -6932,16 +6999,16 @@
         <v>1504928</v>
       </c>
       <c r="C68" t="n">
-        <v>1297653.717843206</v>
+        <v>1297721.703324717</v>
       </c>
       <c r="D68" t="n">
-        <v>1286200.933542732</v>
+        <v>1303908.208964662</v>
       </c>
       <c r="E68" t="n">
-        <v>1272816.598499298</v>
+        <v>1338362.203853607</v>
       </c>
       <c r="F68" t="n">
-        <v>1296531.674362183</v>
+        <v>1305726.478061676</v>
       </c>
       <c r="G68" t="n">
         <v>1180423.6871076</v>
@@ -6955,16 +7022,16 @@
         <v>1364156</v>
       </c>
       <c r="C69" t="n">
-        <v>1246869.57870171</v>
+        <v>1246911.088967436</v>
       </c>
       <c r="D69" t="n">
-        <v>1242668.857347309</v>
+        <v>1254307.26455796</v>
       </c>
       <c r="E69" t="n">
-        <v>1254149.447933197</v>
+        <v>1283195.124774933</v>
       </c>
       <c r="F69" t="n">
-        <v>1263906.600959778</v>
+        <v>1281153.013282776</v>
       </c>
       <c r="G69" t="n">
         <v>1048634.420025666</v>
@@ -6978,16 +7045,16 @@
         <v>1285706</v>
       </c>
       <c r="C70" t="n">
-        <v>1217127.31639557</v>
+        <v>1217135.512446728</v>
       </c>
       <c r="D70" t="n">
-        <v>1234995.700654589</v>
+        <v>1248403.279915834</v>
       </c>
       <c r="E70" t="n">
-        <v>1282321.580413818</v>
+        <v>1317756.124713898</v>
       </c>
       <c r="F70" t="n">
-        <v>1278120.326404572</v>
+        <v>1290521.547771454</v>
       </c>
       <c r="G70" t="n">
         <v>1014767.83338422</v>
@@ -7035,12 +7102,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7057,16 +7124,16 @@
         <v>1365748</v>
       </c>
       <c r="C2" t="n">
-        <v>1382788.314088087</v>
+        <v>1382781.409753699</v>
       </c>
       <c r="D2" t="n">
-        <v>1410436.421887074</v>
+        <v>1418937.523476768</v>
       </c>
       <c r="E2" t="n">
-        <v>1431977.824008942</v>
+        <v>1467785.92824173</v>
       </c>
       <c r="F2" t="n">
-        <v>1463978.23160553</v>
+        <v>1455013.858459473</v>
       </c>
       <c r="G2" t="n">
         <v>1377828.047916109</v>
@@ -7080,16 +7147,16 @@
         <v>1441959</v>
       </c>
       <c r="C3" t="n">
-        <v>1404897.179280684</v>
+        <v>1404917.255988404</v>
       </c>
       <c r="D3" t="n">
-        <v>1428840.788063617</v>
+        <v>1436615.369388697</v>
       </c>
       <c r="E3" t="n">
-        <v>1442753.926513672</v>
+        <v>1473549.258335114</v>
       </c>
       <c r="F3" t="n">
-        <v>1473257.576541901</v>
+        <v>1468180.889793396</v>
       </c>
       <c r="G3" t="n">
         <v>1432087.273306251</v>
@@ -7103,19 +7170,19 @@
         <v>1373174</v>
       </c>
       <c r="C4" t="n">
-        <v>1353302.463356728</v>
+        <v>1353296.968879655</v>
       </c>
       <c r="D4" t="n">
-        <v>1392163.223492409</v>
+        <v>1397741.649437275</v>
       </c>
       <c r="E4" t="n">
-        <v>1439003.026481628</v>
+        <v>1438567.392169952</v>
       </c>
       <c r="F4" t="n">
-        <v>1450300.418193817</v>
+        <v>1463891.559890747</v>
       </c>
       <c r="G4" t="n">
-        <v>1340123.718037498</v>
+        <v>1340123.718037497</v>
       </c>
     </row>
     <row r="5">
@@ -7126,16 +7193,16 @@
         <v>1225273</v>
       </c>
       <c r="C5" t="n">
-        <v>1206427.255385631</v>
+        <v>1206360.856637617</v>
       </c>
       <c r="D5" t="n">
-        <v>1319041.77257336</v>
+        <v>1305718.686447338</v>
       </c>
       <c r="E5" t="n">
-        <v>1464351.791538239</v>
+        <v>1422878.552875519</v>
       </c>
       <c r="F5" t="n">
-        <v>1492839.089488983</v>
+        <v>1441806.97750473</v>
       </c>
       <c r="G5" t="n">
         <v>1098678.307472316</v>
@@ -7149,16 +7216,16 @@
         <v>1367566</v>
       </c>
       <c r="C6" t="n">
-        <v>1289190.866005405</v>
+        <v>1289166.021770413</v>
       </c>
       <c r="D6" t="n">
-        <v>1359552.495015839</v>
+        <v>1356738.219985148</v>
       </c>
       <c r="E6" t="n">
-        <v>1470585.182529449</v>
+        <v>1406863.072582245</v>
       </c>
       <c r="F6" t="n">
-        <v>1441368.389575958</v>
+        <v>1475884.746318817</v>
       </c>
       <c r="G6" t="n">
         <v>1239647.120369824</v>
@@ -7172,16 +7239,16 @@
         <v>1292767</v>
       </c>
       <c r="C7" t="n">
-        <v>1257715.005715149</v>
+        <v>1257683.641505286</v>
       </c>
       <c r="D7" t="n">
-        <v>1335606.118088288</v>
+        <v>1335979.34121594</v>
       </c>
       <c r="E7" t="n">
-        <v>1434027.973213196</v>
+        <v>1412760.768043518</v>
       </c>
       <c r="F7" t="n">
-        <v>1452953.492645264</v>
+        <v>1453117.152084351</v>
       </c>
       <c r="G7" t="n">
         <v>1205712.693943207</v>
@@ -7195,16 +7262,16 @@
         <v>1368676</v>
       </c>
       <c r="C8" t="n">
-        <v>1307177.260020926</v>
+        <v>1307159.161423223</v>
       </c>
       <c r="D8" t="n">
-        <v>1364302.592687009</v>
+        <v>1366723.569729521</v>
       </c>
       <c r="E8" t="n">
-        <v>1433135.78717041</v>
+        <v>1436244.977573395</v>
       </c>
       <c r="F8" t="n">
-        <v>1454073.542984009</v>
+        <v>1443734.914749146</v>
       </c>
       <c r="G8" t="n">
         <v>1269225.015369395</v>
@@ -7218,16 +7285,16 @@
         <v>1232680</v>
       </c>
       <c r="C9" t="n">
-        <v>1220500.933676911</v>
+        <v>1220488.476538344</v>
       </c>
       <c r="D9" t="n">
-        <v>1303784.950062556</v>
+        <v>1312726.001715995</v>
       </c>
       <c r="E9" t="n">
-        <v>1388424.803131104</v>
+        <v>1428026.029594421</v>
       </c>
       <c r="F9" t="n">
-        <v>1456934.484291077</v>
+        <v>1427244.967342377</v>
       </c>
       <c r="G9" t="n">
         <v>1144914.642095032</v>
@@ -7241,16 +7308,16 @@
         <v>1150017</v>
       </c>
       <c r="C10" t="n">
-        <v>1175819.653844161</v>
+        <v>1175799.278506254</v>
       </c>
       <c r="D10" t="n">
-        <v>1277633.890210166</v>
+        <v>1286772.665081039</v>
       </c>
       <c r="E10" t="n">
-        <v>1425969.779476166</v>
+        <v>1406248.090766907</v>
       </c>
       <c r="F10" t="n">
-        <v>1412576.191184998</v>
+        <v>1443490.006629944</v>
       </c>
       <c r="G10" t="n">
         <v>1092232.822013451</v>
@@ -7264,16 +7331,16 @@
         <v>1356672</v>
       </c>
       <c r="C11" t="n">
-        <v>1331963.258039293</v>
+        <v>1331987.453571501</v>
       </c>
       <c r="D11" t="n">
-        <v>1382713.106078515</v>
+        <v>1390355.589214734</v>
       </c>
       <c r="E11" t="n">
-        <v>1473577.92294693</v>
+        <v>1449585.255496979</v>
       </c>
       <c r="F11" t="n">
-        <v>1427576.837696075</v>
+        <v>1473170.517467499</v>
       </c>
       <c r="G11" t="n">
         <v>1305220.304791636</v>
@@ -7287,16 +7354,16 @@
         <v>1306233</v>
       </c>
       <c r="C12" t="n">
-        <v>1271993.245597132</v>
+        <v>1272006.094293493</v>
       </c>
       <c r="D12" t="n">
-        <v>1349974.907753587</v>
+        <v>1346481.592529004</v>
       </c>
       <c r="E12" t="n">
-        <v>1472516.46075058</v>
+        <v>1462926.017620087</v>
       </c>
       <c r="F12" t="n">
-        <v>1439289.721019745</v>
+        <v>1411281.63533783</v>
       </c>
       <c r="G12" t="n">
         <v>1225491.798618015</v>
@@ -7310,16 +7377,16 @@
         <v>1400779</v>
       </c>
       <c r="C13" t="n">
-        <v>1340893.624540553</v>
+        <v>1340917.962383393</v>
       </c>
       <c r="D13" t="n">
-        <v>1394277.042000052</v>
+        <v>1399870.718589679</v>
       </c>
       <c r="E13" t="n">
-        <v>1464382.973987579</v>
+        <v>1492167.359489441</v>
       </c>
       <c r="F13" t="n">
-        <v>1466369.160434723</v>
+        <v>1446146.809417725</v>
       </c>
       <c r="G13" t="n">
         <v>1328506.001581081</v>
@@ -7333,16 +7400,16 @@
         <v>1447188</v>
       </c>
       <c r="C14" t="n">
-        <v>1372390.122185133</v>
+        <v>1372416.632583388</v>
       </c>
       <c r="D14" t="n">
-        <v>1395489.959215167</v>
+        <v>1420831.250266582</v>
       </c>
       <c r="E14" t="n">
-        <v>1418384.987613678</v>
+        <v>1473017.94619751</v>
       </c>
       <c r="F14" t="n">
-        <v>1437035.675395966</v>
+        <v>1484664.348926544</v>
       </c>
       <c r="G14" t="n">
         <v>1358287.485332709</v>
@@ -7356,16 +7423,16 @@
         <v>1515810</v>
       </c>
       <c r="C15" t="n">
-        <v>1393172.563971852</v>
+        <v>1393225.83071857</v>
       </c>
       <c r="D15" t="n">
-        <v>1428871.406699032</v>
+        <v>1423350.874651055</v>
       </c>
       <c r="E15" t="n">
-        <v>1461189.581287384</v>
+        <v>1466847.597984314</v>
       </c>
       <c r="F15" t="n">
-        <v>1486391.34336853</v>
+        <v>1445207.849700928</v>
       </c>
       <c r="G15" t="n">
         <v>1415242.64930126</v>
@@ -7379,16 +7446,16 @@
         <v>1371694</v>
       </c>
       <c r="C16" t="n">
-        <v>1346859.0298874</v>
+        <v>1346883.59679675</v>
       </c>
       <c r="D16" t="n">
-        <v>1393012.849940191</v>
+        <v>1400600.935134333</v>
       </c>
       <c r="E16" t="n">
-        <v>1443015.684776306</v>
+        <v>1464652.043663025</v>
       </c>
       <c r="F16" t="n">
-        <v>1473119.724937439</v>
+        <v>1469034.291454315</v>
       </c>
       <c r="G16" t="n">
         <v>1310586.423237367</v>
@@ -7402,16 +7469,16 @@
         <v>1248898</v>
       </c>
       <c r="C17" t="n">
-        <v>1213775.116718794</v>
+        <v>1213716.956639699</v>
       </c>
       <c r="D17" t="n">
-        <v>1300193.888090041</v>
+        <v>1304943.514015802</v>
       </c>
       <c r="E17" t="n">
-        <v>1409401.682266235</v>
+        <v>1421472.6795578</v>
       </c>
       <c r="F17" t="n">
-        <v>1443165.011909485</v>
+        <v>1423240.879379272</v>
       </c>
       <c r="G17" t="n">
         <v>1100635.51772866</v>
@@ -7425,16 +7492,16 @@
         <v>1402365</v>
       </c>
       <c r="C18" t="n">
-        <v>1289147.65363195</v>
+        <v>1289143.409655113</v>
       </c>
       <c r="D18" t="n">
-        <v>1354862.396867736</v>
+        <v>1352372.174098197</v>
       </c>
       <c r="E18" t="n">
-        <v>1446754.673500061</v>
+        <v>1417073.339523315</v>
       </c>
       <c r="F18" t="n">
-        <v>1450942.708862305</v>
+        <v>1450565.081653595</v>
       </c>
       <c r="G18" t="n">
         <v>1214940.876848544</v>
@@ -7448,16 +7515,16 @@
         <v>1358981</v>
       </c>
       <c r="C19" t="n">
-        <v>1262564.192394297</v>
+        <v>1262553.582085946</v>
       </c>
       <c r="D19" t="n">
-        <v>1326415.573483421</v>
+        <v>1322422.295010196</v>
       </c>
       <c r="E19" t="n">
-        <v>1412301.020595551</v>
+        <v>1375872.608352661</v>
       </c>
       <c r="F19" t="n">
-        <v>1424791.286254883</v>
+        <v>1425100.641330719</v>
       </c>
       <c r="G19" t="n">
         <v>1185213.791093153</v>
@@ -7471,16 +7538,16 @@
         <v>1397123</v>
       </c>
       <c r="C20" t="n">
-        <v>1300721.260496673</v>
+        <v>1300713.605451351</v>
       </c>
       <c r="D20" t="n">
-        <v>1356737.338238925</v>
+        <v>1350458.19350636</v>
       </c>
       <c r="E20" t="n">
-        <v>1436778.759128571</v>
+        <v>1446031.230991364</v>
       </c>
       <c r="F20" t="n">
-        <v>1433428.388942719</v>
+        <v>1378452.423416138</v>
       </c>
       <c r="G20" t="n">
         <v>1251740.739786566</v>
@@ -7494,16 +7561,16 @@
         <v>1258130</v>
       </c>
       <c r="C21" t="n">
-        <v>1229459.076172339</v>
+        <v>1229464.176577253</v>
       </c>
       <c r="D21" t="n">
-        <v>1289945.628144705</v>
+        <v>1295588.518718429</v>
       </c>
       <c r="E21" t="n">
-        <v>1381418.339179993</v>
+        <v>1403678.492313385</v>
       </c>
       <c r="F21" t="n">
-        <v>1380167.40970993</v>
+        <v>1361795.814533234</v>
       </c>
       <c r="G21" t="n">
         <v>1119951.472704615</v>
@@ -7517,16 +7584,16 @@
         <v>1174589</v>
       </c>
       <c r="C22" t="n">
-        <v>1187705.423309141</v>
+        <v>1187693.090833223</v>
       </c>
       <c r="D22" t="n">
-        <v>1265935.960629794</v>
+        <v>1283480.353389806</v>
       </c>
       <c r="E22" t="n">
-        <v>1337444.597335815</v>
+        <v>1377681.432514191</v>
       </c>
       <c r="F22" t="n">
-        <v>1425810.429412842</v>
+        <v>1434120.164802551</v>
       </c>
       <c r="G22" t="n">
         <v>1086084.886063207</v>
@@ -7540,16 +7607,16 @@
         <v>1304802</v>
       </c>
       <c r="C23" t="n">
-        <v>1325645.059484149</v>
+        <v>1325689.977555347</v>
       </c>
       <c r="D23" t="n">
-        <v>1347439.668699318</v>
+        <v>1356119.161566251</v>
       </c>
       <c r="E23" t="n">
-        <v>1401181.426948547</v>
+        <v>1403596.856273651</v>
       </c>
       <c r="F23" t="n">
-        <v>1354888.272544861</v>
+        <v>1385256.443546295</v>
       </c>
       <c r="G23" t="n">
         <v>1293921.43220102</v>
@@ -7563,16 +7630,16 @@
         <v>1229416</v>
       </c>
       <c r="C24" t="n">
-        <v>1277124.581600807</v>
+        <v>1277162.510307874</v>
       </c>
       <c r="D24" t="n">
-        <v>1321471.31351932</v>
+        <v>1332796.895983752</v>
       </c>
       <c r="E24" t="n">
-        <v>1420137.983570099</v>
+        <v>1385159.071022034</v>
       </c>
       <c r="F24" t="n">
-        <v>1342735.784473419</v>
+        <v>1418812.632633209</v>
       </c>
       <c r="G24" t="n">
         <v>1237975.525327319</v>
@@ -7586,16 +7653,16 @@
         <v>1341370</v>
       </c>
       <c r="C25" t="n">
-        <v>1334865.311143405</v>
+        <v>1334912.968781109</v>
       </c>
       <c r="D25" t="n">
-        <v>1354989.023616053</v>
+        <v>1355809.27049064</v>
       </c>
       <c r="E25" t="n">
-        <v>1399217.513679504</v>
+        <v>1399391.87392807</v>
       </c>
       <c r="F25" t="n">
-        <v>1371925.220153809</v>
+        <v>1369170.51222229</v>
       </c>
       <c r="G25" t="n">
         <v>1288152.296533135</v>
@@ -7609,16 +7676,16 @@
         <v>1389216</v>
       </c>
       <c r="C26" t="n">
-        <v>1365055.959569284</v>
+        <v>1365114.368985848</v>
       </c>
       <c r="D26" t="n">
-        <v>1366218.730822535</v>
+        <v>1363681.663452058</v>
       </c>
       <c r="E26" t="n">
-        <v>1372171.14509201</v>
+        <v>1386530.130393982</v>
       </c>
       <c r="F26" t="n">
-        <v>1367315.54384613</v>
+        <v>1339965.049537659</v>
       </c>
       <c r="G26" t="n">
         <v>1345349.531937454</v>
@@ -7632,16 +7699,16 @@
         <v>1382725</v>
       </c>
       <c r="C27" t="n">
-        <v>1384049.553415412</v>
+        <v>1384134.452831553</v>
       </c>
       <c r="D27" t="n">
-        <v>1407687.142152138</v>
+        <v>1391482.078456311</v>
       </c>
       <c r="E27" t="n">
-        <v>1415279.041347504</v>
+        <v>1399369.116550446</v>
       </c>
       <c r="F27" t="n">
-        <v>1462289.295246124</v>
+        <v>1398778.87733078</v>
       </c>
       <c r="G27" t="n">
         <v>1394103.343728571</v>
@@ -7655,16 +7722,16 @@
         <v>1287874</v>
       </c>
       <c r="C28" t="n">
-        <v>1341669.697289449</v>
+        <v>1341721.394330155</v>
       </c>
       <c r="D28" t="n">
-        <v>1351874.279738354</v>
+        <v>1347921.181207622</v>
       </c>
       <c r="E28" t="n">
-        <v>1367756.988552094</v>
+        <v>1367643.443763733</v>
       </c>
       <c r="F28" t="n">
-        <v>1365365.285003662</v>
+        <v>1344550.273769379</v>
       </c>
       <c r="G28" t="n">
         <v>1328508.473173762</v>
@@ -7678,16 +7745,16 @@
         <v>1206037</v>
       </c>
       <c r="C29" t="n">
-        <v>1219454.596186141</v>
+        <v>1219408.746428163</v>
       </c>
       <c r="D29" t="n">
-        <v>1275649.987287433</v>
+        <v>1280243.588349156</v>
       </c>
       <c r="E29" t="n">
-        <v>1389600.487995148</v>
+        <v>1367119.975658417</v>
       </c>
       <c r="F29" t="n">
-        <v>1348659.917228699</v>
+        <v>1373453.934890747</v>
       </c>
       <c r="G29" t="n">
         <v>1023926.285940476</v>
@@ -7701,16 +7768,16 @@
         <v>1304495</v>
       </c>
       <c r="C30" t="n">
-        <v>1288815.389729076</v>
+        <v>1288831.251020144</v>
       </c>
       <c r="D30" t="n">
-        <v>1323673.742075913</v>
+        <v>1318972.869665271</v>
       </c>
       <c r="E30" t="n">
-        <v>1367062.452754974</v>
+        <v>1363417.156639099</v>
       </c>
       <c r="F30" t="n">
-        <v>1388154.813476562</v>
+        <v>1358687.059909821</v>
       </c>
       <c r="G30" t="n">
         <v>1216861.580658962</v>
@@ -7724,16 +7791,16 @@
         <v>1250473</v>
       </c>
       <c r="C31" t="n">
-        <v>1264459.448087964</v>
+        <v>1264465.155332022</v>
       </c>
       <c r="D31" t="n">
-        <v>1303206.442773736</v>
+        <v>1307565.848257461</v>
       </c>
       <c r="E31" t="n">
-        <v>1347432.277755737</v>
+        <v>1374940.766368866</v>
       </c>
       <c r="F31" t="n">
-        <v>1381453.007865906</v>
+        <v>1357523.334774017</v>
       </c>
       <c r="G31" t="n">
         <v>1175423.021557123</v>
@@ -7747,16 +7814,16 @@
         <v>1306926</v>
       </c>
       <c r="C32" t="n">
-        <v>1299590.51871465</v>
+        <v>1299605.037835254</v>
       </c>
       <c r="D32" t="n">
-        <v>1318291.209252584</v>
+        <v>1311486.47310281</v>
       </c>
       <c r="E32" t="n">
-        <v>1347567.32100296</v>
+        <v>1326621.963256836</v>
       </c>
       <c r="F32" t="n">
-        <v>1352676.013339996</v>
+        <v>1337375.06628418</v>
       </c>
       <c r="G32" t="n">
         <v>1232758.849509601</v>
@@ -7770,16 +7837,16 @@
         <v>1218332</v>
       </c>
       <c r="C33" t="n">
-        <v>1234153.628508667</v>
+        <v>1234168.384238437</v>
       </c>
       <c r="D33" t="n">
-        <v>1281629.10763764</v>
+        <v>1276410.835165596</v>
       </c>
       <c r="E33" t="n">
-        <v>1346176.603130341</v>
+        <v>1322749.625984192</v>
       </c>
       <c r="F33" t="n">
-        <v>1366118.989982605</v>
+        <v>1350824.240680695</v>
       </c>
       <c r="G33" t="n">
         <v>1124110.560754169</v>
@@ -7793,16 +7860,16 @@
         <v>1119025</v>
       </c>
       <c r="C34" t="n">
-        <v>1195827.334499298</v>
+        <v>1195819.311660134</v>
       </c>
       <c r="D34" t="n">
-        <v>1255579.236820492</v>
+        <v>1264607.584355243</v>
       </c>
       <c r="E34" t="n">
-        <v>1328029.192333221</v>
+        <v>1351073.845535278</v>
       </c>
       <c r="F34" t="n">
-        <v>1377218.101989746</v>
+        <v>1370691.915546417</v>
       </c>
       <c r="G34" t="n">
         <v>1033665.542057467</v>
@@ -7816,16 +7883,16 @@
         <v>1326162</v>
       </c>
       <c r="C35" t="n">
-        <v>1322634.963193793</v>
+        <v>1322701.657594293</v>
       </c>
       <c r="D35" t="n">
-        <v>1339004.229924981</v>
+        <v>1337806.11532156</v>
       </c>
       <c r="E35" t="n">
-        <v>1361170.567687988</v>
+        <v>1383625.707969666</v>
       </c>
       <c r="F35" t="n">
-        <v>1370652.646965027</v>
+        <v>1335221.782581329</v>
       </c>
       <c r="G35" t="n">
         <v>1274214.417553417</v>
@@ -7839,16 +7906,16 @@
         <v>1233070</v>
       </c>
       <c r="C36" t="n">
-        <v>1278076.910193399</v>
+        <v>1278129.334521767</v>
       </c>
       <c r="D36" t="n">
-        <v>1307491.27337395</v>
+        <v>1314001.136667562</v>
       </c>
       <c r="E36" t="n">
-        <v>1361372.236789703</v>
+        <v>1374724.9102211</v>
       </c>
       <c r="F36" t="n">
-        <v>1344269.147525787</v>
+        <v>1349460.880081177</v>
       </c>
       <c r="G36" t="n">
         <v>1209955.11680719</v>
@@ -7862,16 +7929,16 @@
         <v>1363368</v>
       </c>
       <c r="C37" t="n">
-        <v>1331169.533304565</v>
+        <v>1331240.116757246</v>
       </c>
       <c r="D37" t="n">
-        <v>1343272.132199945</v>
+        <v>1341671.622459684</v>
       </c>
       <c r="E37" t="n">
-        <v>1362435.151584625</v>
+        <v>1356243.595432281</v>
       </c>
       <c r="F37" t="n">
-        <v>1367631.145095825</v>
+        <v>1362001.308811188</v>
       </c>
       <c r="G37" t="n">
         <v>1277736.564364634</v>
@@ -7885,16 +7952,16 @@
         <v>1401174</v>
       </c>
       <c r="C38" t="n">
-        <v>1358938.93916505</v>
+        <v>1359024.200062337</v>
       </c>
       <c r="D38" t="n">
-        <v>1349813.393714589</v>
+        <v>1363020.525301326</v>
       </c>
       <c r="E38" t="n">
-        <v>1345799.944320679</v>
+        <v>1364559.238056183</v>
       </c>
       <c r="F38" t="n">
-        <v>1336655.01317215</v>
+        <v>1377612.143562317</v>
       </c>
       <c r="G38" t="n">
         <v>1325970.472758589</v>
@@ -7908,16 +7975,16 @@
         <v>1418008</v>
       </c>
       <c r="C39" t="n">
-        <v>1376414.463224801</v>
+        <v>1376527.072349675</v>
       </c>
       <c r="D39" t="n">
-        <v>1361782.953074973</v>
+        <v>1369837.563020821</v>
       </c>
       <c r="E39" t="n">
-        <v>1332751.299770355</v>
+        <v>1377693.343822479</v>
       </c>
       <c r="F39" t="n">
-        <v>1353552.075538635</v>
+        <v>1345235.7550354</v>
       </c>
       <c r="G39" t="n">
         <v>1377496.923798338</v>
@@ -7931,16 +7998,16 @@
         <v>1112493</v>
       </c>
       <c r="C40" t="n">
-        <v>1337483.766384752</v>
+        <v>1337559.004536682</v>
       </c>
       <c r="D40" t="n">
-        <v>1339605.78514996</v>
+        <v>1332891.713813591</v>
       </c>
       <c r="E40" t="n">
-        <v>1334100.957523346</v>
+        <v>1347848.20514679</v>
       </c>
       <c r="F40" t="n">
-        <v>1360623.18012619</v>
+        <v>1313624.208076477</v>
       </c>
       <c r="G40" t="n">
         <v>1298556.431506388</v>
@@ -7954,16 +8021,16 @@
         <v>1023025</v>
       </c>
       <c r="C41" t="n">
-        <v>1225180.637818552</v>
+        <v>1225146.545748641</v>
       </c>
       <c r="D41" t="n">
-        <v>1261796.767005925</v>
+        <v>1258613.887909309</v>
       </c>
       <c r="E41" t="n">
-        <v>1330768.212200165</v>
+        <v>1350173.379680634</v>
       </c>
       <c r="F41" t="n">
-        <v>1331936.779331207</v>
+        <v>1281910.495018005</v>
       </c>
       <c r="G41" t="n">
         <v>1025558.01962978</v>
@@ -7977,16 +8044,16 @@
         <v>1298780</v>
       </c>
       <c r="C42" t="n">
-        <v>1288936.541472038</v>
+        <v>1288970.268512527</v>
       </c>
       <c r="D42" t="n">
-        <v>1312899.407126653</v>
+        <v>1305836.285118471</v>
       </c>
       <c r="E42" t="n">
-        <v>1348247.0887146</v>
+        <v>1336784.246025085</v>
       </c>
       <c r="F42" t="n">
-        <v>1361820.799228668</v>
+        <v>1332817.925624847</v>
       </c>
       <c r="G42" t="n">
         <v>1192743.532387379</v>
@@ -8000,16 +8067,16 @@
         <v>1310910</v>
       </c>
       <c r="C43" t="n">
-        <v>1266563.438327999</v>
+        <v>1266583.883700135</v>
       </c>
       <c r="D43" t="n">
-        <v>1281587.322364241</v>
+        <v>1292584.667156151</v>
       </c>
       <c r="E43" t="n">
-        <v>1291167.66361618</v>
+        <v>1330986.731445312</v>
       </c>
       <c r="F43" t="n">
-        <v>1338194.0897789</v>
+        <v>1336707.887760162</v>
       </c>
       <c r="G43" t="n">
         <v>1154905.927922475</v>
@@ -8023,16 +8090,16 @@
         <v>1371367</v>
       </c>
       <c r="C44" t="n">
-        <v>1298858.244852537</v>
+        <v>1298892.396265869</v>
       </c>
       <c r="D44" t="n">
-        <v>1305326.576586114</v>
+        <v>1306006.324100699</v>
       </c>
       <c r="E44" t="n">
-        <v>1304301.091503143</v>
+        <v>1309851.470645905</v>
       </c>
       <c r="F44" t="n">
-        <v>1343638.429225922</v>
+        <v>1335754.4504776</v>
       </c>
       <c r="G44" t="n">
         <v>1215353.98107534</v>
@@ -8046,16 +8113,16 @@
         <v>1186117</v>
       </c>
       <c r="C45" t="n">
-        <v>1238728.186568831</v>
+        <v>1238752.017503358</v>
       </c>
       <c r="D45" t="n">
-        <v>1276914.638911443</v>
+        <v>1267274.79946947</v>
       </c>
       <c r="E45" t="n">
-        <v>1333130.331157684</v>
+        <v>1317919.396793365</v>
       </c>
       <c r="F45" t="n">
-        <v>1351928.699794769</v>
+        <v>1310145.815536499</v>
       </c>
       <c r="G45" t="n">
         <v>1098758.388844196</v>
@@ -8069,16 +8136,16 @@
         <v>1154994</v>
       </c>
       <c r="C46" t="n">
-        <v>1203512.052041566</v>
+        <v>1203508.763440844</v>
       </c>
       <c r="D46" t="n">
-        <v>1253364.037584887</v>
+        <v>1253037.286103671</v>
       </c>
       <c r="E46" t="n">
-        <v>1346068.72347641</v>
+        <v>1313094.009597778</v>
       </c>
       <c r="F46" t="n">
-        <v>1328177.599487305</v>
+        <v>1343677.746227264</v>
       </c>
       <c r="G46" t="n">
         <v>1027210.786084658</v>
@@ -8092,16 +8159,16 @@
         <v>1374882</v>
       </c>
       <c r="C47" t="n">
-        <v>1320055.603145929</v>
+        <v>1320141.328026647</v>
       </c>
       <c r="D47" t="n">
-        <v>1318088.963972322</v>
+        <v>1317999.590002214</v>
       </c>
       <c r="E47" t="n">
-        <v>1323046.149772644</v>
+        <v>1330824.234085083</v>
       </c>
       <c r="F47" t="n">
-        <v>1322281.356624603</v>
+        <v>1312455.737785339</v>
       </c>
       <c r="G47" t="n">
         <v>1254207.869729331</v>
@@ -8115,16 +8182,16 @@
         <v>1359171</v>
       </c>
       <c r="C48" t="n">
-        <v>1279110.604431926</v>
+        <v>1279176.035402749</v>
       </c>
       <c r="D48" t="n">
-        <v>1299775.583302341</v>
+        <v>1314303.685207633</v>
       </c>
       <c r="E48" t="n">
-        <v>1330941.216690063</v>
+        <v>1365498.343032837</v>
       </c>
       <c r="F48" t="n">
-        <v>1344460.503177643</v>
+        <v>1363885.571258545</v>
       </c>
       <c r="G48" t="n">
         <v>1182018.131777767</v>
@@ -8138,16 +8205,16 @@
         <v>1432452</v>
       </c>
       <c r="C49" t="n">
-        <v>1327907.406898683</v>
+        <v>1327998.033586607</v>
       </c>
       <c r="D49" t="n">
-        <v>1327945.975978379</v>
+        <v>1336943.487644816</v>
       </c>
       <c r="E49" t="n">
-        <v>1317819.990631104</v>
+        <v>1365465.078525543</v>
       </c>
       <c r="F49" t="n">
-        <v>1353345.9518013</v>
+        <v>1340325.003463745</v>
       </c>
       <c r="G49" t="n">
         <v>1267417.578806915</v>
@@ -8161,16 +8228,16 @@
         <v>1511298</v>
       </c>
       <c r="C50" t="n">
-        <v>1353431.190941321</v>
+        <v>1353539.749298365</v>
       </c>
       <c r="D50" t="n">
-        <v>1342510.55548853</v>
+        <v>1345848.384671618</v>
       </c>
       <c r="E50" t="n">
-        <v>1337969.421199799</v>
+        <v>1347491.737457275</v>
       </c>
       <c r="F50" t="n">
-        <v>1328192.706512451</v>
+        <v>1335039.965660095</v>
       </c>
       <c r="G50" t="n">
         <v>1306510.995237141</v>
@@ -8184,16 +8251,16 @@
         <v>1557029</v>
       </c>
       <c r="C51" t="n">
-        <v>1369494.239536581</v>
+        <v>1369630.725431825</v>
       </c>
       <c r="D51" t="n">
-        <v>1352367.460427497</v>
+        <v>1351334.589832033</v>
       </c>
       <c r="E51" t="n">
-        <v>1329449.446376801</v>
+        <v>1341472.604755402</v>
       </c>
       <c r="F51" t="n">
-        <v>1332644.679035187</v>
+        <v>1319598.939682007</v>
       </c>
       <c r="G51" t="n">
         <v>1360770.220627289</v>
@@ -8207,16 +8274,16 @@
         <v>1458131</v>
       </c>
       <c r="C52" t="n">
-        <v>1333718.669981952</v>
+        <v>1333814.540136197</v>
       </c>
       <c r="D52" t="n">
-        <v>1332515.68594712</v>
+        <v>1331957.027678879</v>
       </c>
       <c r="E52" t="n">
-        <v>1323421.017044067</v>
+        <v>1336057.41411972</v>
       </c>
       <c r="F52" t="n">
-        <v>1354344.177539825</v>
+        <v>1336163.308555603</v>
       </c>
       <c r="G52" t="n">
         <v>1268806.66535849</v>
@@ -8230,16 +8297,16 @@
         <v>1270202</v>
       </c>
       <c r="C53" t="n">
-        <v>1230512.334281159</v>
+        <v>1230489.66621358</v>
       </c>
       <c r="D53" t="n">
-        <v>1260887.167294946</v>
+        <v>1262996.446573747</v>
       </c>
       <c r="E53" t="n">
-        <v>1297756.989677429</v>
+        <v>1308660.533496857</v>
       </c>
       <c r="F53" t="n">
-        <v>1350520.647579193</v>
+        <v>1333367.588924408</v>
       </c>
       <c r="G53" t="n">
         <v>1027361.254793307</v>
@@ -8253,16 +8320,16 @@
         <v>1417738</v>
       </c>
       <c r="C54" t="n">
-        <v>1289106.690707203</v>
+        <v>1289156.585893056</v>
       </c>
       <c r="D54" t="n">
-        <v>1302387.694002334</v>
+        <v>1298667.962323059</v>
       </c>
       <c r="E54" t="n">
-        <v>1318018.706115723</v>
+        <v>1324575.736068726</v>
       </c>
       <c r="F54" t="n">
-        <v>1349497.001365662</v>
+        <v>1318246.812511444</v>
       </c>
       <c r="G54" t="n">
         <v>1168330.067690833</v>
@@ -8276,16 +8343,16 @@
         <v>1397043</v>
       </c>
       <c r="C55" t="n">
-        <v>1268546.890254877</v>
+        <v>1268580.974985688</v>
       </c>
       <c r="D55" t="n">
-        <v>1284572.807553118</v>
+        <v>1294983.655540106</v>
       </c>
       <c r="E55" t="n">
-        <v>1312021.798171997</v>
+        <v>1327730.634906769</v>
       </c>
       <c r="F55" t="n">
-        <v>1329128.034732819</v>
+        <v>1350577.637863159</v>
       </c>
       <c r="G55" t="n">
         <v>1134395.641264266</v>
@@ -8299,16 +8366,16 @@
         <v>1404491</v>
       </c>
       <c r="C56" t="n">
-        <v>1298227.53320758</v>
+        <v>1298279.392764757</v>
       </c>
       <c r="D56" t="n">
-        <v>1297800.252262883</v>
+        <v>1301317.893048631</v>
       </c>
       <c r="E56" t="n">
-        <v>1307098.554252625</v>
+        <v>1296464.709568024</v>
       </c>
       <c r="F56" t="n">
-        <v>1309342.092746735</v>
+        <v>1333868.009132385</v>
       </c>
       <c r="G56" t="n">
         <v>1197907.962690411</v>
@@ -8322,16 +8389,16 @@
         <v>1314022</v>
       </c>
       <c r="C57" t="n">
-        <v>1242968.099929557</v>
+        <v>1243000.810751677</v>
       </c>
       <c r="D57" t="n">
-        <v>1261227.06280305</v>
+        <v>1255474.281488203</v>
       </c>
       <c r="E57" t="n">
-        <v>1306215.08380127</v>
+        <v>1286802.653327942</v>
       </c>
       <c r="F57" t="n">
-        <v>1300442.263397217</v>
+        <v>1286151.114448547</v>
       </c>
       <c r="G57" t="n">
         <v>1073597.589415986</v>
@@ -8345,16 +8412,16 @@
         <v>1220092</v>
       </c>
       <c r="C58" t="n">
-        <v>1210604.794455711</v>
+        <v>1210606.916439991</v>
       </c>
       <c r="D58" t="n">
-        <v>1232942.349084399</v>
+        <v>1258920.282869201</v>
       </c>
       <c r="E58" t="n">
-        <v>1279701.770469666</v>
+        <v>1336748.899459839</v>
       </c>
       <c r="F58" t="n">
-        <v>1286148.74187088</v>
+        <v>1330474.835708618</v>
       </c>
       <c r="G58" t="n">
         <v>1020915.769334494</v>
@@ -8368,16 +8435,16 @@
         <v>1492492</v>
       </c>
       <c r="C59" t="n">
-        <v>1317710.873216883</v>
+        <v>1317813.520877413</v>
       </c>
       <c r="D59" t="n">
-        <v>1310716.23937352</v>
+        <v>1314798.33286733</v>
       </c>
       <c r="E59" t="n">
-        <v>1304933.117141724</v>
+        <v>1314919.780742645</v>
       </c>
       <c r="F59" t="n">
-        <v>1317163.900276184</v>
+        <v>1324227.838710785</v>
       </c>
       <c r="G59" t="n">
         <v>1233903.252112702</v>
@@ -8391,16 +8458,16 @@
         <v>1415841</v>
       </c>
       <c r="C60" t="n">
-        <v>1280082.40709606</v>
+        <v>1280159.821593027</v>
       </c>
       <c r="D60" t="n">
-        <v>1286022.916483905</v>
+        <v>1290660.009736962</v>
       </c>
       <c r="E60" t="n">
-        <v>1311826.956283569</v>
+        <v>1322914.060142517</v>
       </c>
       <c r="F60" t="n">
-        <v>1302604.746891022</v>
+        <v>1306917.754150391</v>
       </c>
       <c r="G60" t="n">
         <v>1154174.745939109</v>
@@ -8414,16 +8481,16 @@
         <v>1514742</v>
       </c>
       <c r="C61" t="n">
-        <v>1324927.959925324</v>
+        <v>1325036.364098067</v>
       </c>
       <c r="D61" t="n">
-        <v>1312797.396132404</v>
+        <v>1326075.168141366</v>
       </c>
       <c r="E61" t="n">
-        <v>1328004.837097168</v>
+        <v>1330493.380550385</v>
       </c>
       <c r="F61" t="n">
-        <v>1277813.876525879</v>
+        <v>1337473.455627441</v>
       </c>
       <c r="G61" t="n">
         <v>1257188.948902153</v>
@@ -8437,16 +8504,16 @@
         <v>1519625</v>
       </c>
       <c r="C62" t="n">
-        <v>1348385.165193168</v>
+        <v>1348514.145890651</v>
       </c>
       <c r="D62" t="n">
-        <v>1332109.7807388</v>
+        <v>1318666.364804089</v>
       </c>
       <c r="E62" t="n">
-        <v>1305649.587177277</v>
+        <v>1277486.218708038</v>
       </c>
       <c r="F62" t="n">
-        <v>1330863.890026093</v>
+        <v>1302934.77728653</v>
       </c>
       <c r="G62" t="n">
         <v>1286970.432653716</v>
@@ -8460,16 +8527,16 @@
         <v>1555592</v>
       </c>
       <c r="C63" t="n">
-        <v>1363147.738587558</v>
+        <v>1363304.965235684</v>
       </c>
       <c r="D63" t="n">
-        <v>1342184.841067614</v>
+        <v>1346974.389422441</v>
       </c>
       <c r="E63" t="n">
-        <v>1330348.217533112</v>
+        <v>1351552.379924774</v>
       </c>
       <c r="F63" t="n">
-        <v>1301854.528148651</v>
+        <v>1306754.724170685</v>
       </c>
       <c r="G63" t="n">
         <v>1343925.596622388</v>
@@ -8483,16 +8550,16 @@
         <v>1463393</v>
       </c>
       <c r="C64" t="n">
-        <v>1330269.755700323</v>
+        <v>1330383.90203384</v>
       </c>
       <c r="D64" t="n">
-        <v>1324281.539937224</v>
+        <v>1313576.869987343</v>
       </c>
       <c r="E64" t="n">
-        <v>1330177.440361023</v>
+        <v>1318688.11195755</v>
       </c>
       <c r="F64" t="n">
-        <v>1322093.099849701</v>
+        <v>1286012.778644562</v>
       </c>
       <c r="G64" t="n">
         <v>1239269.370558317</v>
@@ -8506,16 +8573,16 @@
         <v>1261890</v>
       </c>
       <c r="C65" t="n">
-        <v>1235421.798298435</v>
+        <v>1235410.413338225</v>
       </c>
       <c r="D65" t="n">
-        <v>1262824.141253664</v>
+        <v>1252500.141355339</v>
       </c>
       <c r="E65" t="n">
-        <v>1310142.474559784</v>
+        <v>1289724.652194977</v>
       </c>
       <c r="F65" t="n">
-        <v>1333208.819900513</v>
+        <v>1295365.140869141</v>
       </c>
       <c r="G65" t="n">
         <v>1029318.46504969</v>
@@ -8529,16 +8596,16 @@
         <v>1467633</v>
       </c>
       <c r="C66" t="n">
-        <v>1289271.157577895</v>
+        <v>1289335.876783197</v>
       </c>
       <c r="D66" t="n">
-        <v>1288915.921828418</v>
+        <v>1284469.481407341</v>
       </c>
       <c r="E66" t="n">
-        <v>1300004.59544754</v>
+        <v>1288034.06955719</v>
       </c>
       <c r="F66" t="n">
-        <v>1309106.771778107</v>
+        <v>1298175.386486053</v>
       </c>
       <c r="G66" t="n">
         <v>1143623.824169531</v>
@@ -8552,16 +8619,16 @@
         <v>1370563</v>
       </c>
       <c r="C67" t="n">
-        <v>1270376.57735534</v>
+        <v>1270423.46079533</v>
       </c>
       <c r="D67" t="n">
-        <v>1284127.0681958</v>
+        <v>1278468.924298191</v>
       </c>
       <c r="E67" t="n">
-        <v>1325900.893325806</v>
+        <v>1284561.10005188</v>
       </c>
       <c r="F67" t="n">
-        <v>1311490.437614441</v>
+        <v>1322689.730503082</v>
       </c>
       <c r="G67" t="n">
         <v>1113896.738414168</v>
@@ -8575,16 +8642,16 @@
         <v>1504928</v>
       </c>
       <c r="C68" t="n">
-        <v>1297653.717843206</v>
+        <v>1297721.703324717</v>
       </c>
       <c r="D68" t="n">
-        <v>1286200.933542732</v>
+        <v>1303908.208964662</v>
       </c>
       <c r="E68" t="n">
-        <v>1272816.598499298</v>
+        <v>1338362.203853607</v>
       </c>
       <c r="F68" t="n">
-        <v>1296531.674362183</v>
+        <v>1305726.478061676</v>
       </c>
       <c r="G68" t="n">
         <v>1180423.6871076</v>
@@ -8598,16 +8665,16 @@
         <v>1364156</v>
       </c>
       <c r="C69" t="n">
-        <v>1246869.57870171</v>
+        <v>1246911.088967436</v>
       </c>
       <c r="D69" t="n">
-        <v>1242668.857347309</v>
+        <v>1254307.26455796</v>
       </c>
       <c r="E69" t="n">
-        <v>1254149.447933197</v>
+        <v>1283195.124774933</v>
       </c>
       <c r="F69" t="n">
-        <v>1263906.600959778</v>
+        <v>1281153.013282776</v>
       </c>
       <c r="G69" t="n">
         <v>1048634.420025666</v>
@@ -8621,16 +8688,16 @@
         <v>1285706</v>
       </c>
       <c r="C70" t="n">
-        <v>1217127.31639557</v>
+        <v>1217135.512446728</v>
       </c>
       <c r="D70" t="n">
-        <v>1234995.700654589</v>
+        <v>1248403.279915834</v>
       </c>
       <c r="E70" t="n">
-        <v>1282321.580413818</v>
+        <v>1317756.124713898</v>
       </c>
       <c r="F70" t="n">
-        <v>1278120.326404572</v>
+        <v>1290521.547771454</v>
       </c>
       <c r="G70" t="n">
         <v>1014767.83338422</v>
@@ -8673,12 +8740,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -8692,16 +8759,16 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>1461955.905962696</v>
+        <v>1461956.016518393</v>
       </c>
       <c r="C2" t="n">
-        <v>1421118.651567191</v>
+        <v>1415013.29082404</v>
       </c>
       <c r="D2" t="n">
-        <v>1362914.121753693</v>
+        <v>1369413.241443634</v>
       </c>
       <c r="E2" t="n">
-        <v>1372283.140441895</v>
+        <v>1349696.733669281</v>
       </c>
       <c r="F2" t="n">
         <v>1466274.626851014</v>
@@ -8712,16 +8779,16 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>1408948.195172029</v>
+        <v>1408948.284395932</v>
       </c>
       <c r="C3" t="n">
-        <v>1388304.517692638</v>
+        <v>1378805.567087656</v>
       </c>
       <c r="D3" t="n">
-        <v>1367423.132980347</v>
+        <v>1357821.020641327</v>
       </c>
       <c r="E3" t="n">
-        <v>1355128.435508728</v>
+        <v>1329120.190700531</v>
       </c>
       <c r="F3" t="n">
         <v>1406459.506398476</v>
@@ -8732,16 +8799,16 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>1483205.86171466</v>
+        <v>1483206.192771547</v>
       </c>
       <c r="C4" t="n">
-        <v>1431696.838672712</v>
+        <v>1425469.616692702</v>
       </c>
       <c r="D4" t="n">
-        <v>1358262.562187195</v>
+        <v>1363067.516162872</v>
       </c>
       <c r="E4" t="n">
-        <v>1372914.536621094</v>
+        <v>1354231.988510132</v>
       </c>
       <c r="F4" t="n">
         <v>1476542.642662393</v>
@@ -8752,16 +8819,16 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>1509709.837100313</v>
+        <v>1509710.30509284</v>
       </c>
       <c r="C5" t="n">
-        <v>1444417.562678583</v>
+        <v>1436785.900231455</v>
       </c>
       <c r="D5" t="n">
-        <v>1355717.125289917</v>
+        <v>1357777.442684174</v>
       </c>
       <c r="E5" t="n">
-        <v>1356505.208435059</v>
+        <v>1339645.913631439</v>
       </c>
       <c r="F5" t="n">
         <v>1538074.174295384</v>
@@ -8772,16 +8839,16 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>1537255.878886186</v>
+        <v>1537256.542083192</v>
       </c>
       <c r="C6" t="n">
-        <v>1460651.638860852</v>
+        <v>1454833.706767962</v>
       </c>
       <c r="D6" t="n">
-        <v>1353380.475227356</v>
+        <v>1361581.701503754</v>
       </c>
       <c r="E6" t="n">
-        <v>1358737.658760071</v>
+        <v>1346941.202598572</v>
       </c>
       <c r="F6" t="n">
         <v>1580759.437709347</v>
@@ -8792,16 +8859,16 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>1449347.775817401</v>
+        <v>1449348.415932925</v>
       </c>
       <c r="C7" t="n">
-        <v>1408217.868371581</v>
+        <v>1403543.837328327</v>
       </c>
       <c r="D7" t="n">
-        <v>1341657.811073303</v>
+        <v>1350120.214572906</v>
       </c>
       <c r="E7" t="n">
-        <v>1358325.943904877</v>
+        <v>1340920.326778412</v>
       </c>
       <c r="F7" t="n">
         <v>1495308.480243898</v>
@@ -8812,16 +8879,16 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>1316628.38499413</v>
+        <v>1316628.418797399</v>
       </c>
       <c r="C8" t="n">
-        <v>1332300.532807594</v>
+        <v>1326849.167910261</v>
       </c>
       <c r="D8" t="n">
-        <v>1364806.373493195</v>
+        <v>1348889.137283325</v>
       </c>
       <c r="E8" t="n">
-        <v>1355285.31615448</v>
+        <v>1341942.133033752</v>
       </c>
       <c r="F8" t="n">
         <v>1247196.584143331</v>
@@ -8832,16 +8899,16 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>1448484.58324605</v>
+        <v>1448484.863561966</v>
       </c>
       <c r="C9" t="n">
-        <v>1405730.58752032</v>
+        <v>1401219.533094939</v>
       </c>
       <c r="D9" t="n">
-        <v>1342629.212158203</v>
+        <v>1343563.910919189</v>
       </c>
       <c r="E9" t="n">
-        <v>1361900.353210449</v>
+        <v>1352103.350563049</v>
       </c>
       <c r="F9" t="n">
         <v>1431880.280552339</v>
@@ -8852,16 +8919,16 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>1406238.420533782</v>
+        <v>1406238.619143981</v>
       </c>
       <c r="C10" t="n">
-        <v>1380247.37290965</v>
+        <v>1376558.063762681</v>
       </c>
       <c r="D10" t="n">
-        <v>1345193.339157104</v>
+        <v>1345080.956447601</v>
       </c>
       <c r="E10" t="n">
-        <v>1349620.133304596</v>
+        <v>1340392.50087738</v>
       </c>
       <c r="F10" t="n">
         <v>1397351.652247004</v>
@@ -8872,16 +8939,16 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>1465472.733423681</v>
+        <v>1465473.050477547</v>
       </c>
       <c r="C11" t="n">
-        <v>1412097.79019077</v>
+        <v>1411752.511337451</v>
       </c>
       <c r="D11" t="n">
-        <v>1343095.980499268</v>
+        <v>1353319.223987579</v>
       </c>
       <c r="E11" t="n">
-        <v>1344864.809780121</v>
+        <v>1347414.265533447</v>
       </c>
       <c r="F11" t="n">
         <v>1451533.375801868</v>
@@ -8892,16 +8959,16 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>1369424.493358441</v>
+        <v>1369424.794226767</v>
       </c>
       <c r="C12" t="n">
-        <v>1359651.391761511</v>
+        <v>1357538.676099335</v>
       </c>
       <c r="D12" t="n">
-        <v>1350423.420314789</v>
+        <v>1359123.759460449</v>
       </c>
       <c r="E12" t="n">
-        <v>1347847.382007599</v>
+        <v>1331556.682704926</v>
       </c>
       <c r="F12" t="n">
         <v>1348134.609319234</v>
@@ -8912,16 +8979,16 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>1312242.839669333</v>
+        <v>1312243.039703819</v>
       </c>
       <c r="C13" t="n">
-        <v>1324774.237850247</v>
+        <v>1322346.528676137</v>
       </c>
       <c r="D13" t="n">
-        <v>1349658.627166748</v>
+        <v>1344128.293884277</v>
       </c>
       <c r="E13" t="n">
-        <v>1342853.832317352</v>
+        <v>1333308.710262299</v>
       </c>
       <c r="F13" t="n">
         <v>1263397.912703778</v>
@@ -8932,16 +8999,16 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>1467383.489376868</v>
+        <v>1467384.137535612</v>
       </c>
       <c r="C14" t="n">
-        <v>1412927.299468855</v>
+        <v>1411543.730346492</v>
       </c>
       <c r="D14" t="n">
-        <v>1331379.659358978</v>
+        <v>1351022.229866028</v>
       </c>
       <c r="E14" t="n">
-        <v>1347778.238315582</v>
+        <v>1336533.091732025</v>
       </c>
       <c r="F14" t="n">
         <v>1492355.564453505</v>
@@ -8952,16 +9019,16 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>1420778.967975877</v>
+        <v>1420779.477977416</v>
       </c>
       <c r="C15" t="n">
-        <v>1387335.905889364</v>
+        <v>1380534.473639653</v>
       </c>
       <c r="D15" t="n">
-        <v>1341646.287124634</v>
+        <v>1343187.784729004</v>
       </c>
       <c r="E15" t="n">
-        <v>1343853.074874878</v>
+        <v>1321609.19084549</v>
       </c>
       <c r="F15" t="n">
         <v>1429849.812231069</v>
@@ -8972,16 +9039,16 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>1488401.873626795</v>
+        <v>1488402.597060649</v>
       </c>
       <c r="C16" t="n">
-        <v>1424618.034358586</v>
+        <v>1418572.842767292</v>
       </c>
       <c r="D16" t="n">
-        <v>1336095.569042206</v>
+        <v>1338608.903511047</v>
       </c>
       <c r="E16" t="n">
-        <v>1342265.771995544</v>
+        <v>1331258.948417664</v>
       </c>
       <c r="F16" t="n">
         <v>1509897.022441767</v>
@@ -8992,16 +9059,16 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>1517138.453160465</v>
+        <v>1517139.355553404</v>
       </c>
       <c r="C17" t="n">
-        <v>1443884.120300201</v>
+        <v>1432867.971418972</v>
       </c>
       <c r="D17" t="n">
-        <v>1337835.297931671</v>
+        <v>1336538.66002655</v>
       </c>
       <c r="E17" t="n">
-        <v>1349743.313663483</v>
+        <v>1323684.131065369</v>
       </c>
       <c r="F17" t="n">
         <v>1561204.14765759</v>
@@ -9012,16 +9079,16 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>1542658.837589464</v>
+        <v>1542659.922923123</v>
       </c>
       <c r="C18" t="n">
-        <v>1459124.678349207</v>
+        <v>1452924.248268129</v>
       </c>
       <c r="D18" t="n">
-        <v>1346191.952255249</v>
+        <v>1342238.463142395</v>
       </c>
       <c r="E18" t="n">
-        <v>1339092.764095306</v>
+        <v>1341363.90196228</v>
       </c>
       <c r="F18" t="n">
         <v>1609047.043795534</v>
@@ -9032,16 +9099,16 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>1459578.093608506</v>
+        <v>1459579.039198957</v>
       </c>
       <c r="C19" t="n">
-        <v>1413101.514808512</v>
+        <v>1404992.614727314</v>
       </c>
       <c r="D19" t="n">
-        <v>1353284.458461761</v>
+        <v>1343135.200660706</v>
       </c>
       <c r="E19" t="n">
-        <v>1338533.126285553</v>
+        <v>1328189.752895355</v>
       </c>
       <c r="F19" t="n">
         <v>1515622.015667904</v>
@@ -9052,16 +9119,16 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>1340671.039099967</v>
+        <v>1340671.260644272</v>
       </c>
       <c r="C20" t="n">
-        <v>1341658.492867745</v>
+        <v>1335972.838137489</v>
       </c>
       <c r="D20" t="n">
-        <v>1356058.098594666</v>
+        <v>1344647.016834259</v>
       </c>
       <c r="E20" t="n">
-        <v>1340762.090373993</v>
+        <v>1326334.203479767</v>
       </c>
       <c r="F20" t="n">
         <v>1286483.763960752</v>
@@ -9072,16 +9139,16 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>1457273.402627488</v>
+        <v>1457273.876666622</v>
       </c>
       <c r="C21" t="n">
-        <v>1411742.912295104</v>
+        <v>1398827.815059484</v>
       </c>
       <c r="D21" t="n">
-        <v>1351684.614814758</v>
+        <v>1332120.968830109</v>
       </c>
       <c r="E21" t="n">
-        <v>1352999.797561646</v>
+        <v>1329124.790596008</v>
       </c>
       <c r="F21" t="n">
         <v>1457230.171840306</v>
@@ -9092,16 +9159,16 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>1423990.119612573</v>
+        <v>1423990.540313727</v>
       </c>
       <c r="C22" t="n">
-        <v>1383130.852836887</v>
+        <v>1384554.615674922</v>
       </c>
       <c r="D22" t="n">
-        <v>1341008.838451385</v>
+        <v>1337961.96452713</v>
       </c>
       <c r="E22" t="n">
-        <v>1317837.421813965</v>
+        <v>1339733.941104889</v>
       </c>
       <c r="F22" t="n">
         <v>1421304.042586561</v>
@@ -9112,16 +9179,16 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>1470451.287855354</v>
+        <v>1470451.736049701</v>
       </c>
       <c r="C23" t="n">
-        <v>1410838.71231638</v>
+        <v>1410033.699238089</v>
       </c>
       <c r="D23" t="n">
-        <v>1331751.86353302</v>
+        <v>1346470.415401459</v>
       </c>
       <c r="E23" t="n">
-        <v>1331762.17698288</v>
+        <v>1329940.085754395</v>
       </c>
       <c r="F23" t="n">
         <v>1481980.969156709</v>
@@ -9132,16 +9199,16 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>1384619.876236732</v>
+        <v>1384620.274684009</v>
       </c>
       <c r="C24" t="n">
-        <v>1362348.249261189</v>
+        <v>1361957.281628178</v>
       </c>
       <c r="D24" t="n">
-        <v>1337420.338939667</v>
+        <v>1342100.272598267</v>
       </c>
       <c r="E24" t="n">
-        <v>1332241.195571899</v>
+        <v>1331693.275390625</v>
       </c>
       <c r="F24" t="n">
         <v>1368939.341189105</v>
@@ -9152,16 +9219,16 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>1332142.508748576</v>
+        <v>1332142.748793587</v>
       </c>
       <c r="C25" t="n">
-        <v>1333437.431822571</v>
+        <v>1333365.981634081</v>
       </c>
       <c r="D25" t="n">
-        <v>1338776.291286469</v>
+        <v>1342099.013679504</v>
       </c>
       <c r="E25" t="n">
-        <v>1339309.685482025</v>
+        <v>1334222.588443756</v>
       </c>
       <c r="F25" t="n">
         <v>1296296.98752558</v>
@@ -9172,16 +9239,16 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>1479078.987544222</v>
+        <v>1479079.855781822</v>
       </c>
       <c r="C26" t="n">
-        <v>1419286.888157289</v>
+        <v>1414865.702258842</v>
       </c>
       <c r="D26" t="n">
-        <v>1333469.997123718</v>
+        <v>1344671.468910217</v>
       </c>
       <c r="E26" t="n">
-        <v>1340866.04801178</v>
+        <v>1327137.732589722</v>
       </c>
       <c r="F26" t="n">
         <v>1518292.023674777</v>
@@ -9192,16 +9259,16 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>1434936.229286784</v>
+        <v>1434936.893621408</v>
       </c>
       <c r="C27" t="n">
-        <v>1392378.445131414</v>
+        <v>1387501.273977026</v>
       </c>
       <c r="D27" t="n">
-        <v>1339127.965400696</v>
+        <v>1335833.229740143</v>
       </c>
       <c r="E27" t="n">
-        <v>1329988.650966644</v>
+        <v>1324619.362445831</v>
       </c>
       <c r="F27" t="n">
         <v>1453317.797089009</v>
@@ -9212,16 +9279,16 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>1499060.485333843</v>
+        <v>1499061.416043405</v>
       </c>
       <c r="C28" t="n">
-        <v>1430341.329541065</v>
+        <v>1418486.783735058</v>
       </c>
       <c r="D28" t="n">
-        <v>1330418.135944366</v>
+        <v>1329474.237392426</v>
       </c>
       <c r="E28" t="n">
-        <v>1341869.115745544</v>
+        <v>1310407.186439514</v>
       </c>
       <c r="F28" t="n">
         <v>1543226.214976188</v>
@@ -9232,16 +9299,16 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>1526319.309362227</v>
+        <v>1526320.433090255</v>
       </c>
       <c r="C29" t="n">
-        <v>1451969.282543676</v>
+        <v>1441556.854797857</v>
       </c>
       <c r="D29" t="n">
-        <v>1355954.625156403</v>
+        <v>1345234.350856781</v>
       </c>
       <c r="E29" t="n">
-        <v>1340360.253189087</v>
+        <v>1328407.013221741</v>
       </c>
       <c r="F29" t="n">
         <v>1584246.495333715</v>
@@ -9252,16 +9319,16 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>1550524.346245478</v>
+        <v>1550525.664283878</v>
       </c>
       <c r="C30" t="n">
-        <v>1469250.222590174</v>
+        <v>1454654.491567418</v>
       </c>
       <c r="D30" t="n">
-        <v>1352425.246406555</v>
+        <v>1335713.874557495</v>
       </c>
       <c r="E30" t="n">
-        <v>1355132.890144348</v>
+        <v>1333023.032543182</v>
       </c>
       <c r="F30" t="n">
         <v>1637290.270287135</v>
@@ -9272,16 +9339,16 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>1471741.910687225</v>
+        <v>1471742.993302779</v>
       </c>
       <c r="C31" t="n">
-        <v>1422603.087696986</v>
+        <v>1407783.326971476</v>
       </c>
       <c r="D31" t="n">
-        <v>1351752.596427917</v>
+        <v>1336877.309173584</v>
       </c>
       <c r="E31" t="n">
-        <v>1351110.741539001</v>
+        <v>1316390.197856903</v>
       </c>
       <c r="F31" t="n">
         <v>1536079.820013054</v>
@@ -9292,16 +9359,16 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>1358984.290734927</v>
+        <v>1358984.543616633</v>
       </c>
       <c r="C32" t="n">
-        <v>1351369.860912133</v>
+        <v>1349262.528460813</v>
       </c>
       <c r="D32" t="n">
-        <v>1347159.625003815</v>
+        <v>1343277.458480835</v>
       </c>
       <c r="E32" t="n">
-        <v>1342634.538352966</v>
+        <v>1338866.110298157</v>
       </c>
       <c r="F32" t="n">
         <v>1325928.289888104</v>
@@ -9312,16 +9379,16 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>1469561.344308968</v>
+        <v>1469561.9672241</v>
       </c>
       <c r="C33" t="n">
-        <v>1417868.092013329</v>
+        <v>1409477.497611538</v>
       </c>
       <c r="D33" t="n">
-        <v>1348070.307468414</v>
+        <v>1334404.889564514</v>
       </c>
       <c r="E33" t="n">
-        <v>1350012.141239166</v>
+        <v>1342135.861263275</v>
       </c>
       <c r="F33" t="n">
         <v>1482368.392110338</v>
@@ -9332,16 +9399,16 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>1438000.347280504</v>
+        <v>1438000.877574426</v>
       </c>
       <c r="C34" t="n">
-        <v>1398907.590917132</v>
+        <v>1393577.788650581</v>
       </c>
       <c r="D34" t="n">
-        <v>1347247.119857788</v>
+        <v>1337360.733978271</v>
       </c>
       <c r="E34" t="n">
-        <v>1346892.346866608</v>
+        <v>1344986.973320007</v>
       </c>
       <c r="F34" t="n">
         <v>1445261.676542776</v>
@@ -9352,16 +9419,16 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>1482061.206500658</v>
+        <v>1482061.813826792</v>
       </c>
       <c r="C35" t="n">
-        <v>1421806.065623114</v>
+        <v>1420984.011447393</v>
       </c>
       <c r="D35" t="n">
-        <v>1341654.470096588</v>
+        <v>1347535.073314667</v>
       </c>
       <c r="E35" t="n">
-        <v>1337812.976333618</v>
+        <v>1346028.922275543</v>
       </c>
       <c r="F35" t="n">
         <v>1512366.502102674</v>
@@ -9372,16 +9439,16 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>1400667.812372946</v>
+        <v>1400668.270914038</v>
       </c>
       <c r="C36" t="n">
-        <v>1373115.38476615</v>
+        <v>1369247.252466287</v>
       </c>
       <c r="D36" t="n">
-        <v>1340673.627120972</v>
+        <v>1343789.547897339</v>
       </c>
       <c r="E36" t="n">
-        <v>1335694.7486763</v>
+        <v>1322909.411827087</v>
       </c>
       <c r="F36" t="n">
         <v>1389812.794384272</v>
@@ -9392,16 +9459,16 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>1350904.060414267</v>
+        <v>1350904.306186284</v>
       </c>
       <c r="C37" t="n">
-        <v>1349639.261571608</v>
+        <v>1344431.20092257</v>
       </c>
       <c r="D37" t="n">
-        <v>1355572.204372406</v>
+        <v>1334575.473056793</v>
       </c>
       <c r="E37" t="n">
-        <v>1344467.136711121</v>
+        <v>1343645.934318542</v>
       </c>
       <c r="F37" t="n">
         <v>1329340.792625384</v>
@@ -9412,16 +9479,16 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>1490245.653553338</v>
+        <v>1490246.663668669</v>
       </c>
       <c r="C38" t="n">
-        <v>1432559.912583424</v>
+        <v>1421621.199548668</v>
       </c>
       <c r="D38" t="n">
-        <v>1349110.755405426</v>
+        <v>1343782.430164337</v>
       </c>
       <c r="E38" t="n">
-        <v>1353943.792953491</v>
+        <v>1328470.394939423</v>
       </c>
       <c r="F38" t="n">
         <v>1544084.145057096</v>
@@ -9432,16 +9499,16 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>1448385.341993276</v>
+        <v>1448386.106484951</v>
       </c>
       <c r="C39" t="n">
-        <v>1404919.786959077</v>
+        <v>1394739.943423916</v>
       </c>
       <c r="D39" t="n">
-        <v>1346414.199836731</v>
+        <v>1328908.740768433</v>
       </c>
       <c r="E39" t="n">
-        <v>1343573.788589478</v>
+        <v>1329930.934383392</v>
       </c>
       <c r="F39" t="n">
         <v>1476866.515115936</v>

--- a/fcst_results/no_covid_series_IAH-Dom_results.xlsx
+++ b/fcst_results/no_covid_series_IAH-Dom_results.xlsx
@@ -479,10 +479,10 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>1349696.733669281</v>
+        <v>1354683.601406097</v>
       </c>
       <c r="C2" t="n">
-        <v>1369413.241443634</v>
+        <v>1362923.951004028</v>
       </c>
       <c r="D2" t="n">
         <v>1461956.016518393</v>
@@ -491,7 +491,7 @@
         <v>1466274.626851014</v>
       </c>
       <c r="F2" t="n">
-        <v>1415013.29082404</v>
+        <v>1415345.528615567</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>1329120.190700531</v>
+        <v>1352169.831157684</v>
       </c>
       <c r="C3" t="n">
-        <v>1357821.020641327</v>
+        <v>1357790.080291748</v>
       </c>
       <c r="D3" t="n">
         <v>1408948.284395932</v>
@@ -511,7 +511,7 @@
         <v>1406459.506398476</v>
       </c>
       <c r="F3" t="n">
-        <v>1378805.567087656</v>
+        <v>1384331.364000435</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>1354231.988510132</v>
+        <v>1352857.588161469</v>
       </c>
       <c r="C4" t="n">
-        <v>1363067.516162872</v>
+        <v>1354361.608722687</v>
       </c>
       <c r="D4" t="n">
         <v>1483206.192771547</v>
@@ -531,7 +531,7 @@
         <v>1476542.642662393</v>
       </c>
       <c r="F4" t="n">
-        <v>1425469.616692702</v>
+        <v>1424191.693812003</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>1339645.913631439</v>
+        <v>1362628.637714386</v>
       </c>
       <c r="C5" t="n">
-        <v>1357777.442684174</v>
+        <v>1349258.872039795</v>
       </c>
       <c r="D5" t="n">
         <v>1509710.30509284</v>
@@ -551,7 +551,7 @@
         <v>1538074.174295384</v>
       </c>
       <c r="F5" t="n">
-        <v>1436785.900231455</v>
+        <v>1441508.113708484</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>1346941.202598572</v>
+        <v>1350281.937213898</v>
       </c>
       <c r="C6" t="n">
-        <v>1361581.701503754</v>
+        <v>1347177.443546295</v>
       </c>
       <c r="D6" t="n">
         <v>1537256.542083192</v>
@@ -571,7 +571,7 @@
         <v>1580759.437709347</v>
       </c>
       <c r="F6" t="n">
-        <v>1454833.706767962</v>
+        <v>1453889.860969363</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>1340920.326778412</v>
+        <v>1351181.047309875</v>
       </c>
       <c r="C7" t="n">
-        <v>1350120.214572906</v>
+        <v>1349409.070732117</v>
       </c>
       <c r="D7" t="n">
         <v>1449348.415932925</v>
@@ -591,7 +591,7 @@
         <v>1495308.480243898</v>
       </c>
       <c r="F7" t="n">
-        <v>1403543.837328327</v>
+        <v>1406601.817594385</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>1341942.133033752</v>
+        <v>1349786.746360779</v>
       </c>
       <c r="C8" t="n">
-        <v>1348889.137283325</v>
+        <v>1355250.599048615</v>
       </c>
       <c r="D8" t="n">
         <v>1316628.418797399</v>
@@ -611,7 +611,7 @@
         <v>1247196.584143331</v>
       </c>
       <c r="F8" t="n">
-        <v>1326849.167910261</v>
+        <v>1329658.126150533</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>1352103.350563049</v>
+        <v>1348625.34538269</v>
       </c>
       <c r="C9" t="n">
-        <v>1343563.910919189</v>
+        <v>1362821.445964813</v>
       </c>
       <c r="D9" t="n">
         <v>1448484.863561966</v>
@@ -631,7 +631,7 @@
         <v>1431880.280552339</v>
       </c>
       <c r="F9" t="n">
-        <v>1401219.533094939</v>
+        <v>1405561.596723297</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>1340392.50087738</v>
+        <v>1345596.58052063</v>
       </c>
       <c r="C10" t="n">
-        <v>1345080.956447601</v>
+        <v>1351963.852680206</v>
       </c>
       <c r="D10" t="n">
         <v>1406238.619143981</v>
@@ -651,7 +651,7 @@
         <v>1397351.652247004</v>
       </c>
       <c r="F10" t="n">
-        <v>1376558.063762681</v>
+        <v>1379741.206955245</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>1347414.265533447</v>
+        <v>1353966.501911163</v>
       </c>
       <c r="C11" t="n">
-        <v>1353319.223987579</v>
+        <v>1339960.933841705</v>
       </c>
       <c r="D11" t="n">
         <v>1465473.050477547</v>
@@ -671,7 +671,7 @@
         <v>1451533.375801868</v>
       </c>
       <c r="F11" t="n">
-        <v>1411752.511337451</v>
+        <v>1411317.09325896</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>1331556.682704926</v>
+        <v>1352316.834133148</v>
       </c>
       <c r="C12" t="n">
-        <v>1359123.759460449</v>
+        <v>1345565.204391479</v>
       </c>
       <c r="D12" t="n">
         <v>1369424.794226767</v>
@@ -691,7 +691,7 @@
         <v>1348134.609319234</v>
       </c>
       <c r="F12" t="n">
-        <v>1357538.676099335</v>
+        <v>1359250.537309408</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>1333308.710262299</v>
+        <v>1341249.437194824</v>
       </c>
       <c r="C13" t="n">
-        <v>1344128.293884277</v>
+        <v>1348538.818927765</v>
       </c>
       <c r="D13" t="n">
         <v>1312243.039703819</v>
@@ -711,7 +711,7 @@
         <v>1263397.912703778</v>
       </c>
       <c r="F13" t="n">
-        <v>1322346.528676137</v>
+        <v>1324724.436219394</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>1336533.091732025</v>
+        <v>1342229.505451202</v>
       </c>
       <c r="C14" t="n">
-        <v>1351022.229866028</v>
+        <v>1346474.579517365</v>
       </c>
       <c r="D14" t="n">
         <v>1467384.137535612</v>
@@ -731,7 +731,7 @@
         <v>1492355.564453505</v>
       </c>
       <c r="F14" t="n">
-        <v>1411543.730346492</v>
+        <v>1412755.151180917</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>1321609.19084549</v>
+        <v>1333148.972839355</v>
       </c>
       <c r="C15" t="n">
-        <v>1343187.784729004</v>
+        <v>1352998.926002502</v>
       </c>
       <c r="D15" t="n">
         <v>1420779.477977416</v>
@@ -751,7 +751,7 @@
         <v>1429849.812231069</v>
       </c>
       <c r="F15" t="n">
-        <v>1380534.473639653</v>
+        <v>1385784.058670615</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>1331258.948417664</v>
+        <v>1333947.466274261</v>
       </c>
       <c r="C16" t="n">
-        <v>1338608.903511047</v>
+        <v>1330653.699012756</v>
       </c>
       <c r="D16" t="n">
         <v>1488402.597060649</v>
@@ -771,7 +771,7 @@
         <v>1509897.022441767</v>
       </c>
       <c r="F16" t="n">
-        <v>1418572.842767292</v>
+        <v>1418719.789158574</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>1323684.131065369</v>
+        <v>1351631.159187317</v>
       </c>
       <c r="C17" t="n">
-        <v>1336538.66002655</v>
+        <v>1345460.520454407</v>
       </c>
       <c r="D17" t="n">
         <v>1517139.355553404</v>
@@ -791,7 +791,7 @@
         <v>1561204.14765759</v>
       </c>
       <c r="F17" t="n">
-        <v>1432867.971418972</v>
+        <v>1442859.484373732</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>1341363.90196228</v>
+        <v>1334853.597263336</v>
       </c>
       <c r="C18" t="n">
-        <v>1342238.463142395</v>
+        <v>1343407.950252533</v>
       </c>
       <c r="D18" t="n">
         <v>1542659.922923123</v>
@@ -811,7 +811,7 @@
         <v>1609047.043795534</v>
       </c>
       <c r="F18" t="n">
-        <v>1452924.248268129</v>
+        <v>1453415.100822902</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>1328189.752895355</v>
+        <v>1344200.923812866</v>
       </c>
       <c r="C19" t="n">
-        <v>1343135.200660706</v>
+        <v>1338950.554695129</v>
       </c>
       <c r="D19" t="n">
         <v>1459579.039198957</v>
@@ -831,7 +831,7 @@
         <v>1515622.015667904</v>
       </c>
       <c r="F19" t="n">
-        <v>1404992.614727314</v>
+        <v>1408747.573028154</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>1326334.203479767</v>
+        <v>1351418.014556885</v>
       </c>
       <c r="C20" t="n">
-        <v>1344647.016834259</v>
+        <v>1339836.397724152</v>
       </c>
       <c r="D20" t="n">
         <v>1340671.260644272</v>
@@ -851,7 +851,7 @@
         <v>1286483.763960752</v>
       </c>
       <c r="F20" t="n">
-        <v>1335972.838137489</v>
+        <v>1340571.39827793</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>1329124.790596008</v>
+        <v>1343155.682300568</v>
       </c>
       <c r="C21" t="n">
-        <v>1332120.968830109</v>
+        <v>1342439.163845062</v>
       </c>
       <c r="D21" t="n">
         <v>1457273.876666622</v>
@@ -871,7 +871,7 @@
         <v>1457230.171840306</v>
       </c>
       <c r="F21" t="n">
-        <v>1398827.815059484</v>
+        <v>1405433.276551216</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>1339733.941104889</v>
+        <v>1337998.424751282</v>
       </c>
       <c r="C22" t="n">
-        <v>1337961.96452713</v>
+        <v>1343339.29076004</v>
       </c>
       <c r="D22" t="n">
         <v>1423990.540313727</v>
@@ -891,7 +891,7 @@
         <v>1421304.042586561</v>
       </c>
       <c r="F22" t="n">
-        <v>1384554.615674922</v>
+        <v>1386073.507440886</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>1329940.085754395</v>
+        <v>1347269.586715698</v>
       </c>
       <c r="C23" t="n">
-        <v>1346470.415401459</v>
+        <v>1332022.531066895</v>
       </c>
       <c r="D23" t="n">
         <v>1470451.736049701</v>
@@ -911,7 +911,7 @@
         <v>1481980.969156709</v>
       </c>
       <c r="F23" t="n">
-        <v>1410033.699238089</v>
+        <v>1411901.447314996</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>1331693.275390625</v>
+        <v>1341171.577911377</v>
       </c>
       <c r="C24" t="n">
-        <v>1342100.272598267</v>
+        <v>1351560.756576538</v>
       </c>
       <c r="D24" t="n">
         <v>1384620.274684009</v>
@@ -931,7 +931,7 @@
         <v>1368939.341189105</v>
       </c>
       <c r="F24" t="n">
-        <v>1361957.281628178</v>
+        <v>1366466.957776284</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>1334222.588443756</v>
+        <v>1338247.739086151</v>
       </c>
       <c r="C25" t="n">
-        <v>1342099.013679504</v>
+        <v>1345269.213222504</v>
       </c>
       <c r="D25" t="n">
         <v>1332142.748793587</v>
@@ -951,7 +951,7 @@
         <v>1296296.98752558</v>
       </c>
       <c r="F25" t="n">
-        <v>1333365.981634081</v>
+        <v>1334787.005017151</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>1327137.732589722</v>
+        <v>1343312.950305939</v>
       </c>
       <c r="C26" t="n">
-        <v>1344671.468910217</v>
+        <v>1341032.128448486</v>
       </c>
       <c r="D26" t="n">
         <v>1479079.855781822</v>
@@ -971,7 +971,7 @@
         <v>1518292.023674777</v>
       </c>
       <c r="F26" t="n">
-        <v>1414865.702258842</v>
+        <v>1418887.083767857</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>1324619.362445831</v>
+        <v>1334951.01820755</v>
       </c>
       <c r="C27" t="n">
-        <v>1335833.229740143</v>
+        <v>1333216.421833038</v>
       </c>
       <c r="D27" t="n">
         <v>1434936.893621408</v>
@@ -991,7 +991,7 @@
         <v>1453317.797089009</v>
       </c>
       <c r="F27" t="n">
-        <v>1387501.273977026</v>
+        <v>1390117.37154366</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>1310407.186439514</v>
+        <v>1333495.417598724</v>
       </c>
       <c r="C28" t="n">
-        <v>1329474.237392426</v>
+        <v>1335700.41381073</v>
       </c>
       <c r="D28" t="n">
         <v>1499061.416043405</v>
@@ -1011,7 +1011,7 @@
         <v>1543226.214976188</v>
       </c>
       <c r="F28" t="n">
-        <v>1418486.783735058</v>
+        <v>1426565.405531286</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>1328407.013221741</v>
+        <v>1340643.703590393</v>
       </c>
       <c r="C29" t="n">
-        <v>1345234.350856781</v>
+        <v>1345003.726623535</v>
       </c>
       <c r="D29" t="n">
         <v>1526320.433090255</v>
@@ -1031,7 +1031,7 @@
         <v>1584246.495333715</v>
       </c>
       <c r="F29" t="n">
-        <v>1441556.854797857</v>
+        <v>1445808.212035233</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>1333023.032543182</v>
+        <v>1347757.320896149</v>
       </c>
       <c r="C30" t="n">
-        <v>1335713.874557495</v>
+        <v>1345198.90745163</v>
       </c>
       <c r="D30" t="n">
         <v>1550525.664283878</v>
@@ -1051,7 +1051,7 @@
         <v>1637290.270287135</v>
       </c>
       <c r="F30" t="n">
-        <v>1454654.491567418</v>
+        <v>1462096.083570613</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>1316390.197856903</v>
+        <v>1339379.216533661</v>
       </c>
       <c r="C31" t="n">
-        <v>1336877.309173584</v>
+        <v>1346781.562015533</v>
       </c>
       <c r="D31" t="n">
         <v>1471742.993302779</v>
@@ -1071,7 +1071,7 @@
         <v>1536079.820013054</v>
       </c>
       <c r="F31" t="n">
-        <v>1407783.326971476</v>
+        <v>1416324.309406335</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>1338866.110298157</v>
+        <v>1341293.789871216</v>
       </c>
       <c r="C32" t="n">
-        <v>1343277.458480835</v>
+        <v>1343527.305435181</v>
       </c>
       <c r="D32" t="n">
         <v>1358984.543616633</v>
@@ -1091,7 +1091,7 @@
         <v>1325928.289888104</v>
       </c>
       <c r="F32" t="n">
-        <v>1349262.528460813</v>
+        <v>1349946.772691263</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>1342135.861263275</v>
+        <v>1324589.777854919</v>
       </c>
       <c r="C33" t="n">
-        <v>1334404.889564514</v>
+        <v>1342954.400558472</v>
       </c>
       <c r="D33" t="n">
         <v>1469561.9672241</v>
@@ -1111,7 +1111,7 @@
         <v>1482368.392110338</v>
       </c>
       <c r="F33" t="n">
-        <v>1409477.497611538</v>
+        <v>1408446.639727825</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>1344986.973320007</v>
+        <v>1353051.89743042</v>
       </c>
       <c r="C34" t="n">
-        <v>1337360.733978271</v>
+        <v>1344610.943969727</v>
       </c>
       <c r="D34" t="n">
         <v>1438000.877574426</v>
@@ -1131,7 +1131,7 @@
         <v>1445261.676542776</v>
       </c>
       <c r="F34" t="n">
-        <v>1393577.788650581</v>
+        <v>1398038.939704195</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>1346028.922275543</v>
+        <v>1339738.250480652</v>
       </c>
       <c r="C35" t="n">
-        <v>1347535.073314667</v>
+        <v>1342929.028503418</v>
       </c>
       <c r="D35" t="n">
         <v>1482061.813826792</v>
@@ -1151,7 +1151,7 @@
         <v>1512366.502102674</v>
       </c>
       <c r="F35" t="n">
-        <v>1420984.011447393</v>
+        <v>1419672.899783752</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>1322909.411827087</v>
+        <v>1342372.34431076</v>
       </c>
       <c r="C36" t="n">
-        <v>1343789.547897339</v>
+        <v>1337003.927349091</v>
       </c>
       <c r="D36" t="n">
         <v>1400668.270914038</v>
@@ -1171,7 +1171,7 @@
         <v>1389812.794384272</v>
       </c>
       <c r="F36" t="n">
-        <v>1369247.252466287</v>
+        <v>1372613.881479905</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>1343645.934318542</v>
+        <v>1336665.036102295</v>
       </c>
       <c r="C37" t="n">
-        <v>1334575.473056793</v>
+        <v>1338660.180240631</v>
       </c>
       <c r="D37" t="n">
         <v>1350904.306186284</v>
@@ -1191,7 +1191,7 @@
         <v>1329340.792625384</v>
       </c>
       <c r="F37" t="n">
-        <v>1344431.20092257</v>
+        <v>1343902.301736859</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>1328470.394939423</v>
+        <v>1346335.372154236</v>
       </c>
       <c r="C38" t="n">
-        <v>1343782.430164337</v>
+        <v>1346256.641311646</v>
       </c>
       <c r="D38" t="n">
         <v>1490246.663668669</v>
@@ -1211,7 +1211,7 @@
         <v>1544084.145057096</v>
       </c>
       <c r="F38" t="n">
-        <v>1421621.199548668</v>
+        <v>1427506.779886809</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>1329930.934383392</v>
+        <v>1338323.952091217</v>
       </c>
       <c r="C39" t="n">
-        <v>1328908.740768433</v>
+        <v>1339485.595169067</v>
       </c>
       <c r="D39" t="n">
         <v>1448386.106484951</v>
@@ -1231,7 +1231,7 @@
         <v>1476866.515115936</v>
       </c>
       <c r="F39" t="n">
-        <v>1394739.943423916</v>
+        <v>1400087.81182781</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>174565.30494858</v>
+        <v>314573.72397585</v>
       </c>
       <c r="S2" t="n">
         <v>114725.8595153741</v>
@@ -1545,19 +1545,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>99633.47425983079</v>
+        <v>100815.2965653839</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05801594911896291</v>
+        <v>0.05821007384739668</v>
       </c>
       <c r="M3" t="n">
-        <v>77474.35063860058</v>
+        <v>77921.55977087017</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2077815082391122</v>
+        <v>0.1888759282119413</v>
       </c>
       <c r="O3" t="n">
-        <v>1248403.279915834</v>
+        <v>1243235.279848467</v>
       </c>
       <c r="P3" t="n">
         <v>1285706</v>
@@ -1566,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>167051.2193163313</v>
+        <v>159695.6084037577</v>
       </c>
       <c r="S3" t="n">
-        <v>75624.68381771675</v>
+        <v>74865.6209305822</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0463586765948517</v>
+        <v>0.04579945753137211</v>
       </c>
       <c r="U3" t="n">
-        <v>60915.5394713193</v>
+        <v>59988.4145208583</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6237959075416734</v>
+        <v>0.6313101058334595</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1586,25 +1586,25 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['arima', 'lstm', 'lstm_reg', 'prophet']</t>
+          <t>['arima', 'lstm_reg', 'lstm', 'prophet']</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.4935165454656957, 0.23759076322195627, 0.22402755081546655, 0.04486514049688142)</t>
+          <t>(0.5015081549514625, 0.23733686409295038, 0.21556333050545412, 0.04559165045013295)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>99633.47425983079</v>
+        <v>100815.2965653839</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05801594911896291</v>
+        <v>0.05821007384739668</v>
       </c>
       <c r="AE3" t="n">
-        <v>77474.35063860058</v>
+        <v>77921.55977087017</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2077815082391122</v>
+        <v>0.1888759282119413</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1648,19 +1648,19 @@
         <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>127688.9346370948</v>
+        <v>128657.6994967699</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08057106435417989</v>
+        <v>0.08099948029542602</v>
       </c>
       <c r="M4" t="n">
-        <v>104975.2130615677</v>
+        <v>106199.9257298345</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3011907075856095</v>
+        <v>-0.3210096475794124</v>
       </c>
       <c r="O4" t="n">
-        <v>1317756.124713898</v>
+        <v>1299416.147766113</v>
       </c>
       <c r="P4" t="n">
         <v>1285706</v>
@@ -1669,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>229305.5462065013</v>
+        <v>266283.2687090004</v>
       </c>
       <c r="S4" t="n">
-        <v>120310.3852621735</v>
+        <v>121673.7087880578</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07363054345124145</v>
+        <v>0.07456785235105225</v>
       </c>
       <c r="U4" t="n">
-        <v>97240.43619400973</v>
+        <v>98545.0963827736</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04785606179883262</v>
+        <v>0.02615494316976785</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1692,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>127688.9346370948</v>
+        <v>128657.6994967699</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08057106435417989</v>
+        <v>0.08099948029542602</v>
       </c>
       <c r="AE4" t="n">
-        <v>104975.2130615677</v>
+        <v>106199.9257298345</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.3011907075856095</v>
+        <v>-0.3210096475794124</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 30, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1745,19 +1745,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>130915.1343549884</v>
+        <v>131950.1726318234</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08201081720895595</v>
+        <v>0.08327393880421292</v>
       </c>
       <c r="M5" t="n">
-        <v>107242.1815584708</v>
+        <v>108739.2834786125</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.367773350360767</v>
+        <v>-0.3894865641542102</v>
       </c>
       <c r="O5" t="n">
-        <v>1290521.547771454</v>
+        <v>1290421.70582962</v>
       </c>
       <c r="P5" t="n">
         <v>1285706</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>194537.7282157682</v>
+        <v>218851.3529358785</v>
       </c>
       <c r="S5" t="n">
-        <v>122154.4585529007</v>
+        <v>119884.6822302534</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07466601268608894</v>
+        <v>0.07340533946107816</v>
       </c>
       <c r="U5" t="n">
-        <v>99259.86715941355</v>
+        <v>96651.47294175933</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01844414515780413</v>
+        <v>0.0545822218897617</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>130915.1343549884</v>
+        <v>131950.1726318234</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.08201081720895595</v>
+        <v>0.08327393880421292</v>
       </c>
       <c r="AE5" t="n">
-        <v>107242.1815584708</v>
+        <v>108739.2834786125</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.367773350360767</v>
+        <v>-0.3894865641542102</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>119461.732859066</v>
+        <v>114684.7641169778</v>
       </c>
       <c r="S6" t="n">
         <v>57694.02435842139</v>
@@ -5459,12 +5459,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5484,13 +5484,13 @@
         <v>1382781.409753699</v>
       </c>
       <c r="D2" t="n">
-        <v>1418937.523476768</v>
+        <v>1413689.267731052</v>
       </c>
       <c r="E2" t="n">
-        <v>1467785.92824173</v>
+        <v>1445396.929615021</v>
       </c>
       <c r="F2" t="n">
-        <v>1455013.858459473</v>
+        <v>1458270.681297302</v>
       </c>
       <c r="G2" t="n">
         <v>1377828.047916109</v>
@@ -5507,13 +5507,13 @@
         <v>1404917.255988404</v>
       </c>
       <c r="D3" t="n">
-        <v>1436615.369388697</v>
+        <v>1438196.59652258</v>
       </c>
       <c r="E3" t="n">
-        <v>1473549.258335114</v>
+        <v>1494879.796802521</v>
       </c>
       <c r="F3" t="n">
-        <v>1468180.889793396</v>
+        <v>1454504.480560303</v>
       </c>
       <c r="G3" t="n">
         <v>1432087.273306251</v>
@@ -5530,13 +5530,13 @@
         <v>1353296.968879655</v>
       </c>
       <c r="D4" t="n">
-        <v>1397741.649437275</v>
+        <v>1379294.238299218</v>
       </c>
       <c r="E4" t="n">
-        <v>1438567.392169952</v>
+        <v>1400955.644710541</v>
       </c>
       <c r="F4" t="n">
-        <v>1463891.559890747</v>
+        <v>1424212.086784363</v>
       </c>
       <c r="G4" t="n">
         <v>1340123.718037497</v>
@@ -5553,13 +5553,13 @@
         <v>1206360.856637617</v>
       </c>
       <c r="D5" t="n">
-        <v>1305718.686447338</v>
+        <v>1303116.891016276</v>
       </c>
       <c r="E5" t="n">
-        <v>1422878.552875519</v>
+        <v>1413901.009502411</v>
       </c>
       <c r="F5" t="n">
-        <v>1441806.97750473</v>
+        <v>1449484.445156097</v>
       </c>
       <c r="G5" t="n">
         <v>1098678.307472316</v>
@@ -5576,13 +5576,13 @@
         <v>1289166.021770413</v>
       </c>
       <c r="D6" t="n">
-        <v>1356738.219985148</v>
+        <v>1357726.652212716</v>
       </c>
       <c r="E6" t="n">
-        <v>1406863.072582245</v>
+        <v>1447711.88753891</v>
       </c>
       <c r="F6" t="n">
-        <v>1475884.746318817</v>
+        <v>1443132.376861572</v>
       </c>
       <c r="G6" t="n">
         <v>1239647.120369824</v>
@@ -5599,13 +5599,13 @@
         <v>1257683.641505286</v>
       </c>
       <c r="D7" t="n">
-        <v>1335979.34121594</v>
+        <v>1348224.501922949</v>
       </c>
       <c r="E7" t="n">
-        <v>1412760.768043518</v>
+        <v>1434278.643306732</v>
       </c>
       <c r="F7" t="n">
-        <v>1453117.152084351</v>
+        <v>1494262.829769135</v>
       </c>
       <c r="G7" t="n">
         <v>1205712.693943207</v>
@@ -5622,13 +5622,13 @@
         <v>1307159.161423223</v>
       </c>
       <c r="D8" t="n">
-        <v>1366723.569729521</v>
+        <v>1364379.413776542</v>
       </c>
       <c r="E8" t="n">
-        <v>1436244.977573395</v>
+        <v>1433958.200061798</v>
       </c>
       <c r="F8" t="n">
-        <v>1443734.914749146</v>
+        <v>1441020.73431778</v>
       </c>
       <c r="G8" t="n">
         <v>1269225.015369395</v>
@@ -5645,13 +5645,13 @@
         <v>1220488.476538344</v>
       </c>
       <c r="D9" t="n">
-        <v>1312726.001715995</v>
+        <v>1308152.228079648</v>
       </c>
       <c r="E9" t="n">
-        <v>1428026.029594421</v>
+        <v>1401208.39686203</v>
       </c>
       <c r="F9" t="n">
-        <v>1427244.967342377</v>
+        <v>1444171.178520203</v>
       </c>
       <c r="G9" t="n">
         <v>1144914.642095032</v>
@@ -5668,13 +5668,13 @@
         <v>1175799.278506254</v>
       </c>
       <c r="D10" t="n">
-        <v>1286772.665081039</v>
+        <v>1290860.161018956</v>
       </c>
       <c r="E10" t="n">
-        <v>1406248.090766907</v>
+        <v>1439365.788764954</v>
       </c>
       <c r="F10" t="n">
-        <v>1443490.006629944</v>
+        <v>1437053.203418732</v>
       </c>
       <c r="G10" t="n">
         <v>1092232.822013451</v>
@@ -5691,13 +5691,13 @@
         <v>1331987.453571501</v>
       </c>
       <c r="D11" t="n">
-        <v>1390355.589214734</v>
+        <v>1382926.975089026</v>
       </c>
       <c r="E11" t="n">
-        <v>1449585.255496979</v>
+        <v>1457965.829277039</v>
       </c>
       <c r="F11" t="n">
-        <v>1473170.517467499</v>
+        <v>1435254.402187347</v>
       </c>
       <c r="G11" t="n">
         <v>1305220.304791636</v>
@@ -5714,13 +5714,13 @@
         <v>1272006.094293493</v>
       </c>
       <c r="D12" t="n">
-        <v>1346481.592529004</v>
+        <v>1346003.131877577</v>
       </c>
       <c r="E12" t="n">
-        <v>1462926.017620087</v>
+        <v>1447969.433265686</v>
       </c>
       <c r="F12" t="n">
-        <v>1411281.63533783</v>
+        <v>1431379.740756989</v>
       </c>
       <c r="G12" t="n">
         <v>1225491.798618015</v>
@@ -5737,13 +5737,13 @@
         <v>1340917.962383393</v>
       </c>
       <c r="D13" t="n">
-        <v>1399870.718589679</v>
+        <v>1385387.535047546</v>
       </c>
       <c r="E13" t="n">
-        <v>1492167.359489441</v>
+        <v>1450678.72328186</v>
       </c>
       <c r="F13" t="n">
-        <v>1446146.809417725</v>
+        <v>1428990.361366272</v>
       </c>
       <c r="G13" t="n">
         <v>1328506.001581081</v>
@@ -5760,13 +5760,13 @@
         <v>1372416.632583388</v>
       </c>
       <c r="D14" t="n">
-        <v>1420831.250266582</v>
+        <v>1398517.153602825</v>
       </c>
       <c r="E14" t="n">
-        <v>1473017.94619751</v>
+        <v>1410514.22751236</v>
       </c>
       <c r="F14" t="n">
-        <v>1484664.348926544</v>
+        <v>1454539.730285645</v>
       </c>
       <c r="G14" t="n">
         <v>1358287.485332709</v>
@@ -5783,13 +5783,13 @@
         <v>1393225.83071857</v>
       </c>
       <c r="D15" t="n">
-        <v>1423350.874651055</v>
+        <v>1418644.443675932</v>
       </c>
       <c r="E15" t="n">
-        <v>1466847.597984314</v>
+        <v>1430961.005008698</v>
       </c>
       <c r="F15" t="n">
-        <v>1445207.849700928</v>
+        <v>1464939.706600189</v>
       </c>
       <c r="G15" t="n">
         <v>1415242.64930126</v>
@@ -5806,13 +5806,13 @@
         <v>1346883.59679675</v>
       </c>
       <c r="D16" t="n">
-        <v>1400600.935134333</v>
+        <v>1388693.441926366</v>
       </c>
       <c r="E16" t="n">
-        <v>1464652.043663025</v>
+        <v>1428614.235176086</v>
       </c>
       <c r="F16" t="n">
-        <v>1469034.291454315</v>
+        <v>1458530.599601746</v>
       </c>
       <c r="G16" t="n">
         <v>1310586.423237367</v>
@@ -5829,13 +5829,13 @@
         <v>1213716.956639699</v>
       </c>
       <c r="D17" t="n">
-        <v>1304943.514015802</v>
+        <v>1302562.919593938</v>
       </c>
       <c r="E17" t="n">
-        <v>1421472.6795578</v>
+        <v>1407643.021175385</v>
       </c>
       <c r="F17" t="n">
-        <v>1423240.879379272</v>
+        <v>1436276.741062164</v>
       </c>
       <c r="G17" t="n">
         <v>1100635.51772866</v>
@@ -5852,13 +5852,13 @@
         <v>1289143.409655113</v>
       </c>
       <c r="D18" t="n">
-        <v>1352372.174098197</v>
+        <v>1349991.402023273</v>
       </c>
       <c r="E18" t="n">
-        <v>1417073.339523315</v>
+        <v>1408142.860343933</v>
       </c>
       <c r="F18" t="n">
-        <v>1450565.081653595</v>
+        <v>1456092.26763916</v>
       </c>
       <c r="G18" t="n">
         <v>1214940.876848544</v>
@@ -5875,13 +5875,13 @@
         <v>1262553.582085946</v>
       </c>
       <c r="D19" t="n">
-        <v>1322422.295010196</v>
+        <v>1338612.902042205</v>
       </c>
       <c r="E19" t="n">
-        <v>1375872.608352661</v>
+        <v>1435016.46654129</v>
       </c>
       <c r="F19" t="n">
-        <v>1425100.641330719</v>
+        <v>1441867.792964935</v>
       </c>
       <c r="G19" t="n">
         <v>1185213.791093153</v>
@@ -5898,13 +5898,13 @@
         <v>1300713.605451351</v>
       </c>
       <c r="D20" t="n">
-        <v>1350458.19350636</v>
+        <v>1343725.158822913</v>
       </c>
       <c r="E20" t="n">
-        <v>1446031.230991364</v>
+        <v>1427846.827350616</v>
       </c>
       <c r="F20" t="n">
-        <v>1378452.423416138</v>
+        <v>1370627.662269592</v>
       </c>
       <c r="G20" t="n">
         <v>1251740.739786566</v>
@@ -5921,13 +5921,13 @@
         <v>1229464.176577253</v>
       </c>
       <c r="D21" t="n">
-        <v>1295588.518718429</v>
+        <v>1296836.550084722</v>
       </c>
       <c r="E21" t="n">
-        <v>1403678.492313385</v>
+        <v>1384710.992782593</v>
       </c>
       <c r="F21" t="n">
-        <v>1361795.814533234</v>
+        <v>1394239.167854309</v>
       </c>
       <c r="G21" t="n">
         <v>1119951.472704615</v>
@@ -5944,13 +5944,13 @@
         <v>1187693.090833223</v>
       </c>
       <c r="D22" t="n">
-        <v>1283480.353389806</v>
+        <v>1268089.514300532</v>
       </c>
       <c r="E22" t="n">
-        <v>1377681.432514191</v>
+        <v>1381131.015182495</v>
       </c>
       <c r="F22" t="n">
-        <v>1434120.164802551</v>
+        <v>1369166.251266479</v>
       </c>
       <c r="G22" t="n">
         <v>1086084.886063207</v>
@@ -5967,13 +5967,13 @@
         <v>1325689.977555347</v>
       </c>
       <c r="D23" t="n">
-        <v>1356119.161566251</v>
+        <v>1363559.207842478</v>
       </c>
       <c r="E23" t="n">
-        <v>1403596.856273651</v>
+        <v>1390486.766803741</v>
       </c>
       <c r="F23" t="n">
-        <v>1385256.443546295</v>
+        <v>1436742.9283638</v>
       </c>
       <c r="G23" t="n">
         <v>1293921.43220102</v>
@@ -5990,13 +5990,13 @@
         <v>1277162.510307874</v>
       </c>
       <c r="D24" t="n">
-        <v>1332796.895983752</v>
+        <v>1322096.766207241</v>
       </c>
       <c r="E24" t="n">
-        <v>1385159.071022034</v>
+        <v>1386530.808273315</v>
       </c>
       <c r="F24" t="n">
-        <v>1418812.632633209</v>
+        <v>1373485.601539612</v>
       </c>
       <c r="G24" t="n">
         <v>1237975.525327319</v>
@@ -6013,13 +6013,13 @@
         <v>1334912.968781109</v>
       </c>
       <c r="D25" t="n">
-        <v>1355809.27049064</v>
+        <v>1371068.126408143</v>
       </c>
       <c r="E25" t="n">
-        <v>1399391.87392807</v>
+        <v>1443043.28414917</v>
       </c>
       <c r="F25" t="n">
-        <v>1369170.51222229</v>
+        <v>1393474.61680603</v>
       </c>
       <c r="G25" t="n">
         <v>1288152.296533135</v>
@@ -6036,13 +6036,13 @@
         <v>1365114.368985848</v>
       </c>
       <c r="D26" t="n">
-        <v>1363681.663452058</v>
+        <v>1365245.756746852</v>
       </c>
       <c r="E26" t="n">
-        <v>1386530.130393982</v>
+        <v>1368381.896457672</v>
       </c>
       <c r="F26" t="n">
-        <v>1339965.049537659</v>
+        <v>1366306.568878174</v>
       </c>
       <c r="G26" t="n">
         <v>1345349.531937454</v>
@@ -6059,13 +6059,13 @@
         <v>1384134.452831553</v>
       </c>
       <c r="D27" t="n">
-        <v>1391482.078456311</v>
+        <v>1383319.287233194</v>
       </c>
       <c r="E27" t="n">
-        <v>1399369.116550446</v>
+        <v>1386286.43277359</v>
       </c>
       <c r="F27" t="n">
-        <v>1398778.87733078</v>
+        <v>1375875.126190186</v>
       </c>
       <c r="G27" t="n">
         <v>1394103.343728571</v>
@@ -6082,13 +6082,13 @@
         <v>1341721.394330155</v>
       </c>
       <c r="D28" t="n">
-        <v>1347921.181207622</v>
+        <v>1348908.905915623</v>
       </c>
       <c r="E28" t="n">
-        <v>1367643.443763733</v>
+        <v>1353597.445034027</v>
       </c>
       <c r="F28" t="n">
-        <v>1344550.273769379</v>
+        <v>1364783.228755951</v>
       </c>
       <c r="G28" t="n">
         <v>1328508.473173762</v>
@@ -6105,13 +6105,13 @@
         <v>1219408.746428163</v>
       </c>
       <c r="D29" t="n">
-        <v>1280243.588349156</v>
+        <v>1278559.975178122</v>
       </c>
       <c r="E29" t="n">
-        <v>1367119.975658417</v>
+        <v>1369597.188842773</v>
       </c>
       <c r="F29" t="n">
-        <v>1373453.934890747</v>
+        <v>1369797.695865631</v>
       </c>
       <c r="G29" t="n">
         <v>1023926.285940476</v>
@@ -6128,13 +6128,13 @@
         <v>1288831.251020144</v>
       </c>
       <c r="D30" t="n">
-        <v>1318972.869665271</v>
+        <v>1317667.531136101</v>
       </c>
       <c r="E30" t="n">
-        <v>1363417.156639099</v>
+        <v>1359148.356796265</v>
       </c>
       <c r="F30" t="n">
-        <v>1358687.059909821</v>
+        <v>1360404.902980804</v>
       </c>
       <c r="G30" t="n">
         <v>1216861.580658962</v>
@@ -6151,13 +6151,13 @@
         <v>1264465.155332022</v>
       </c>
       <c r="D31" t="n">
-        <v>1307565.848257461</v>
+        <v>1301462.827795033</v>
       </c>
       <c r="E31" t="n">
-        <v>1374940.766368866</v>
+        <v>1341513.277515411</v>
       </c>
       <c r="F31" t="n">
-        <v>1357523.334774017</v>
+        <v>1370099.497428894</v>
       </c>
       <c r="G31" t="n">
         <v>1175423.021557123</v>
@@ -6174,13 +6174,13 @@
         <v>1299605.037835254</v>
       </c>
       <c r="D32" t="n">
-        <v>1311486.47310281</v>
+        <v>1315148.918970339</v>
       </c>
       <c r="E32" t="n">
-        <v>1326621.963256836</v>
+        <v>1338385.687530518</v>
       </c>
       <c r="F32" t="n">
-        <v>1337375.06628418</v>
+        <v>1343153.406562805</v>
       </c>
       <c r="G32" t="n">
         <v>1232758.849509601</v>
@@ -6197,13 +6197,13 @@
         <v>1234168.384238437</v>
       </c>
       <c r="D33" t="n">
-        <v>1276410.835165596</v>
+        <v>1273030.076291459</v>
       </c>
       <c r="E33" t="n">
-        <v>1322749.625984192</v>
+        <v>1326367.467987061</v>
       </c>
       <c r="F33" t="n">
-        <v>1350824.240680695</v>
+        <v>1336213.423206329</v>
       </c>
       <c r="G33" t="n">
         <v>1124110.560754169</v>
@@ -6220,13 +6220,13 @@
         <v>1195819.311660134</v>
       </c>
       <c r="D34" t="n">
-        <v>1264607.584355243</v>
+        <v>1259372.621839839</v>
       </c>
       <c r="E34" t="n">
-        <v>1351073.845535278</v>
+        <v>1327784.235794067</v>
       </c>
       <c r="F34" t="n">
-        <v>1370691.915546417</v>
+        <v>1379644.764743805</v>
       </c>
       <c r="G34" t="n">
         <v>1033665.542057467</v>
@@ -6243,13 +6243,13 @@
         <v>1322701.657594293</v>
       </c>
       <c r="D35" t="n">
-        <v>1337806.11532156</v>
+        <v>1324085.501178387</v>
       </c>
       <c r="E35" t="n">
-        <v>1383625.707969666</v>
+        <v>1315926.044193268</v>
       </c>
       <c r="F35" t="n">
-        <v>1335221.782581329</v>
+        <v>1346836.373401642</v>
       </c>
       <c r="G35" t="n">
         <v>1274214.417553417</v>
@@ -6266,13 +6266,13 @@
         <v>1278129.334521767</v>
       </c>
       <c r="D36" t="n">
-        <v>1314001.136667562</v>
+        <v>1309455.639832105</v>
       </c>
       <c r="E36" t="n">
-        <v>1374724.9102211</v>
+        <v>1364438.866054535</v>
       </c>
       <c r="F36" t="n">
-        <v>1349460.880081177</v>
+        <v>1342843.712547302</v>
       </c>
       <c r="G36" t="n">
         <v>1209955.11680719</v>
@@ -6289,13 +6289,13 @@
         <v>1331240.116757246</v>
       </c>
       <c r="D37" t="n">
-        <v>1341671.622459684</v>
+        <v>1358167.025178546</v>
       </c>
       <c r="E37" t="n">
-        <v>1356243.595432281</v>
+        <v>1415731.719482422</v>
       </c>
       <c r="F37" t="n">
-        <v>1362001.308811188</v>
+        <v>1374444.365016937</v>
       </c>
       <c r="G37" t="n">
         <v>1277736.564364634</v>
@@ -6312,13 +6312,13 @@
         <v>1359024.200062337</v>
       </c>
       <c r="D38" t="n">
-        <v>1363020.525301326</v>
+        <v>1358620.331017273</v>
       </c>
       <c r="E38" t="n">
-        <v>1364559.238056183</v>
+        <v>1378985.478672028</v>
       </c>
       <c r="F38" t="n">
-        <v>1377612.143562317</v>
+        <v>1342163.993255615</v>
       </c>
       <c r="G38" t="n">
         <v>1325970.472758589</v>
@@ -6335,13 +6335,13 @@
         <v>1376527.072349675</v>
       </c>
       <c r="D39" t="n">
-        <v>1369837.563020821</v>
+        <v>1360358.704294852</v>
       </c>
       <c r="E39" t="n">
-        <v>1377693.343822479</v>
+        <v>1337095.150539398</v>
       </c>
       <c r="F39" t="n">
-        <v>1345235.7550354</v>
+        <v>1344731.606491089</v>
       </c>
       <c r="G39" t="n">
         <v>1377496.923798338</v>
@@ -6358,13 +6358,13 @@
         <v>1337559.004536682</v>
       </c>
       <c r="D40" t="n">
-        <v>1332891.713813591</v>
+        <v>1334671.148765208</v>
       </c>
       <c r="E40" t="n">
-        <v>1347848.20514679</v>
+        <v>1341209.006534576</v>
       </c>
       <c r="F40" t="n">
-        <v>1313624.208076477</v>
+        <v>1328392.584075928</v>
       </c>
       <c r="G40" t="n">
         <v>1298556.431506388</v>
@@ -6381,13 +6381,13 @@
         <v>1225146.545748641</v>
       </c>
       <c r="D41" t="n">
-        <v>1258613.887909309</v>
+        <v>1268138.894973356</v>
       </c>
       <c r="E41" t="n">
-        <v>1350173.379680634</v>
+        <v>1343241.482456207</v>
       </c>
       <c r="F41" t="n">
-        <v>1281910.495018005</v>
+        <v>1336777.951431274</v>
       </c>
       <c r="G41" t="n">
         <v>1025558.01962978</v>
@@ -6404,13 +6404,13 @@
         <v>1288970.268512527</v>
       </c>
       <c r="D42" t="n">
-        <v>1305836.285118471</v>
+        <v>1292104.272196784</v>
       </c>
       <c r="E42" t="n">
-        <v>1336784.246025085</v>
+        <v>1285183.538539886</v>
       </c>
       <c r="F42" t="n">
-        <v>1332817.925624847</v>
+        <v>1328030.112312317</v>
       </c>
       <c r="G42" t="n">
         <v>1192743.532387379</v>
@@ -6427,13 +6427,13 @@
         <v>1266583.883700135</v>
       </c>
       <c r="D43" t="n">
-        <v>1292584.667156151</v>
+        <v>1286999.313925876</v>
       </c>
       <c r="E43" t="n">
-        <v>1330986.731445312</v>
+        <v>1331384.113994598</v>
       </c>
       <c r="F43" t="n">
-        <v>1336707.887760162</v>
+        <v>1313565.57151413</v>
       </c>
       <c r="G43" t="n">
         <v>1154905.927922475</v>
@@ -6450,13 +6450,13 @@
         <v>1298892.396265869</v>
       </c>
       <c r="D44" t="n">
-        <v>1306006.324100699</v>
+        <v>1303440.652944044</v>
       </c>
       <c r="E44" t="n">
-        <v>1309851.470645905</v>
+        <v>1309630.433563232</v>
       </c>
       <c r="F44" t="n">
-        <v>1335754.4504776</v>
+        <v>1325837.511608124</v>
       </c>
       <c r="G44" t="n">
         <v>1215353.98107534</v>
@@ -6473,13 +6473,13 @@
         <v>1238752.017503358</v>
       </c>
       <c r="D45" t="n">
-        <v>1267274.79946947</v>
+        <v>1264093.59121496</v>
       </c>
       <c r="E45" t="n">
-        <v>1317919.396793365</v>
+        <v>1299843.599105835</v>
       </c>
       <c r="F45" t="n">
-        <v>1310145.815536499</v>
+        <v>1318658.140007019</v>
       </c>
       <c r="G45" t="n">
         <v>1098758.388844196</v>
@@ -6496,13 +6496,13 @@
         <v>1203508.763440844</v>
       </c>
       <c r="D46" t="n">
-        <v>1253037.286103671</v>
+        <v>1230750.406773501</v>
       </c>
       <c r="E46" t="n">
-        <v>1313094.009597778</v>
+        <v>1289687.853031158</v>
       </c>
       <c r="F46" t="n">
-        <v>1343677.746227264</v>
+        <v>1272286.157920837</v>
       </c>
       <c r="G46" t="n">
         <v>1027210.786084658</v>
@@ -6519,13 +6519,13 @@
         <v>1320141.328026647</v>
       </c>
       <c r="D47" t="n">
-        <v>1317999.590002214</v>
+        <v>1318500.11062712</v>
       </c>
       <c r="E47" t="n">
-        <v>1330824.234085083</v>
+        <v>1316754.461158752</v>
       </c>
       <c r="F47" t="n">
-        <v>1312455.737785339</v>
+        <v>1330201.601917267</v>
       </c>
       <c r="G47" t="n">
         <v>1254207.869729331</v>
@@ -6542,13 +6542,13 @@
         <v>1279176.035402749</v>
       </c>
       <c r="D48" t="n">
-        <v>1314303.685207633</v>
+        <v>1299682.519145809</v>
       </c>
       <c r="E48" t="n">
-        <v>1365498.343032837</v>
+        <v>1333269.538520813</v>
       </c>
       <c r="F48" t="n">
-        <v>1363885.571258545</v>
+        <v>1335297.317707062</v>
       </c>
       <c r="G48" t="n">
         <v>1182018.131777767</v>
@@ -6565,13 +6565,13 @@
         <v>1327998.033586607</v>
       </c>
       <c r="D49" t="n">
-        <v>1336943.487644816</v>
+        <v>1322171.136053047</v>
       </c>
       <c r="E49" t="n">
-        <v>1365465.078525543</v>
+        <v>1328073.012390137</v>
       </c>
       <c r="F49" t="n">
-        <v>1340325.003463745</v>
+        <v>1313697.225364685</v>
       </c>
       <c r="G49" t="n">
         <v>1267417.578806915</v>
@@ -6588,13 +6588,13 @@
         <v>1353539.749298365</v>
       </c>
       <c r="D50" t="n">
-        <v>1345848.384671618</v>
+        <v>1341775.106902592</v>
       </c>
       <c r="E50" t="n">
-        <v>1347491.737457275</v>
+        <v>1326941.873882294</v>
       </c>
       <c r="F50" t="n">
-        <v>1335039.965660095</v>
+        <v>1338194.525558472</v>
       </c>
       <c r="G50" t="n">
         <v>1306510.995237141</v>
@@ -6611,13 +6611,13 @@
         <v>1369630.725431825</v>
       </c>
       <c r="D51" t="n">
-        <v>1351334.589832033</v>
+        <v>1360323.438291413</v>
       </c>
       <c r="E51" t="n">
-        <v>1341472.604755402</v>
+        <v>1356027.061405182</v>
       </c>
       <c r="F51" t="n">
-        <v>1319598.939682007</v>
+        <v>1343305.880992889</v>
       </c>
       <c r="G51" t="n">
         <v>1360770.220627289</v>
@@ -6634,13 +6634,13 @@
         <v>1333814.540136197</v>
       </c>
       <c r="D52" t="n">
-        <v>1331957.027678879</v>
+        <v>1327794.572637607</v>
       </c>
       <c r="E52" t="n">
-        <v>1336057.41411972</v>
+        <v>1324673.157012939</v>
       </c>
       <c r="F52" t="n">
-        <v>1336163.308555603</v>
+        <v>1329701.762748718</v>
       </c>
       <c r="G52" t="n">
         <v>1268806.66535849</v>
@@ -6657,13 +6657,13 @@
         <v>1230489.66621358</v>
       </c>
       <c r="D53" t="n">
-        <v>1262996.446573747</v>
+        <v>1258456.727472633</v>
       </c>
       <c r="E53" t="n">
-        <v>1308660.533496857</v>
+        <v>1295286.894226074</v>
       </c>
       <c r="F53" t="n">
-        <v>1333367.588924408</v>
+        <v>1331848.509757996</v>
       </c>
       <c r="G53" t="n">
         <v>1027361.254793307</v>
@@ -6680,13 +6680,13 @@
         <v>1289156.585893056</v>
       </c>
       <c r="D54" t="n">
-        <v>1298667.962323059</v>
+        <v>1293195.126581458</v>
       </c>
       <c r="E54" t="n">
-        <v>1324575.736068726</v>
+        <v>1301908.710075378</v>
       </c>
       <c r="F54" t="n">
-        <v>1318246.812511444</v>
+        <v>1319406.034591675</v>
       </c>
       <c r="G54" t="n">
         <v>1168330.067690833</v>
@@ -6703,13 +6703,13 @@
         <v>1268580.974985688</v>
       </c>
       <c r="D55" t="n">
-        <v>1294983.655540106</v>
+        <v>1274268.554312439</v>
       </c>
       <c r="E55" t="n">
-        <v>1327730.634906769</v>
+        <v>1274961.796070099</v>
       </c>
       <c r="F55" t="n">
-        <v>1350577.637863159</v>
+        <v>1316320.569965363</v>
       </c>
       <c r="G55" t="n">
         <v>1134395.641264266</v>
@@ -6726,13 +6726,13 @@
         <v>1298279.392764757</v>
       </c>
       <c r="D56" t="n">
-        <v>1301317.893048631</v>
+        <v>1297608.751596206</v>
       </c>
       <c r="E56" t="n">
-        <v>1296464.709568024</v>
+        <v>1312539.794822693</v>
       </c>
       <c r="F56" t="n">
-        <v>1333868.009132385</v>
+        <v>1300696.032367706</v>
       </c>
       <c r="G56" t="n">
         <v>1197907.962690411</v>
@@ -6749,13 +6749,13 @@
         <v>1243000.810751677</v>
       </c>
       <c r="D57" t="n">
-        <v>1255474.281488203</v>
+        <v>1261282.229847527</v>
       </c>
       <c r="E57" t="n">
-        <v>1286802.653327942</v>
+        <v>1292136.934223175</v>
       </c>
       <c r="F57" t="n">
-        <v>1286151.114448547</v>
+        <v>1309537.999874115</v>
       </c>
       <c r="G57" t="n">
         <v>1073597.589415986</v>
@@ -6772,13 +6772,13 @@
         <v>1210606.916439991</v>
       </c>
       <c r="D58" t="n">
-        <v>1258920.282869201</v>
+        <v>1248472.036079938</v>
       </c>
       <c r="E58" t="n">
-        <v>1336748.899459839</v>
+        <v>1299903.20406723</v>
       </c>
       <c r="F58" t="n">
-        <v>1330474.835708618</v>
+        <v>1328067.298835754</v>
       </c>
       <c r="G58" t="n">
         <v>1020915.769334494</v>
@@ -6795,13 +6795,13 @@
         <v>1317813.520877413</v>
       </c>
       <c r="D59" t="n">
-        <v>1314798.33286733</v>
+        <v>1311790.332065271</v>
       </c>
       <c r="E59" t="n">
-        <v>1314919.780742645</v>
+        <v>1301697.792762756</v>
       </c>
       <c r="F59" t="n">
-        <v>1324227.838710785</v>
+        <v>1325362.4634552</v>
       </c>
       <c r="G59" t="n">
         <v>1233903.252112702</v>
@@ -6818,13 +6818,13 @@
         <v>1280159.821593027</v>
       </c>
       <c r="D60" t="n">
-        <v>1290660.009736962</v>
+        <v>1294955.744616292</v>
       </c>
       <c r="E60" t="n">
-        <v>1322914.060142517</v>
+        <v>1337396.806842804</v>
       </c>
       <c r="F60" t="n">
-        <v>1306917.754150391</v>
+        <v>1312425.717414856</v>
       </c>
       <c r="G60" t="n">
         <v>1154174.745939109</v>
@@ -6841,13 +6841,13 @@
         <v>1325036.364098067</v>
       </c>
       <c r="D61" t="n">
-        <v>1326075.168141366</v>
+        <v>1324602.058659658</v>
       </c>
       <c r="E61" t="n">
-        <v>1330493.380550385</v>
+        <v>1335820.446872711</v>
       </c>
       <c r="F61" t="n">
-        <v>1337473.455627441</v>
+        <v>1325497.990901947</v>
       </c>
       <c r="G61" t="n">
         <v>1257188.948902153</v>
@@ -6864,13 +6864,13 @@
         <v>1348514.145890651</v>
       </c>
       <c r="D62" t="n">
-        <v>1318666.364804089</v>
+        <v>1319478.347611525</v>
       </c>
       <c r="E62" t="n">
-        <v>1277486.218708038</v>
+        <v>1281676.481388092</v>
       </c>
       <c r="F62" t="n">
-        <v>1302934.77728653</v>
+        <v>1300422.120697021</v>
       </c>
       <c r="G62" t="n">
         <v>1286970.432653716</v>
@@ -6887,13 +6887,13 @@
         <v>1363304.965235684</v>
       </c>
       <c r="D63" t="n">
-        <v>1346974.389422441</v>
+        <v>1346687.525122697</v>
       </c>
       <c r="E63" t="n">
-        <v>1351552.379924774</v>
+        <v>1317824.638946533</v>
       </c>
       <c r="F63" t="n">
-        <v>1306754.724170685</v>
+        <v>1340389.45042038</v>
       </c>
       <c r="G63" t="n">
         <v>1343925.596622388</v>
@@ -6910,13 +6910,13 @@
         <v>1330383.90203384</v>
       </c>
       <c r="D64" t="n">
-        <v>1313576.869987343</v>
+        <v>1307042.593212991</v>
       </c>
       <c r="E64" t="n">
-        <v>1318688.11195755</v>
+        <v>1302440.264312744</v>
       </c>
       <c r="F64" t="n">
-        <v>1286012.778644562</v>
+        <v>1272140.268604279</v>
       </c>
       <c r="G64" t="n">
         <v>1239269.370558317</v>
@@ -6933,13 +6933,13 @@
         <v>1235410.413338225</v>
       </c>
       <c r="D65" t="n">
-        <v>1252500.141355339</v>
+        <v>1266708.984154418</v>
       </c>
       <c r="E65" t="n">
-        <v>1289724.652194977</v>
+        <v>1310902.958332062</v>
       </c>
       <c r="F65" t="n">
-        <v>1295365.140869141</v>
+        <v>1341075.319046021</v>
       </c>
       <c r="G65" t="n">
         <v>1029318.46504969</v>
@@ -6956,13 +6956,13 @@
         <v>1289335.876783197</v>
       </c>
       <c r="D66" t="n">
-        <v>1284469.481407341</v>
+        <v>1283871.679147464</v>
       </c>
       <c r="E66" t="n">
-        <v>1288034.06955719</v>
+        <v>1284980.4168396</v>
       </c>
       <c r="F66" t="n">
-        <v>1298175.386486053</v>
+        <v>1299600.918304443</v>
       </c>
       <c r="G66" t="n">
         <v>1143623.824169531</v>
@@ -6979,13 +6979,13 @@
         <v>1270423.46079533</v>
       </c>
       <c r="D67" t="n">
-        <v>1278468.924298191</v>
+        <v>1266779.013307289</v>
       </c>
       <c r="E67" t="n">
-        <v>1284561.10005188</v>
+        <v>1289368.378185272</v>
       </c>
       <c r="F67" t="n">
-        <v>1322689.730503082</v>
+        <v>1265763.748233795</v>
       </c>
       <c r="G67" t="n">
         <v>1113896.738414168</v>
@@ -7002,13 +7002,13 @@
         <v>1297721.703324717</v>
       </c>
       <c r="D68" t="n">
-        <v>1303908.208964662</v>
+        <v>1293926.738905658</v>
       </c>
       <c r="E68" t="n">
-        <v>1338362.203853607</v>
+        <v>1295862.316940308</v>
       </c>
       <c r="F68" t="n">
-        <v>1305726.478061676</v>
+        <v>1306972.565536499</v>
       </c>
       <c r="G68" t="n">
         <v>1180423.6871076</v>
@@ -7025,13 +7025,13 @@
         <v>1246911.088967436</v>
       </c>
       <c r="D69" t="n">
-        <v>1254307.26455796</v>
+        <v>1248247.742186967</v>
       </c>
       <c r="E69" t="n">
-        <v>1283195.124774933</v>
+        <v>1272596.965595245</v>
       </c>
       <c r="F69" t="n">
-        <v>1281153.013282776</v>
+        <v>1266767.009647369</v>
       </c>
       <c r="G69" t="n">
         <v>1048634.420025666</v>
@@ -7048,13 +7048,13 @@
         <v>1217135.512446728</v>
       </c>
       <c r="D70" t="n">
-        <v>1248403.279915834</v>
+        <v>1243235.279848467</v>
       </c>
       <c r="E70" t="n">
-        <v>1317756.124713898</v>
+        <v>1299416.147766113</v>
       </c>
       <c r="F70" t="n">
-        <v>1290521.547771454</v>
+        <v>1290421.70582962</v>
       </c>
       <c r="G70" t="n">
         <v>1014767.83338422</v>
@@ -7102,12 +7102,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7127,13 +7127,13 @@
         <v>1382781.409753699</v>
       </c>
       <c r="D2" t="n">
-        <v>1418937.523476768</v>
+        <v>1413689.267731052</v>
       </c>
       <c r="E2" t="n">
-        <v>1467785.92824173</v>
+        <v>1445396.929615021</v>
       </c>
       <c r="F2" t="n">
-        <v>1455013.858459473</v>
+        <v>1458270.681297302</v>
       </c>
       <c r="G2" t="n">
         <v>1377828.047916109</v>
@@ -7150,13 +7150,13 @@
         <v>1404917.255988404</v>
       </c>
       <c r="D3" t="n">
-        <v>1436615.369388697</v>
+        <v>1438196.59652258</v>
       </c>
       <c r="E3" t="n">
-        <v>1473549.258335114</v>
+        <v>1494879.796802521</v>
       </c>
       <c r="F3" t="n">
-        <v>1468180.889793396</v>
+        <v>1454504.480560303</v>
       </c>
       <c r="G3" t="n">
         <v>1432087.273306251</v>
@@ -7173,13 +7173,13 @@
         <v>1353296.968879655</v>
       </c>
       <c r="D4" t="n">
-        <v>1397741.649437275</v>
+        <v>1379294.238299218</v>
       </c>
       <c r="E4" t="n">
-        <v>1438567.392169952</v>
+        <v>1400955.644710541</v>
       </c>
       <c r="F4" t="n">
-        <v>1463891.559890747</v>
+        <v>1424212.086784363</v>
       </c>
       <c r="G4" t="n">
         <v>1340123.718037497</v>
@@ -7196,13 +7196,13 @@
         <v>1206360.856637617</v>
       </c>
       <c r="D5" t="n">
-        <v>1305718.686447338</v>
+        <v>1303116.891016276</v>
       </c>
       <c r="E5" t="n">
-        <v>1422878.552875519</v>
+        <v>1413901.009502411</v>
       </c>
       <c r="F5" t="n">
-        <v>1441806.97750473</v>
+        <v>1449484.445156097</v>
       </c>
       <c r="G5" t="n">
         <v>1098678.307472316</v>
@@ -7219,13 +7219,13 @@
         <v>1289166.021770413</v>
       </c>
       <c r="D6" t="n">
-        <v>1356738.219985148</v>
+        <v>1357726.652212716</v>
       </c>
       <c r="E6" t="n">
-        <v>1406863.072582245</v>
+        <v>1447711.88753891</v>
       </c>
       <c r="F6" t="n">
-        <v>1475884.746318817</v>
+        <v>1443132.376861572</v>
       </c>
       <c r="G6" t="n">
         <v>1239647.120369824</v>
@@ -7242,13 +7242,13 @@
         <v>1257683.641505286</v>
       </c>
       <c r="D7" t="n">
-        <v>1335979.34121594</v>
+        <v>1348224.501922949</v>
       </c>
       <c r="E7" t="n">
-        <v>1412760.768043518</v>
+        <v>1434278.643306732</v>
       </c>
       <c r="F7" t="n">
-        <v>1453117.152084351</v>
+        <v>1494262.829769135</v>
       </c>
       <c r="G7" t="n">
         <v>1205712.693943207</v>
@@ -7265,13 +7265,13 @@
         <v>1307159.161423223</v>
       </c>
       <c r="D8" t="n">
-        <v>1366723.569729521</v>
+        <v>1364379.413776542</v>
       </c>
       <c r="E8" t="n">
-        <v>1436244.977573395</v>
+        <v>1433958.200061798</v>
       </c>
       <c r="F8" t="n">
-        <v>1443734.914749146</v>
+        <v>1441020.73431778</v>
       </c>
       <c r="G8" t="n">
         <v>1269225.015369395</v>
@@ -7288,13 +7288,13 @@
         <v>1220488.476538344</v>
       </c>
       <c r="D9" t="n">
-        <v>1312726.001715995</v>
+        <v>1308152.228079648</v>
       </c>
       <c r="E9" t="n">
-        <v>1428026.029594421</v>
+        <v>1401208.39686203</v>
       </c>
       <c r="F9" t="n">
-        <v>1427244.967342377</v>
+        <v>1444171.178520203</v>
       </c>
       <c r="G9" t="n">
         <v>1144914.642095032</v>
@@ -7311,13 +7311,13 @@
         <v>1175799.278506254</v>
       </c>
       <c r="D10" t="n">
-        <v>1286772.665081039</v>
+        <v>1290860.161018956</v>
       </c>
       <c r="E10" t="n">
-        <v>1406248.090766907</v>
+        <v>1439365.788764954</v>
       </c>
       <c r="F10" t="n">
-        <v>1443490.006629944</v>
+        <v>1437053.203418732</v>
       </c>
       <c r="G10" t="n">
         <v>1092232.822013451</v>
@@ -7334,13 +7334,13 @@
         <v>1331987.453571501</v>
       </c>
       <c r="D11" t="n">
-        <v>1390355.589214734</v>
+        <v>1382926.975089026</v>
       </c>
       <c r="E11" t="n">
-        <v>1449585.255496979</v>
+        <v>1457965.829277039</v>
       </c>
       <c r="F11" t="n">
-        <v>1473170.517467499</v>
+        <v>1435254.402187347</v>
       </c>
       <c r="G11" t="n">
         <v>1305220.304791636</v>
@@ -7357,13 +7357,13 @@
         <v>1272006.094293493</v>
       </c>
       <c r="D12" t="n">
-        <v>1346481.592529004</v>
+        <v>1346003.131877577</v>
       </c>
       <c r="E12" t="n">
-        <v>1462926.017620087</v>
+        <v>1447969.433265686</v>
       </c>
       <c r="F12" t="n">
-        <v>1411281.63533783</v>
+        <v>1431379.740756989</v>
       </c>
       <c r="G12" t="n">
         <v>1225491.798618015</v>
@@ -7380,13 +7380,13 @@
         <v>1340917.962383393</v>
       </c>
       <c r="D13" t="n">
-        <v>1399870.718589679</v>
+        <v>1385387.535047546</v>
       </c>
       <c r="E13" t="n">
-        <v>1492167.359489441</v>
+        <v>1450678.72328186</v>
       </c>
       <c r="F13" t="n">
-        <v>1446146.809417725</v>
+        <v>1428990.361366272</v>
       </c>
       <c r="G13" t="n">
         <v>1328506.001581081</v>
@@ -7403,13 +7403,13 @@
         <v>1372416.632583388</v>
       </c>
       <c r="D14" t="n">
-        <v>1420831.250266582</v>
+        <v>1398517.153602825</v>
       </c>
       <c r="E14" t="n">
-        <v>1473017.94619751</v>
+        <v>1410514.22751236</v>
       </c>
       <c r="F14" t="n">
-        <v>1484664.348926544</v>
+        <v>1454539.730285645</v>
       </c>
       <c r="G14" t="n">
         <v>1358287.485332709</v>
@@ -7426,13 +7426,13 @@
         <v>1393225.83071857</v>
       </c>
       <c r="D15" t="n">
-        <v>1423350.874651055</v>
+        <v>1418644.443675932</v>
       </c>
       <c r="E15" t="n">
-        <v>1466847.597984314</v>
+        <v>1430961.005008698</v>
       </c>
       <c r="F15" t="n">
-        <v>1445207.849700928</v>
+        <v>1464939.706600189</v>
       </c>
       <c r="G15" t="n">
         <v>1415242.64930126</v>
@@ -7449,13 +7449,13 @@
         <v>1346883.59679675</v>
       </c>
       <c r="D16" t="n">
-        <v>1400600.935134333</v>
+        <v>1388693.441926366</v>
       </c>
       <c r="E16" t="n">
-        <v>1464652.043663025</v>
+        <v>1428614.235176086</v>
       </c>
       <c r="F16" t="n">
-        <v>1469034.291454315</v>
+        <v>1458530.599601746</v>
       </c>
       <c r="G16" t="n">
         <v>1310586.423237367</v>
@@ -7472,13 +7472,13 @@
         <v>1213716.956639699</v>
       </c>
       <c r="D17" t="n">
-        <v>1304943.514015802</v>
+        <v>1302562.919593938</v>
       </c>
       <c r="E17" t="n">
-        <v>1421472.6795578</v>
+        <v>1407643.021175385</v>
       </c>
       <c r="F17" t="n">
-        <v>1423240.879379272</v>
+        <v>1436276.741062164</v>
       </c>
       <c r="G17" t="n">
         <v>1100635.51772866</v>
@@ -7495,13 +7495,13 @@
         <v>1289143.409655113</v>
       </c>
       <c r="D18" t="n">
-        <v>1352372.174098197</v>
+        <v>1349991.402023273</v>
       </c>
       <c r="E18" t="n">
-        <v>1417073.339523315</v>
+        <v>1408142.860343933</v>
       </c>
       <c r="F18" t="n">
-        <v>1450565.081653595</v>
+        <v>1456092.26763916</v>
       </c>
       <c r="G18" t="n">
         <v>1214940.876848544</v>
@@ -7518,13 +7518,13 @@
         <v>1262553.582085946</v>
       </c>
       <c r="D19" t="n">
-        <v>1322422.295010196</v>
+        <v>1338612.902042205</v>
       </c>
       <c r="E19" t="n">
-        <v>1375872.608352661</v>
+        <v>1435016.46654129</v>
       </c>
       <c r="F19" t="n">
-        <v>1425100.641330719</v>
+        <v>1441867.792964935</v>
       </c>
       <c r="G19" t="n">
         <v>1185213.791093153</v>
@@ -7541,13 +7541,13 @@
         <v>1300713.605451351</v>
       </c>
       <c r="D20" t="n">
-        <v>1350458.19350636</v>
+        <v>1343725.158822913</v>
       </c>
       <c r="E20" t="n">
-        <v>1446031.230991364</v>
+        <v>1427846.827350616</v>
       </c>
       <c r="F20" t="n">
-        <v>1378452.423416138</v>
+        <v>1370627.662269592</v>
       </c>
       <c r="G20" t="n">
         <v>1251740.739786566</v>
@@ -7564,13 +7564,13 @@
         <v>1229464.176577253</v>
       </c>
       <c r="D21" t="n">
-        <v>1295588.518718429</v>
+        <v>1296836.550084722</v>
       </c>
       <c r="E21" t="n">
-        <v>1403678.492313385</v>
+        <v>1384710.992782593</v>
       </c>
       <c r="F21" t="n">
-        <v>1361795.814533234</v>
+        <v>1394239.167854309</v>
       </c>
       <c r="G21" t="n">
         <v>1119951.472704615</v>
@@ -7587,13 +7587,13 @@
         <v>1187693.090833223</v>
       </c>
       <c r="D22" t="n">
-        <v>1283480.353389806</v>
+        <v>1268089.514300532</v>
       </c>
       <c r="E22" t="n">
-        <v>1377681.432514191</v>
+        <v>1381131.015182495</v>
       </c>
       <c r="F22" t="n">
-        <v>1434120.164802551</v>
+        <v>1369166.251266479</v>
       </c>
       <c r="G22" t="n">
         <v>1086084.886063207</v>
@@ -7610,13 +7610,13 @@
         <v>1325689.977555347</v>
       </c>
       <c r="D23" t="n">
-        <v>1356119.161566251</v>
+        <v>1363559.207842478</v>
       </c>
       <c r="E23" t="n">
-        <v>1403596.856273651</v>
+        <v>1390486.766803741</v>
       </c>
       <c r="F23" t="n">
-        <v>1385256.443546295</v>
+        <v>1436742.9283638</v>
       </c>
       <c r="G23" t="n">
         <v>1293921.43220102</v>
@@ -7633,13 +7633,13 @@
         <v>1277162.510307874</v>
       </c>
       <c r="D24" t="n">
-        <v>1332796.895983752</v>
+        <v>1322096.766207241</v>
       </c>
       <c r="E24" t="n">
-        <v>1385159.071022034</v>
+        <v>1386530.808273315</v>
       </c>
       <c r="F24" t="n">
-        <v>1418812.632633209</v>
+        <v>1373485.601539612</v>
       </c>
       <c r="G24" t="n">
         <v>1237975.525327319</v>
@@ -7656,13 +7656,13 @@
         <v>1334912.968781109</v>
       </c>
       <c r="D25" t="n">
-        <v>1355809.27049064</v>
+        <v>1371068.126408143</v>
       </c>
       <c r="E25" t="n">
-        <v>1399391.87392807</v>
+        <v>1443043.28414917</v>
       </c>
       <c r="F25" t="n">
-        <v>1369170.51222229</v>
+        <v>1393474.61680603</v>
       </c>
       <c r="G25" t="n">
         <v>1288152.296533135</v>
@@ -7679,13 +7679,13 @@
         <v>1365114.368985848</v>
       </c>
       <c r="D26" t="n">
-        <v>1363681.663452058</v>
+        <v>1365245.756746852</v>
       </c>
       <c r="E26" t="n">
-        <v>1386530.130393982</v>
+        <v>1368381.896457672</v>
       </c>
       <c r="F26" t="n">
-        <v>1339965.049537659</v>
+        <v>1366306.568878174</v>
       </c>
       <c r="G26" t="n">
         <v>1345349.531937454</v>
@@ -7702,13 +7702,13 @@
         <v>1384134.452831553</v>
       </c>
       <c r="D27" t="n">
-        <v>1391482.078456311</v>
+        <v>1383319.287233194</v>
       </c>
       <c r="E27" t="n">
-        <v>1399369.116550446</v>
+        <v>1386286.43277359</v>
       </c>
       <c r="F27" t="n">
-        <v>1398778.87733078</v>
+        <v>1375875.126190186</v>
       </c>
       <c r="G27" t="n">
         <v>1394103.343728571</v>
@@ -7725,13 +7725,13 @@
         <v>1341721.394330155</v>
       </c>
       <c r="D28" t="n">
-        <v>1347921.181207622</v>
+        <v>1348908.905915623</v>
       </c>
       <c r="E28" t="n">
-        <v>1367643.443763733</v>
+        <v>1353597.445034027</v>
       </c>
       <c r="F28" t="n">
-        <v>1344550.273769379</v>
+        <v>1364783.228755951</v>
       </c>
       <c r="G28" t="n">
         <v>1328508.473173762</v>
@@ -7748,13 +7748,13 @@
         <v>1219408.746428163</v>
       </c>
       <c r="D29" t="n">
-        <v>1280243.588349156</v>
+        <v>1278559.975178122</v>
       </c>
       <c r="E29" t="n">
-        <v>1367119.975658417</v>
+        <v>1369597.188842773</v>
       </c>
       <c r="F29" t="n">
-        <v>1373453.934890747</v>
+        <v>1369797.695865631</v>
       </c>
       <c r="G29" t="n">
         <v>1023926.285940476</v>
@@ -7771,13 +7771,13 @@
         <v>1288831.251020144</v>
       </c>
       <c r="D30" t="n">
-        <v>1318972.869665271</v>
+        <v>1317667.531136101</v>
       </c>
       <c r="E30" t="n">
-        <v>1363417.156639099</v>
+        <v>1359148.356796265</v>
       </c>
       <c r="F30" t="n">
-        <v>1358687.059909821</v>
+        <v>1360404.902980804</v>
       </c>
       <c r="G30" t="n">
         <v>1216861.580658962</v>
@@ -7794,13 +7794,13 @@
         <v>1264465.155332022</v>
       </c>
       <c r="D31" t="n">
-        <v>1307565.848257461</v>
+        <v>1301462.827795033</v>
       </c>
       <c r="E31" t="n">
-        <v>1374940.766368866</v>
+        <v>1341513.277515411</v>
       </c>
       <c r="F31" t="n">
-        <v>1357523.334774017</v>
+        <v>1370099.497428894</v>
       </c>
       <c r="G31" t="n">
         <v>1175423.021557123</v>
@@ -7817,13 +7817,13 @@
         <v>1299605.037835254</v>
       </c>
       <c r="D32" t="n">
-        <v>1311486.47310281</v>
+        <v>1315148.918970339</v>
       </c>
       <c r="E32" t="n">
-        <v>1326621.963256836</v>
+        <v>1338385.687530518</v>
       </c>
       <c r="F32" t="n">
-        <v>1337375.06628418</v>
+        <v>1343153.406562805</v>
       </c>
       <c r="G32" t="n">
         <v>1232758.849509601</v>
@@ -7840,13 +7840,13 @@
         <v>1234168.384238437</v>
       </c>
       <c r="D33" t="n">
-        <v>1276410.835165596</v>
+        <v>1273030.076291459</v>
       </c>
       <c r="E33" t="n">
-        <v>1322749.625984192</v>
+        <v>1326367.467987061</v>
       </c>
       <c r="F33" t="n">
-        <v>1350824.240680695</v>
+        <v>1336213.423206329</v>
       </c>
       <c r="G33" t="n">
         <v>1124110.560754169</v>
@@ -7863,13 +7863,13 @@
         <v>1195819.311660134</v>
       </c>
       <c r="D34" t="n">
-        <v>1264607.584355243</v>
+        <v>1259372.621839839</v>
       </c>
       <c r="E34" t="n">
-        <v>1351073.845535278</v>
+        <v>1327784.235794067</v>
       </c>
       <c r="F34" t="n">
-        <v>1370691.915546417</v>
+        <v>1379644.764743805</v>
       </c>
       <c r="G34" t="n">
         <v>1033665.542057467</v>
@@ -7886,13 +7886,13 @@
         <v>1322701.657594293</v>
       </c>
       <c r="D35" t="n">
-        <v>1337806.11532156</v>
+        <v>1324085.501178387</v>
       </c>
       <c r="E35" t="n">
-        <v>1383625.707969666</v>
+        <v>1315926.044193268</v>
       </c>
       <c r="F35" t="n">
-        <v>1335221.782581329</v>
+        <v>1346836.373401642</v>
       </c>
       <c r="G35" t="n">
         <v>1274214.417553417</v>
@@ -7909,13 +7909,13 @@
         <v>1278129.334521767</v>
       </c>
       <c r="D36" t="n">
-        <v>1314001.136667562</v>
+        <v>1309455.639832105</v>
       </c>
       <c r="E36" t="n">
-        <v>1374724.9102211</v>
+        <v>1364438.866054535</v>
       </c>
       <c r="F36" t="n">
-        <v>1349460.880081177</v>
+        <v>1342843.712547302</v>
       </c>
       <c r="G36" t="n">
         <v>1209955.11680719</v>
@@ -7932,13 +7932,13 @@
         <v>1331240.116757246</v>
       </c>
       <c r="D37" t="n">
-        <v>1341671.622459684</v>
+        <v>1358167.025178546</v>
       </c>
       <c r="E37" t="n">
-        <v>1356243.595432281</v>
+        <v>1415731.719482422</v>
       </c>
       <c r="F37" t="n">
-        <v>1362001.308811188</v>
+        <v>1374444.365016937</v>
       </c>
       <c r="G37" t="n">
         <v>1277736.564364634</v>
@@ -7955,13 +7955,13 @@
         <v>1359024.200062337</v>
       </c>
       <c r="D38" t="n">
-        <v>1363020.525301326</v>
+        <v>1358620.331017273</v>
       </c>
       <c r="E38" t="n">
-        <v>1364559.238056183</v>
+        <v>1378985.478672028</v>
       </c>
       <c r="F38" t="n">
-        <v>1377612.143562317</v>
+        <v>1342163.993255615</v>
       </c>
       <c r="G38" t="n">
         <v>1325970.472758589</v>
@@ -7978,13 +7978,13 @@
         <v>1376527.072349675</v>
       </c>
       <c r="D39" t="n">
-        <v>1369837.563020821</v>
+        <v>1360358.704294852</v>
       </c>
       <c r="E39" t="n">
-        <v>1377693.343822479</v>
+        <v>1337095.150539398</v>
       </c>
       <c r="F39" t="n">
-        <v>1345235.7550354</v>
+        <v>1344731.606491089</v>
       </c>
       <c r="G39" t="n">
         <v>1377496.923798338</v>
@@ -8001,13 +8001,13 @@
         <v>1337559.004536682</v>
       </c>
       <c r="D40" t="n">
-        <v>1332891.713813591</v>
+        <v>1334671.148765208</v>
       </c>
       <c r="E40" t="n">
-        <v>1347848.20514679</v>
+        <v>1341209.006534576</v>
       </c>
       <c r="F40" t="n">
-        <v>1313624.208076477</v>
+        <v>1328392.584075928</v>
       </c>
       <c r="G40" t="n">
         <v>1298556.431506388</v>
@@ -8024,13 +8024,13 @@
         <v>1225146.545748641</v>
       </c>
       <c r="D41" t="n">
-        <v>1258613.887909309</v>
+        <v>1268138.894973356</v>
       </c>
       <c r="E41" t="n">
-        <v>1350173.379680634</v>
+        <v>1343241.482456207</v>
       </c>
       <c r="F41" t="n">
-        <v>1281910.495018005</v>
+        <v>1336777.951431274</v>
       </c>
       <c r="G41" t="n">
         <v>1025558.01962978</v>
@@ -8047,13 +8047,13 @@
         <v>1288970.268512527</v>
       </c>
       <c r="D42" t="n">
-        <v>1305836.285118471</v>
+        <v>1292104.272196784</v>
       </c>
       <c r="E42" t="n">
-        <v>1336784.246025085</v>
+        <v>1285183.538539886</v>
       </c>
       <c r="F42" t="n">
-        <v>1332817.925624847</v>
+        <v>1328030.112312317</v>
       </c>
       <c r="G42" t="n">
         <v>1192743.532387379</v>
@@ -8070,13 +8070,13 @@
         <v>1266583.883700135</v>
       </c>
       <c r="D43" t="n">
-        <v>1292584.667156151</v>
+        <v>1286999.313925876</v>
       </c>
       <c r="E43" t="n">
-        <v>1330986.731445312</v>
+        <v>1331384.113994598</v>
       </c>
       <c r="F43" t="n">
-        <v>1336707.887760162</v>
+        <v>1313565.57151413</v>
       </c>
       <c r="G43" t="n">
         <v>1154905.927922475</v>
@@ -8093,13 +8093,13 @@
         <v>1298892.396265869</v>
       </c>
       <c r="D44" t="n">
-        <v>1306006.324100699</v>
+        <v>1303440.652944044</v>
       </c>
       <c r="E44" t="n">
-        <v>1309851.470645905</v>
+        <v>1309630.433563232</v>
       </c>
       <c r="F44" t="n">
-        <v>1335754.4504776</v>
+        <v>1325837.511608124</v>
       </c>
       <c r="G44" t="n">
         <v>1215353.98107534</v>
@@ -8116,13 +8116,13 @@
         <v>1238752.017503358</v>
       </c>
       <c r="D45" t="n">
-        <v>1267274.79946947</v>
+        <v>1264093.59121496</v>
       </c>
       <c r="E45" t="n">
-        <v>1317919.396793365</v>
+        <v>1299843.599105835</v>
       </c>
       <c r="F45" t="n">
-        <v>1310145.815536499</v>
+        <v>1318658.140007019</v>
       </c>
       <c r="G45" t="n">
         <v>1098758.388844196</v>
@@ -8139,13 +8139,13 @@
         <v>1203508.763440844</v>
       </c>
       <c r="D46" t="n">
-        <v>1253037.286103671</v>
+        <v>1230750.406773501</v>
       </c>
       <c r="E46" t="n">
-        <v>1313094.009597778</v>
+        <v>1289687.853031158</v>
       </c>
       <c r="F46" t="n">
-        <v>1343677.746227264</v>
+        <v>1272286.157920837</v>
       </c>
       <c r="G46" t="n">
         <v>1027210.786084658</v>
@@ -8162,13 +8162,13 @@
         <v>1320141.328026647</v>
       </c>
       <c r="D47" t="n">
-        <v>1317999.590002214</v>
+        <v>1318500.11062712</v>
       </c>
       <c r="E47" t="n">
-        <v>1330824.234085083</v>
+        <v>1316754.461158752</v>
       </c>
       <c r="F47" t="n">
-        <v>1312455.737785339</v>
+        <v>1330201.601917267</v>
       </c>
       <c r="G47" t="n">
         <v>1254207.869729331</v>
@@ -8185,13 +8185,13 @@
         <v>1279176.035402749</v>
       </c>
       <c r="D48" t="n">
-        <v>1314303.685207633</v>
+        <v>1299682.519145809</v>
       </c>
       <c r="E48" t="n">
-        <v>1365498.343032837</v>
+        <v>1333269.538520813</v>
       </c>
       <c r="F48" t="n">
-        <v>1363885.571258545</v>
+        <v>1335297.317707062</v>
       </c>
       <c r="G48" t="n">
         <v>1182018.131777767</v>
@@ -8208,13 +8208,13 @@
         <v>1327998.033586607</v>
       </c>
       <c r="D49" t="n">
-        <v>1336943.487644816</v>
+        <v>1322171.136053047</v>
       </c>
       <c r="E49" t="n">
-        <v>1365465.078525543</v>
+        <v>1328073.012390137</v>
       </c>
       <c r="F49" t="n">
-        <v>1340325.003463745</v>
+        <v>1313697.225364685</v>
       </c>
       <c r="G49" t="n">
         <v>1267417.578806915</v>
@@ -8231,13 +8231,13 @@
         <v>1353539.749298365</v>
       </c>
       <c r="D50" t="n">
-        <v>1345848.384671618</v>
+        <v>1341775.106902592</v>
       </c>
       <c r="E50" t="n">
-        <v>1347491.737457275</v>
+        <v>1326941.873882294</v>
       </c>
       <c r="F50" t="n">
-        <v>1335039.965660095</v>
+        <v>1338194.525558472</v>
       </c>
       <c r="G50" t="n">
         <v>1306510.995237141</v>
@@ -8254,13 +8254,13 @@
         <v>1369630.725431825</v>
       </c>
       <c r="D51" t="n">
-        <v>1351334.589832033</v>
+        <v>1360323.438291413</v>
       </c>
       <c r="E51" t="n">
-        <v>1341472.604755402</v>
+        <v>1356027.061405182</v>
       </c>
       <c r="F51" t="n">
-        <v>1319598.939682007</v>
+        <v>1343305.880992889</v>
       </c>
       <c r="G51" t="n">
         <v>1360770.220627289</v>
@@ -8277,13 +8277,13 @@
         <v>1333814.540136197</v>
       </c>
       <c r="D52" t="n">
-        <v>1331957.027678879</v>
+        <v>1327794.572637607</v>
       </c>
       <c r="E52" t="n">
-        <v>1336057.41411972</v>
+        <v>1324673.157012939</v>
       </c>
       <c r="F52" t="n">
-        <v>1336163.308555603</v>
+        <v>1329701.762748718</v>
       </c>
       <c r="G52" t="n">
         <v>1268806.66535849</v>
@@ -8300,13 +8300,13 @@
         <v>1230489.66621358</v>
       </c>
       <c r="D53" t="n">
-        <v>1262996.446573747</v>
+        <v>1258456.727472633</v>
       </c>
       <c r="E53" t="n">
-        <v>1308660.533496857</v>
+        <v>1295286.894226074</v>
       </c>
       <c r="F53" t="n">
-        <v>1333367.588924408</v>
+        <v>1331848.509757996</v>
       </c>
       <c r="G53" t="n">
         <v>1027361.254793307</v>
@@ -8323,13 +8323,13 @@
         <v>1289156.585893056</v>
       </c>
       <c r="D54" t="n">
-        <v>1298667.962323059</v>
+        <v>1293195.126581458</v>
       </c>
       <c r="E54" t="n">
-        <v>1324575.736068726</v>
+        <v>1301908.710075378</v>
       </c>
       <c r="F54" t="n">
-        <v>1318246.812511444</v>
+        <v>1319406.034591675</v>
       </c>
       <c r="G54" t="n">
         <v>1168330.067690833</v>
@@ -8346,13 +8346,13 @@
         <v>1268580.974985688</v>
       </c>
       <c r="D55" t="n">
-        <v>1294983.655540106</v>
+        <v>1274268.554312439</v>
       </c>
       <c r="E55" t="n">
-        <v>1327730.634906769</v>
+        <v>1274961.796070099</v>
       </c>
       <c r="F55" t="n">
-        <v>1350577.637863159</v>
+        <v>1316320.569965363</v>
       </c>
       <c r="G55" t="n">
         <v>1134395.641264266</v>
@@ -8369,13 +8369,13 @@
         <v>1298279.392764757</v>
       </c>
       <c r="D56" t="n">
-        <v>1301317.893048631</v>
+        <v>1297608.751596206</v>
       </c>
       <c r="E56" t="n">
-        <v>1296464.709568024</v>
+        <v>1312539.794822693</v>
       </c>
       <c r="F56" t="n">
-        <v>1333868.009132385</v>
+        <v>1300696.032367706</v>
       </c>
       <c r="G56" t="n">
         <v>1197907.962690411</v>
@@ -8392,13 +8392,13 @@
         <v>1243000.810751677</v>
       </c>
       <c r="D57" t="n">
-        <v>1255474.281488203</v>
+        <v>1261282.229847527</v>
       </c>
       <c r="E57" t="n">
-        <v>1286802.653327942</v>
+        <v>1292136.934223175</v>
       </c>
       <c r="F57" t="n">
-        <v>1286151.114448547</v>
+        <v>1309537.999874115</v>
       </c>
       <c r="G57" t="n">
         <v>1073597.589415986</v>
@@ -8415,13 +8415,13 @@
         <v>1210606.916439991</v>
       </c>
       <c r="D58" t="n">
-        <v>1258920.282869201</v>
+        <v>1248472.036079938</v>
       </c>
       <c r="E58" t="n">
-        <v>1336748.899459839</v>
+        <v>1299903.20406723</v>
       </c>
       <c r="F58" t="n">
-        <v>1330474.835708618</v>
+        <v>1328067.298835754</v>
       </c>
       <c r="G58" t="n">
         <v>1020915.769334494</v>
@@ -8438,13 +8438,13 @@
         <v>1317813.520877413</v>
       </c>
       <c r="D59" t="n">
-        <v>1314798.33286733</v>
+        <v>1311790.332065271</v>
       </c>
       <c r="E59" t="n">
-        <v>1314919.780742645</v>
+        <v>1301697.792762756</v>
       </c>
       <c r="F59" t="n">
-        <v>1324227.838710785</v>
+        <v>1325362.4634552</v>
       </c>
       <c r="G59" t="n">
         <v>1233903.252112702</v>
@@ -8461,13 +8461,13 @@
         <v>1280159.821593027</v>
       </c>
       <c r="D60" t="n">
-        <v>1290660.009736962</v>
+        <v>1294955.744616292</v>
       </c>
       <c r="E60" t="n">
-        <v>1322914.060142517</v>
+        <v>1337396.806842804</v>
       </c>
       <c r="F60" t="n">
-        <v>1306917.754150391</v>
+        <v>1312425.717414856</v>
       </c>
       <c r="G60" t="n">
         <v>1154174.745939109</v>
@@ -8484,13 +8484,13 @@
         <v>1325036.364098067</v>
       </c>
       <c r="D61" t="n">
-        <v>1326075.168141366</v>
+        <v>1324602.058659658</v>
       </c>
       <c r="E61" t="n">
-        <v>1330493.380550385</v>
+        <v>1335820.446872711</v>
       </c>
       <c r="F61" t="n">
-        <v>1337473.455627441</v>
+        <v>1325497.990901947</v>
       </c>
       <c r="G61" t="n">
         <v>1257188.948902153</v>
@@ -8507,13 +8507,13 @@
         <v>1348514.145890651</v>
       </c>
       <c r="D62" t="n">
-        <v>1318666.364804089</v>
+        <v>1319478.347611525</v>
       </c>
       <c r="E62" t="n">
-        <v>1277486.218708038</v>
+        <v>1281676.481388092</v>
       </c>
       <c r="F62" t="n">
-        <v>1302934.77728653</v>
+        <v>1300422.120697021</v>
       </c>
       <c r="G62" t="n">
         <v>1286970.432653716</v>
@@ -8530,13 +8530,13 @@
         <v>1363304.965235684</v>
       </c>
       <c r="D63" t="n">
-        <v>1346974.389422441</v>
+        <v>1346687.525122697</v>
       </c>
       <c r="E63" t="n">
-        <v>1351552.379924774</v>
+        <v>1317824.638946533</v>
       </c>
       <c r="F63" t="n">
-        <v>1306754.724170685</v>
+        <v>1340389.45042038</v>
       </c>
       <c r="G63" t="n">
         <v>1343925.596622388</v>
@@ -8553,13 +8553,13 @@
         <v>1330383.90203384</v>
       </c>
       <c r="D64" t="n">
-        <v>1313576.869987343</v>
+        <v>1307042.593212991</v>
       </c>
       <c r="E64" t="n">
-        <v>1318688.11195755</v>
+        <v>1302440.264312744</v>
       </c>
       <c r="F64" t="n">
-        <v>1286012.778644562</v>
+        <v>1272140.268604279</v>
       </c>
       <c r="G64" t="n">
         <v>1239269.370558317</v>
@@ -8576,13 +8576,13 @@
         <v>1235410.413338225</v>
       </c>
       <c r="D65" t="n">
-        <v>1252500.141355339</v>
+        <v>1266708.984154418</v>
       </c>
       <c r="E65" t="n">
-        <v>1289724.652194977</v>
+        <v>1310902.958332062</v>
       </c>
       <c r="F65" t="n">
-        <v>1295365.140869141</v>
+        <v>1341075.319046021</v>
       </c>
       <c r="G65" t="n">
         <v>1029318.46504969</v>
@@ -8599,13 +8599,13 @@
         <v>1289335.876783197</v>
       </c>
       <c r="D66" t="n">
-        <v>1284469.481407341</v>
+        <v>1283871.679147464</v>
       </c>
       <c r="E66" t="n">
-        <v>1288034.06955719</v>
+        <v>1284980.4168396</v>
       </c>
       <c r="F66" t="n">
-        <v>1298175.386486053</v>
+        <v>1299600.918304443</v>
       </c>
       <c r="G66" t="n">
         <v>1143623.824169531</v>
@@ -8622,13 +8622,13 @@
         <v>1270423.46079533</v>
       </c>
       <c r="D67" t="n">
-        <v>1278468.924298191</v>
+        <v>1266779.013307289</v>
       </c>
       <c r="E67" t="n">
-        <v>1284561.10005188</v>
+        <v>1289368.378185272</v>
       </c>
       <c r="F67" t="n">
-        <v>1322689.730503082</v>
+        <v>1265763.748233795</v>
       </c>
       <c r="G67" t="n">
         <v>1113896.738414168</v>
@@ -8645,13 +8645,13 @@
         <v>1297721.703324717</v>
       </c>
       <c r="D68" t="n">
-        <v>1303908.208964662</v>
+        <v>1293926.738905658</v>
       </c>
       <c r="E68" t="n">
-        <v>1338362.203853607</v>
+        <v>1295862.316940308</v>
       </c>
       <c r="F68" t="n">
-        <v>1305726.478061676</v>
+        <v>1306972.565536499</v>
       </c>
       <c r="G68" t="n">
         <v>1180423.6871076</v>
@@ -8668,13 +8668,13 @@
         <v>1246911.088967436</v>
       </c>
       <c r="D69" t="n">
-        <v>1254307.26455796</v>
+        <v>1248247.742186967</v>
       </c>
       <c r="E69" t="n">
-        <v>1283195.124774933</v>
+        <v>1272596.965595245</v>
       </c>
       <c r="F69" t="n">
-        <v>1281153.013282776</v>
+        <v>1266767.009647369</v>
       </c>
       <c r="G69" t="n">
         <v>1048634.420025666</v>
@@ -8691,13 +8691,13 @@
         <v>1217135.512446728</v>
       </c>
       <c r="D70" t="n">
-        <v>1248403.279915834</v>
+        <v>1243235.279848467</v>
       </c>
       <c r="E70" t="n">
-        <v>1317756.124713898</v>
+        <v>1299416.147766113</v>
       </c>
       <c r="F70" t="n">
-        <v>1290521.547771454</v>
+        <v>1290421.70582962</v>
       </c>
       <c r="G70" t="n">
         <v>1014767.83338422</v>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -8762,13 +8762,13 @@
         <v>1461956.016518393</v>
       </c>
       <c r="C2" t="n">
-        <v>1415013.29082404</v>
+        <v>1415345.528615567</v>
       </c>
       <c r="D2" t="n">
-        <v>1369413.241443634</v>
+        <v>1354683.601406097</v>
       </c>
       <c r="E2" t="n">
-        <v>1349696.733669281</v>
+        <v>1362923.951004028</v>
       </c>
       <c r="F2" t="n">
         <v>1466274.626851014</v>
@@ -8782,13 +8782,13 @@
         <v>1408948.284395932</v>
       </c>
       <c r="C3" t="n">
-        <v>1378805.567087656</v>
+        <v>1384331.364000435</v>
       </c>
       <c r="D3" t="n">
-        <v>1357821.020641327</v>
+        <v>1352169.831157684</v>
       </c>
       <c r="E3" t="n">
-        <v>1329120.190700531</v>
+        <v>1357790.080291748</v>
       </c>
       <c r="F3" t="n">
         <v>1406459.506398476</v>
@@ -8802,13 +8802,13 @@
         <v>1483206.192771547</v>
       </c>
       <c r="C4" t="n">
-        <v>1425469.616692702</v>
+        <v>1424191.693812003</v>
       </c>
       <c r="D4" t="n">
-        <v>1363067.516162872</v>
+        <v>1352857.588161469</v>
       </c>
       <c r="E4" t="n">
-        <v>1354231.988510132</v>
+        <v>1354361.608722687</v>
       </c>
       <c r="F4" t="n">
         <v>1476542.642662393</v>
@@ -8822,13 +8822,13 @@
         <v>1509710.30509284</v>
       </c>
       <c r="C5" t="n">
-        <v>1436785.900231455</v>
+        <v>1441508.113708484</v>
       </c>
       <c r="D5" t="n">
-        <v>1357777.442684174</v>
+        <v>1362628.637714386</v>
       </c>
       <c r="E5" t="n">
-        <v>1339645.913631439</v>
+        <v>1349258.872039795</v>
       </c>
       <c r="F5" t="n">
         <v>1538074.174295384</v>
@@ -8842,13 +8842,13 @@
         <v>1537256.542083192</v>
       </c>
       <c r="C6" t="n">
-        <v>1454833.706767962</v>
+        <v>1453889.860969363</v>
       </c>
       <c r="D6" t="n">
-        <v>1361581.701503754</v>
+        <v>1350281.937213898</v>
       </c>
       <c r="E6" t="n">
-        <v>1346941.202598572</v>
+        <v>1347177.443546295</v>
       </c>
       <c r="F6" t="n">
         <v>1580759.437709347</v>
@@ -8862,13 +8862,13 @@
         <v>1449348.415932925</v>
       </c>
       <c r="C7" t="n">
-        <v>1403543.837328327</v>
+        <v>1406601.817594385</v>
       </c>
       <c r="D7" t="n">
-        <v>1350120.214572906</v>
+        <v>1351181.047309875</v>
       </c>
       <c r="E7" t="n">
-        <v>1340920.326778412</v>
+        <v>1349409.070732117</v>
       </c>
       <c r="F7" t="n">
         <v>1495308.480243898</v>
@@ -8882,13 +8882,13 @@
         <v>1316628.418797399</v>
       </c>
       <c r="C8" t="n">
-        <v>1326849.167910261</v>
+        <v>1329658.126150533</v>
       </c>
       <c r="D8" t="n">
-        <v>1348889.137283325</v>
+        <v>1349786.746360779</v>
       </c>
       <c r="E8" t="n">
-        <v>1341942.133033752</v>
+        <v>1355250.599048615</v>
       </c>
       <c r="F8" t="n">
         <v>1247196.584143331</v>
@@ -8902,13 +8902,13 @@
         <v>1448484.863561966</v>
       </c>
       <c r="C9" t="n">
-        <v>1401219.533094939</v>
+        <v>1405561.596723297</v>
       </c>
       <c r="D9" t="n">
-        <v>1343563.910919189</v>
+        <v>1348625.34538269</v>
       </c>
       <c r="E9" t="n">
-        <v>1352103.350563049</v>
+        <v>1362821.445964813</v>
       </c>
       <c r="F9" t="n">
         <v>1431880.280552339</v>
@@ -8922,13 +8922,13 @@
         <v>1406238.619143981</v>
       </c>
       <c r="C10" t="n">
-        <v>1376558.063762681</v>
+        <v>1379741.206955245</v>
       </c>
       <c r="D10" t="n">
-        <v>1345080.956447601</v>
+        <v>1345596.58052063</v>
       </c>
       <c r="E10" t="n">
-        <v>1340392.50087738</v>
+        <v>1351963.852680206</v>
       </c>
       <c r="F10" t="n">
         <v>1397351.652247004</v>
@@ -8942,13 +8942,13 @@
         <v>1465473.050477547</v>
       </c>
       <c r="C11" t="n">
-        <v>1411752.511337451</v>
+        <v>1411317.09325896</v>
       </c>
       <c r="D11" t="n">
-        <v>1353319.223987579</v>
+        <v>1353966.501911163</v>
       </c>
       <c r="E11" t="n">
-        <v>1347414.265533447</v>
+        <v>1339960.933841705</v>
       </c>
       <c r="F11" t="n">
         <v>1451533.375801868</v>
@@ -8962,13 +8962,13 @@
         <v>1369424.794226767</v>
       </c>
       <c r="C12" t="n">
-        <v>1357538.676099335</v>
+        <v>1359250.537309408</v>
       </c>
       <c r="D12" t="n">
-        <v>1359123.759460449</v>
+        <v>1352316.834133148</v>
       </c>
       <c r="E12" t="n">
-        <v>1331556.682704926</v>
+        <v>1345565.204391479</v>
       </c>
       <c r="F12" t="n">
         <v>1348134.609319234</v>
@@ -8982,13 +8982,13 @@
         <v>1312243.039703819</v>
       </c>
       <c r="C13" t="n">
-        <v>1322346.528676137</v>
+        <v>1324724.436219394</v>
       </c>
       <c r="D13" t="n">
-        <v>1344128.293884277</v>
+        <v>1341249.437194824</v>
       </c>
       <c r="E13" t="n">
-        <v>1333308.710262299</v>
+        <v>1348538.818927765</v>
       </c>
       <c r="F13" t="n">
         <v>1263397.912703778</v>
@@ -9002,13 +9002,13 @@
         <v>1467384.137535612</v>
       </c>
       <c r="C14" t="n">
-        <v>1411543.730346492</v>
+        <v>1412755.151180917</v>
       </c>
       <c r="D14" t="n">
-        <v>1351022.229866028</v>
+        <v>1342229.505451202</v>
       </c>
       <c r="E14" t="n">
-        <v>1336533.091732025</v>
+        <v>1346474.579517365</v>
       </c>
       <c r="F14" t="n">
         <v>1492355.564453505</v>
@@ -9022,13 +9022,13 @@
         <v>1420779.477977416</v>
       </c>
       <c r="C15" t="n">
-        <v>1380534.473639653</v>
+        <v>1385784.058670615</v>
       </c>
       <c r="D15" t="n">
-        <v>1343187.784729004</v>
+        <v>1333148.972839355</v>
       </c>
       <c r="E15" t="n">
-        <v>1321609.19084549</v>
+        <v>1352998.926002502</v>
       </c>
       <c r="F15" t="n">
         <v>1429849.812231069</v>
@@ -9042,13 +9042,13 @@
         <v>1488402.597060649</v>
       </c>
       <c r="C16" t="n">
-        <v>1418572.842767292</v>
+        <v>1418719.789158574</v>
       </c>
       <c r="D16" t="n">
-        <v>1338608.903511047</v>
+        <v>1333947.466274261</v>
       </c>
       <c r="E16" t="n">
-        <v>1331258.948417664</v>
+        <v>1330653.699012756</v>
       </c>
       <c r="F16" t="n">
         <v>1509897.022441767</v>
@@ -9062,13 +9062,13 @@
         <v>1517139.355553404</v>
       </c>
       <c r="C17" t="n">
-        <v>1432867.971418972</v>
+        <v>1442859.484373732</v>
       </c>
       <c r="D17" t="n">
-        <v>1336538.66002655</v>
+        <v>1351631.159187317</v>
       </c>
       <c r="E17" t="n">
-        <v>1323684.131065369</v>
+        <v>1345460.520454407</v>
       </c>
       <c r="F17" t="n">
         <v>1561204.14765759</v>
@@ -9082,13 +9082,13 @@
         <v>1542659.922923123</v>
       </c>
       <c r="C18" t="n">
-        <v>1452924.248268129</v>
+        <v>1453415.100822902</v>
       </c>
       <c r="D18" t="n">
-        <v>1342238.463142395</v>
+        <v>1334853.597263336</v>
       </c>
       <c r="E18" t="n">
-        <v>1341363.90196228</v>
+        <v>1343407.950252533</v>
       </c>
       <c r="F18" t="n">
         <v>1609047.043795534</v>
@@ -9102,13 +9102,13 @@
         <v>1459579.039198957</v>
       </c>
       <c r="C19" t="n">
-        <v>1404992.614727314</v>
+        <v>1408747.573028154</v>
       </c>
       <c r="D19" t="n">
-        <v>1343135.200660706</v>
+        <v>1344200.923812866</v>
       </c>
       <c r="E19" t="n">
-        <v>1328189.752895355</v>
+        <v>1338950.554695129</v>
       </c>
       <c r="F19" t="n">
         <v>1515622.015667904</v>
@@ -9122,13 +9122,13 @@
         <v>1340671.260644272</v>
       </c>
       <c r="C20" t="n">
-        <v>1335972.838137489</v>
+        <v>1340571.39827793</v>
       </c>
       <c r="D20" t="n">
-        <v>1344647.016834259</v>
+        <v>1351418.014556885</v>
       </c>
       <c r="E20" t="n">
-        <v>1326334.203479767</v>
+        <v>1339836.397724152</v>
       </c>
       <c r="F20" t="n">
         <v>1286483.763960752</v>
@@ -9142,13 +9142,13 @@
         <v>1457273.876666622</v>
       </c>
       <c r="C21" t="n">
-        <v>1398827.815059484</v>
+        <v>1405433.276551216</v>
       </c>
       <c r="D21" t="n">
-        <v>1332120.968830109</v>
+        <v>1343155.682300568</v>
       </c>
       <c r="E21" t="n">
-        <v>1329124.790596008</v>
+        <v>1342439.163845062</v>
       </c>
       <c r="F21" t="n">
         <v>1457230.171840306</v>
@@ -9162,13 +9162,13 @@
         <v>1423990.540313727</v>
       </c>
       <c r="C22" t="n">
-        <v>1384554.615674922</v>
+        <v>1386073.507440886</v>
       </c>
       <c r="D22" t="n">
-        <v>1337961.96452713</v>
+        <v>1337998.424751282</v>
       </c>
       <c r="E22" t="n">
-        <v>1339733.941104889</v>
+        <v>1343339.29076004</v>
       </c>
       <c r="F22" t="n">
         <v>1421304.042586561</v>
@@ -9182,13 +9182,13 @@
         <v>1470451.736049701</v>
       </c>
       <c r="C23" t="n">
-        <v>1410033.699238089</v>
+        <v>1411901.447314996</v>
       </c>
       <c r="D23" t="n">
-        <v>1346470.415401459</v>
+        <v>1347269.586715698</v>
       </c>
       <c r="E23" t="n">
-        <v>1329940.085754395</v>
+        <v>1332022.531066895</v>
       </c>
       <c r="F23" t="n">
         <v>1481980.969156709</v>
@@ -9202,13 +9202,13 @@
         <v>1384620.274684009</v>
       </c>
       <c r="C24" t="n">
-        <v>1361957.281628178</v>
+        <v>1366466.957776284</v>
       </c>
       <c r="D24" t="n">
-        <v>1342100.272598267</v>
+        <v>1341171.577911377</v>
       </c>
       <c r="E24" t="n">
-        <v>1331693.275390625</v>
+        <v>1351560.756576538</v>
       </c>
       <c r="F24" t="n">
         <v>1368939.341189105</v>
@@ -9222,13 +9222,13 @@
         <v>1332142.748793587</v>
       </c>
       <c r="C25" t="n">
-        <v>1333365.981634081</v>
+        <v>1334787.005017151</v>
       </c>
       <c r="D25" t="n">
-        <v>1342099.013679504</v>
+        <v>1338247.739086151</v>
       </c>
       <c r="E25" t="n">
-        <v>1334222.588443756</v>
+        <v>1345269.213222504</v>
       </c>
       <c r="F25" t="n">
         <v>1296296.98752558</v>
@@ -9242,13 +9242,13 @@
         <v>1479079.855781822</v>
       </c>
       <c r="C26" t="n">
-        <v>1414865.702258842</v>
+        <v>1418887.083767857</v>
       </c>
       <c r="D26" t="n">
-        <v>1344671.468910217</v>
+        <v>1343312.950305939</v>
       </c>
       <c r="E26" t="n">
-        <v>1327137.732589722</v>
+        <v>1341032.128448486</v>
       </c>
       <c r="F26" t="n">
         <v>1518292.023674777</v>
@@ -9262,13 +9262,13 @@
         <v>1434936.893621408</v>
       </c>
       <c r="C27" t="n">
-        <v>1387501.273977026</v>
+        <v>1390117.37154366</v>
       </c>
       <c r="D27" t="n">
-        <v>1335833.229740143</v>
+        <v>1334951.01820755</v>
       </c>
       <c r="E27" t="n">
-        <v>1324619.362445831</v>
+        <v>1333216.421833038</v>
       </c>
       <c r="F27" t="n">
         <v>1453317.797089009</v>
@@ -9282,13 +9282,13 @@
         <v>1499061.416043405</v>
       </c>
       <c r="C28" t="n">
-        <v>1418486.783735058</v>
+        <v>1426565.405531286</v>
       </c>
       <c r="D28" t="n">
-        <v>1329474.237392426</v>
+        <v>1333495.417598724</v>
       </c>
       <c r="E28" t="n">
-        <v>1310407.186439514</v>
+        <v>1335700.41381073</v>
       </c>
       <c r="F28" t="n">
         <v>1543226.214976188</v>
@@ -9302,13 +9302,13 @@
         <v>1526320.433090255</v>
       </c>
       <c r="C29" t="n">
-        <v>1441556.854797857</v>
+        <v>1445808.212035233</v>
       </c>
       <c r="D29" t="n">
-        <v>1345234.350856781</v>
+        <v>1340643.703590393</v>
       </c>
       <c r="E29" t="n">
-        <v>1328407.013221741</v>
+        <v>1345003.726623535</v>
       </c>
       <c r="F29" t="n">
         <v>1584246.495333715</v>
@@ -9322,13 +9322,13 @@
         <v>1550525.664283878</v>
       </c>
       <c r="C30" t="n">
-        <v>1454654.491567418</v>
+        <v>1462096.083570613</v>
       </c>
       <c r="D30" t="n">
-        <v>1335713.874557495</v>
+        <v>1347757.320896149</v>
       </c>
       <c r="E30" t="n">
-        <v>1333023.032543182</v>
+        <v>1345198.90745163</v>
       </c>
       <c r="F30" t="n">
         <v>1637290.270287135</v>
@@ -9342,13 +9342,13 @@
         <v>1471742.993302779</v>
       </c>
       <c r="C31" t="n">
-        <v>1407783.326971476</v>
+        <v>1416324.309406335</v>
       </c>
       <c r="D31" t="n">
-        <v>1336877.309173584</v>
+        <v>1339379.216533661</v>
       </c>
       <c r="E31" t="n">
-        <v>1316390.197856903</v>
+        <v>1346781.562015533</v>
       </c>
       <c r="F31" t="n">
         <v>1536079.820013054</v>
@@ -9362,13 +9362,13 @@
         <v>1358984.543616633</v>
       </c>
       <c r="C32" t="n">
-        <v>1349262.528460813</v>
+        <v>1349946.772691263</v>
       </c>
       <c r="D32" t="n">
-        <v>1343277.458480835</v>
+        <v>1341293.789871216</v>
       </c>
       <c r="E32" t="n">
-        <v>1338866.110298157</v>
+        <v>1343527.305435181</v>
       </c>
       <c r="F32" t="n">
         <v>1325928.289888104</v>
@@ -9382,13 +9382,13 @@
         <v>1469561.9672241</v>
       </c>
       <c r="C33" t="n">
-        <v>1409477.497611538</v>
+        <v>1408446.639727825</v>
       </c>
       <c r="D33" t="n">
-        <v>1334404.889564514</v>
+        <v>1324589.777854919</v>
       </c>
       <c r="E33" t="n">
-        <v>1342135.861263275</v>
+        <v>1342954.400558472</v>
       </c>
       <c r="F33" t="n">
         <v>1482368.392110338</v>
@@ -9402,13 +9402,13 @@
         <v>1438000.877574426</v>
       </c>
       <c r="C34" t="n">
-        <v>1393577.788650581</v>
+        <v>1398038.939704195</v>
       </c>
       <c r="D34" t="n">
-        <v>1337360.733978271</v>
+        <v>1353051.89743042</v>
       </c>
       <c r="E34" t="n">
-        <v>1344986.973320007</v>
+        <v>1344610.943969727</v>
       </c>
       <c r="F34" t="n">
         <v>1445261.676542776</v>
@@ -9422,13 +9422,13 @@
         <v>1482061.813826792</v>
       </c>
       <c r="C35" t="n">
-        <v>1420984.011447393</v>
+        <v>1419672.899783752</v>
       </c>
       <c r="D35" t="n">
-        <v>1347535.073314667</v>
+        <v>1339738.250480652</v>
       </c>
       <c r="E35" t="n">
-        <v>1346028.922275543</v>
+        <v>1342929.028503418</v>
       </c>
       <c r="F35" t="n">
         <v>1512366.502102674</v>
@@ -9442,13 +9442,13 @@
         <v>1400668.270914038</v>
       </c>
       <c r="C36" t="n">
-        <v>1369247.252466287</v>
+        <v>1372613.881479905</v>
       </c>
       <c r="D36" t="n">
-        <v>1343789.547897339</v>
+        <v>1342372.34431076</v>
       </c>
       <c r="E36" t="n">
-        <v>1322909.411827087</v>
+        <v>1337003.927349091</v>
       </c>
       <c r="F36" t="n">
         <v>1389812.794384272</v>
@@ -9462,13 +9462,13 @@
         <v>1350904.306186284</v>
       </c>
       <c r="C37" t="n">
-        <v>1344431.20092257</v>
+        <v>1343902.301736859</v>
       </c>
       <c r="D37" t="n">
-        <v>1334575.473056793</v>
+        <v>1336665.036102295</v>
       </c>
       <c r="E37" t="n">
-        <v>1343645.934318542</v>
+        <v>1338660.180240631</v>
       </c>
       <c r="F37" t="n">
         <v>1329340.792625384</v>
@@ -9482,13 +9482,13 @@
         <v>1490246.663668669</v>
       </c>
       <c r="C38" t="n">
-        <v>1421621.199548668</v>
+        <v>1427506.779886809</v>
       </c>
       <c r="D38" t="n">
-        <v>1343782.430164337</v>
+        <v>1346335.372154236</v>
       </c>
       <c r="E38" t="n">
-        <v>1328470.394939423</v>
+        <v>1346256.641311646</v>
       </c>
       <c r="F38" t="n">
         <v>1544084.145057096</v>
@@ -9502,13 +9502,13 @@
         <v>1448386.106484951</v>
       </c>
       <c r="C39" t="n">
-        <v>1394739.943423916</v>
+        <v>1400087.81182781</v>
       </c>
       <c r="D39" t="n">
-        <v>1328908.740768433</v>
+        <v>1338323.952091217</v>
       </c>
       <c r="E39" t="n">
-        <v>1329930.934383392</v>
+        <v>1339485.595169067</v>
       </c>
       <c r="F39" t="n">
         <v>1476866.515115936</v>
